--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/10/Output_13_15.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/10/Output_13_15.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>251862.2932105347</v>
+        <v>283407.2820998324</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1790467.545064538</v>
+        <v>1835704.663838078</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>24007487.45890418</v>
+        <v>24007110.38884276</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5123765.263570658</v>
+        <v>5113528.31147079</v>
       </c>
     </row>
     <row r="11">
@@ -7985,10 +7987,10 @@
         <v>108.5919157831171</v>
       </c>
       <c r="M2" t="n">
-        <v>94.50134181136147</v>
+        <v>116.8735187081365</v>
       </c>
       <c r="N2" t="n">
-        <v>89.21461903306817</v>
+        <v>111.9488011414238</v>
       </c>
       <c r="O2" t="n">
         <v>99.00804712831379</v>
@@ -8061,19 +8063,19 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L3" t="n">
-        <v>42.27423123832551</v>
+        <v>57.07593346819698</v>
       </c>
       <c r="M3" t="n">
-        <v>20.73666047215158</v>
+        <v>38.00954882322068</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>17.73005030863851</v>
       </c>
       <c r="O3" t="n">
-        <v>32.82469745261383</v>
+        <v>49.04422963853119</v>
       </c>
       <c r="P3" t="n">
-        <v>54.90492507792075</v>
+        <v>67.92252959633595</v>
       </c>
       <c r="Q3" t="n">
         <v>54.62009481132077</v>
@@ -8222,13 +8224,13 @@
         <v>108.5919157831171</v>
       </c>
       <c r="M5" t="n">
-        <v>87.70217318086733</v>
+        <v>94.50134181136147</v>
       </c>
       <c r="N5" t="n">
-        <v>82.3054327458207</v>
+        <v>89.2146190330682</v>
       </c>
       <c r="O5" t="n">
-        <v>97.41850398649862</v>
+        <v>99.00804712831379</v>
       </c>
       <c r="P5" t="n">
         <v>83.66766412458549</v>
@@ -8298,19 +8300,19 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L6" t="n">
-        <v>37.77581921773375</v>
+        <v>42.27423123832551</v>
       </c>
       <c r="M6" t="n">
-        <v>15.48722582050863</v>
+        <v>20.73666047215158</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>27.8953901729241</v>
+        <v>32.82469745261383</v>
       </c>
       <c r="P6" t="n">
-        <v>50.94872141056345</v>
+        <v>54.90492507792075</v>
       </c>
       <c r="Q6" t="n">
         <v>54.62009481132077</v>
@@ -8456,16 +8458,16 @@
         <v>84.27780726850284</v>
       </c>
       <c r="L8" t="n">
-        <v>102.8381142892153</v>
+        <v>108.5919157831171</v>
       </c>
       <c r="M8" t="n">
-        <v>67.64282070579191</v>
+        <v>78.10034751467731</v>
       </c>
       <c r="N8" t="n">
-        <v>61.92149897629116</v>
+        <v>72.54823950195203</v>
       </c>
       <c r="O8" t="n">
-        <v>78.17053334824146</v>
+        <v>88.20506308773926</v>
       </c>
       <c r="P8" t="n">
         <v>83.66766412458549</v>
@@ -8535,19 +8537,19 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L9" t="n">
-        <v>24.50430953720269</v>
+        <v>31.42313547891663</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>8.073943534043309</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>13.35262508576585</v>
+        <v>20.93419363157247</v>
       </c>
       <c r="P9" t="n">
-        <v>39.2768703153011</v>
+        <v>45.36174747620086</v>
       </c>
       <c r="Q9" t="n">
         <v>54.62009481132077</v>
@@ -8690,22 +8692,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>82.693084352536</v>
+        <v>77.93639933769612</v>
       </c>
       <c r="L11" t="n">
-        <v>48.07411698098349</v>
+        <v>42.17302860521357</v>
       </c>
       <c r="M11" t="n">
-        <v>6.707321807773383</v>
+        <v>0.1412239717268449</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>19.69981775191468</v>
+        <v>13.39931236355858</v>
       </c>
       <c r="P11" t="n">
-        <v>67.78072631241469</v>
+        <v>62.40339073079667</v>
       </c>
       <c r="Q11" t="n">
         <v>55.20189757157522</v>
@@ -8769,7 +8771,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K12" t="n">
-        <v>39.13339190934374</v>
+        <v>35.90259171246745</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8784,7 +8786,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>3.820587744020429</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>54.62009481132077</v>
@@ -8927,22 +8929,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>82.693084352536</v>
+        <v>77.93639933769612</v>
       </c>
       <c r="L14" t="n">
-        <v>48.07411698098349</v>
+        <v>42.17302860521357</v>
       </c>
       <c r="M14" t="n">
-        <v>6.707321807773383</v>
+        <v>0.1412239717268449</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>19.69981775191468</v>
+        <v>13.39931236355858</v>
       </c>
       <c r="P14" t="n">
-        <v>67.78072631241469</v>
+        <v>62.40339073079667</v>
       </c>
       <c r="Q14" t="n">
         <v>55.20189757157522</v>
@@ -9006,7 +9008,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K15" t="n">
-        <v>39.13339190934374</v>
+        <v>35.90259171246745</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9021,7 +9023,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>3.820587744020429</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>54.62009481132077</v>
@@ -9164,22 +9166,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>82.693084352536</v>
+        <v>77.93639933769612</v>
       </c>
       <c r="L17" t="n">
-        <v>48.07411698098349</v>
+        <v>42.17302860521357</v>
       </c>
       <c r="M17" t="n">
-        <v>6.707321807773383</v>
+        <v>0.1412239717268449</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>19.69981775191468</v>
+        <v>13.39931236355858</v>
       </c>
       <c r="P17" t="n">
-        <v>67.78072631241469</v>
+        <v>62.40339073079667</v>
       </c>
       <c r="Q17" t="n">
         <v>55.20189757157522</v>
@@ -9243,7 +9245,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K18" t="n">
-        <v>39.13339190934374</v>
+        <v>35.90259171246745</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9258,7 +9260,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>3.820587744020429</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>54.62009481132077</v>
@@ -9401,22 +9403,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>82.693084352536</v>
+        <v>77.93639933769612</v>
       </c>
       <c r="L20" t="n">
-        <v>48.07411698098349</v>
+        <v>42.17302860521357</v>
       </c>
       <c r="M20" t="n">
-        <v>6.707321807773383</v>
+        <v>0.1412239717268449</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>19.69981775191468</v>
+        <v>13.39931236355858</v>
       </c>
       <c r="P20" t="n">
-        <v>67.78072631241469</v>
+        <v>62.40339073079667</v>
       </c>
       <c r="Q20" t="n">
         <v>55.20189757157522</v>
@@ -9480,7 +9482,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K21" t="n">
-        <v>39.13339190934374</v>
+        <v>35.90259171246745</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9495,7 +9497,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>3.820587744020429</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>54.62009481132077</v>
@@ -9638,22 +9640,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>82.69308435253603</v>
+        <v>77.93639933769612</v>
       </c>
       <c r="L23" t="n">
-        <v>48.07411698098349</v>
+        <v>42.17302860521357</v>
       </c>
       <c r="M23" t="n">
-        <v>6.707321807773383</v>
+        <v>0.1412239717268449</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>19.69981775191468</v>
+        <v>13.39931236355858</v>
       </c>
       <c r="P23" t="n">
-        <v>67.78072631241469</v>
+        <v>62.40339073079667</v>
       </c>
       <c r="Q23" t="n">
         <v>55.20189757157522</v>
@@ -9717,7 +9719,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K24" t="n">
-        <v>39.13339190934374</v>
+        <v>35.90259171246745</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9732,7 +9734,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>3.820587744020429</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>54.62009481132077</v>
@@ -9875,22 +9877,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>82.693084352536</v>
+        <v>77.93639933769612</v>
       </c>
       <c r="L26" t="n">
-        <v>48.07411698098349</v>
+        <v>42.17302860521357</v>
       </c>
       <c r="M26" t="n">
-        <v>6.707321807773383</v>
+        <v>0.1412239717268449</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>19.69981775191468</v>
+        <v>13.39931236355858</v>
       </c>
       <c r="P26" t="n">
-        <v>67.78072631241469</v>
+        <v>62.40339073079667</v>
       </c>
       <c r="Q26" t="n">
         <v>55.20189757157522</v>
@@ -9954,7 +9956,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K27" t="n">
-        <v>39.13339190934374</v>
+        <v>35.90259171246745</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9969,7 +9971,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>3.820587744020429</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>54.62009481132077</v>
@@ -10112,22 +10114,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>82.693084352536</v>
+        <v>77.93639933769612</v>
       </c>
       <c r="L29" t="n">
-        <v>48.07411698098349</v>
+        <v>42.17302860521357</v>
       </c>
       <c r="M29" t="n">
-        <v>6.707321807773383</v>
+        <v>0.1412239717268449</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>19.69981775191468</v>
+        <v>13.39931236355858</v>
       </c>
       <c r="P29" t="n">
-        <v>67.78072631241469</v>
+        <v>62.40339073079667</v>
       </c>
       <c r="Q29" t="n">
         <v>55.20189757157522</v>
@@ -10191,7 +10193,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K30" t="n">
-        <v>39.13339190934374</v>
+        <v>35.90259171246745</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10206,7 +10208,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>3.820587744020429</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>54.62009481132077</v>
@@ -10349,22 +10351,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>82.693084352536</v>
+        <v>77.93639933769612</v>
       </c>
       <c r="L32" t="n">
-        <v>48.07411698098349</v>
+        <v>42.17302860521357</v>
       </c>
       <c r="M32" t="n">
-        <v>6.707321807773383</v>
+        <v>0.1412239717268449</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>19.69981775191468</v>
+        <v>13.39931236355858</v>
       </c>
       <c r="P32" t="n">
-        <v>67.78072631241469</v>
+        <v>62.40339073079667</v>
       </c>
       <c r="Q32" t="n">
         <v>55.20189757157522</v>
@@ -10428,7 +10430,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K33" t="n">
-        <v>39.13339190934374</v>
+        <v>35.90259171246745</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10443,7 +10445,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>3.820587744020429</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>54.62009481132077</v>
@@ -10586,22 +10588,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>82.693084352536</v>
+        <v>77.93639933769612</v>
       </c>
       <c r="L35" t="n">
-        <v>48.07411698098349</v>
+        <v>42.17302860521357</v>
       </c>
       <c r="M35" t="n">
-        <v>6.707321807773383</v>
+        <v>0.1412239717268449</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>19.69981775191468</v>
+        <v>13.39931236355858</v>
       </c>
       <c r="P35" t="n">
-        <v>67.78072631241469</v>
+        <v>62.40339073079667</v>
       </c>
       <c r="Q35" t="n">
         <v>55.20189757157522</v>
@@ -10665,7 +10667,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K36" t="n">
-        <v>39.13339190934374</v>
+        <v>35.90259171246745</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10680,7 +10682,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>3.820587744020429</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>54.62009481132077</v>
@@ -10823,22 +10825,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>82.693084352536</v>
+        <v>77.93639933769612</v>
       </c>
       <c r="L38" t="n">
-        <v>48.07411698098349</v>
+        <v>42.17302860521357</v>
       </c>
       <c r="M38" t="n">
-        <v>6.707321807773383</v>
+        <v>0.1412239717268449</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>19.69981775191468</v>
+        <v>13.39931236355858</v>
       </c>
       <c r="P38" t="n">
-        <v>67.78072631241469</v>
+        <v>62.40339073079667</v>
       </c>
       <c r="Q38" t="n">
         <v>55.20189757157522</v>
@@ -10902,7 +10904,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K39" t="n">
-        <v>39.13339190934374</v>
+        <v>35.90259171246745</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10917,7 +10919,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>3.820587744020429</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>54.62009481132077</v>
@@ -11060,22 +11062,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>82.693084352536</v>
+        <v>77.93639933769612</v>
       </c>
       <c r="L41" t="n">
-        <v>48.07411698098349</v>
+        <v>42.17302860521357</v>
       </c>
       <c r="M41" t="n">
-        <v>6.707321807773383</v>
+        <v>0.1412239717268449</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>19.69981775191468</v>
+        <v>13.39931236355858</v>
       </c>
       <c r="P41" t="n">
-        <v>67.78072631241469</v>
+        <v>62.40339073079667</v>
       </c>
       <c r="Q41" t="n">
         <v>55.20189757157522</v>
@@ -11139,7 +11141,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K42" t="n">
-        <v>39.13339190934374</v>
+        <v>35.90259171246745</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11154,7 +11156,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>3.820587744020429</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>54.62009481132077</v>
@@ -11297,22 +11299,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>82.693084352536</v>
+        <v>77.93639933769612</v>
       </c>
       <c r="L44" t="n">
-        <v>48.07411698098349</v>
+        <v>42.17302860521357</v>
       </c>
       <c r="M44" t="n">
-        <v>6.707321807773383</v>
+        <v>0.1412239717268449</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>19.69981775191468</v>
+        <v>13.39931236355858</v>
       </c>
       <c r="P44" t="n">
-        <v>67.78072631241469</v>
+        <v>62.40339073079667</v>
       </c>
       <c r="Q44" t="n">
         <v>55.20189757157522</v>
@@ -11376,7 +11378,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K45" t="n">
-        <v>39.13339190934374</v>
+        <v>35.90259171246745</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11391,7 +11393,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>3.820587744020429</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>54.62009481132077</v>
@@ -22559,22 +22561,22 @@
         <v>399.146417573369</v>
       </c>
       <c r="G2" t="n">
-        <v>422.2098565259836</v>
+        <v>422.3372670711946</v>
       </c>
       <c r="H2" t="n">
-        <v>349.9597650259403</v>
+        <v>351.2646082720821</v>
       </c>
       <c r="I2" t="n">
-        <v>254.413627538865</v>
+        <v>259.3256225831108</v>
       </c>
       <c r="J2" t="n">
-        <v>103.6577574092157</v>
+        <v>114.4715681708149</v>
       </c>
       <c r="K2" t="n">
-        <v>62.01598937483024</v>
+        <v>78.22308851520961</v>
       </c>
       <c r="L2" t="n">
-        <v>18.3845087542864</v>
+        <v>38.49084836766588</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -22583,25 +22585,25 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>4.934605547775959</v>
+        <v>26.40184904719004</v>
       </c>
       <c r="P2" t="n">
-        <v>56.01237276874355</v>
+        <v>74.33416843326191</v>
       </c>
       <c r="Q2" t="n">
-        <v>120.8562777625268</v>
+        <v>134.6151832766775</v>
       </c>
       <c r="R2" t="n">
-        <v>211.4982239222711</v>
+        <v>219.5016765828794</v>
       </c>
       <c r="S2" t="n">
-        <v>235.9346815086628</v>
+        <v>238.8380493076577</v>
       </c>
       <c r="T2" t="n">
-        <v>219.4718503679457</v>
+        <v>220.0295900296067</v>
       </c>
       <c r="U2" t="n">
-        <v>248.7911763328777</v>
+        <v>248.8013691764946</v>
       </c>
       <c r="V2" t="n">
         <v>313.3044420010231</v>
@@ -22638,19 +22640,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G3" t="n">
-        <v>161.0306354769367</v>
+        <v>161.0988061285559</v>
       </c>
       <c r="H3" t="n">
-        <v>137.9016867325838</v>
+        <v>138.5600717100643</v>
       </c>
       <c r="I3" t="n">
-        <v>117.4902810648562</v>
+        <v>119.8373846403433</v>
       </c>
       <c r="J3" t="n">
-        <v>82.93859734111298</v>
+        <v>89.37922894870135</v>
       </c>
       <c r="K3" t="n">
-        <v>13.57083277636242</v>
+        <v>24.57889804244016</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -22668,19 +22670,19 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>55.8266610081867</v>
+        <v>64.52858488856606</v>
       </c>
       <c r="R3" t="n">
-        <v>155.3651088272201</v>
+        <v>159.5976691093343</v>
       </c>
       <c r="S3" t="n">
-        <v>208.3135435403172</v>
+        <v>209.5797834947361</v>
       </c>
       <c r="T3" t="n">
-        <v>230.1584524961191</v>
+        <v>230.4332280611984</v>
       </c>
       <c r="U3" t="n">
-        <v>249.6505853349712</v>
+        <v>249.6550702462619</v>
       </c>
       <c r="V3" t="n">
         <v>249.2999251801724</v>
@@ -22717,49 +22719,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G4" t="n">
-        <v>169.247518043053</v>
+        <v>169.30467002737</v>
       </c>
       <c r="H4" t="n">
-        <v>167.6944209426916</v>
+        <v>168.2025540396188</v>
       </c>
       <c r="I4" t="n">
-        <v>168.1305865516738</v>
+        <v>169.8493025891331</v>
       </c>
       <c r="J4" t="n">
-        <v>133.20905535072</v>
+        <v>137.2497006419296</v>
       </c>
       <c r="K4" t="n">
-        <v>88.99056004441432</v>
+        <v>95.63058149505842</v>
       </c>
       <c r="L4" t="n">
-        <v>62.96960703121101</v>
+        <v>71.46654840866277</v>
       </c>
       <c r="M4" t="n">
-        <v>59.70650310975205</v>
+        <v>68.66533643318368</v>
       </c>
       <c r="N4" t="n">
-        <v>47.31542685419204</v>
+        <v>56.06123914516952</v>
       </c>
       <c r="O4" t="n">
-        <v>72.58297639552539</v>
+        <v>80.66114959698193</v>
       </c>
       <c r="P4" t="n">
-        <v>91.43798011889523</v>
+        <v>98.35025284028562</v>
       </c>
       <c r="Q4" t="n">
-        <v>152.7386590351999</v>
+        <v>157.5243583765053</v>
       </c>
       <c r="R4" t="n">
-        <v>221.644124959155</v>
+        <v>224.2138859994434</v>
       </c>
       <c r="S4" t="n">
-        <v>243.9209403175845</v>
+        <v>244.9169435351811</v>
       </c>
       <c r="T4" t="n">
-        <v>218.1427676199599</v>
+        <v>218.3869624620415</v>
       </c>
       <c r="U4" t="n">
-        <v>291.2202965310711</v>
+        <v>291.2234139120339</v>
       </c>
       <c r="V4" t="n">
         <v>237.3615500762718</v>
@@ -22796,22 +22798,22 @@
         <v>399.146417573369</v>
       </c>
       <c r="G5" t="n">
-        <v>422.1711349573947</v>
+        <v>422.2098565259836</v>
       </c>
       <c r="H5" t="n">
-        <v>349.5632077616287</v>
+        <v>349.9597650259403</v>
       </c>
       <c r="I5" t="n">
-        <v>252.9208142658396</v>
+        <v>254.413627538865</v>
       </c>
       <c r="J5" t="n">
-        <v>100.3713126771895</v>
+        <v>103.6577574092157</v>
       </c>
       <c r="K5" t="n">
-        <v>57.09046064443382</v>
+        <v>62.01598937483024</v>
       </c>
       <c r="L5" t="n">
-        <v>12.27395481918597</v>
+        <v>18.38450875428637</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -22820,25 +22822,25 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>4.934605547775959</v>
       </c>
       <c r="P5" t="n">
-        <v>50.44416280369205</v>
+        <v>56.01237276874352</v>
       </c>
       <c r="Q5" t="n">
-        <v>116.674783972567</v>
+        <v>120.8562777625268</v>
       </c>
       <c r="R5" t="n">
-        <v>209.0658801893955</v>
+        <v>211.4982239222711</v>
       </c>
       <c r="S5" t="n">
-        <v>235.0523137644421</v>
+        <v>235.9346815086628</v>
       </c>
       <c r="T5" t="n">
-        <v>219.3023467014476</v>
+        <v>219.4718503679457</v>
       </c>
       <c r="U5" t="n">
-        <v>248.7880786073906</v>
+        <v>248.7911763328777</v>
       </c>
       <c r="V5" t="n">
         <v>313.3044420010231</v>
@@ -22875,19 +22877,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G6" t="n">
-        <v>161.0099176112525</v>
+        <v>161.0306354769367</v>
       </c>
       <c r="H6" t="n">
-        <v>137.701595766634</v>
+        <v>137.9016867325838</v>
       </c>
       <c r="I6" t="n">
-        <v>116.7769685840634</v>
+        <v>117.4902810648562</v>
       </c>
       <c r="J6" t="n">
-        <v>80.98121337311851</v>
+        <v>82.93859734111298</v>
       </c>
       <c r="K6" t="n">
-        <v>10.22535180752844</v>
+        <v>13.57083277636241</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -22905,19 +22907,19 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>53.18204362716858</v>
+        <v>55.82666100818672</v>
       </c>
       <c r="R6" t="n">
-        <v>154.0787837981625</v>
+        <v>155.3651088272201</v>
       </c>
       <c r="S6" t="n">
-        <v>207.9287182720169</v>
+        <v>208.3135435403172</v>
       </c>
       <c r="T6" t="n">
-        <v>230.0749449585587</v>
+        <v>230.1584524961191</v>
       </c>
       <c r="U6" t="n">
-        <v>249.6492223174919</v>
+        <v>249.6505853349712</v>
       </c>
       <c r="V6" t="n">
         <v>249.2999251801724</v>
@@ -22954,49 +22956,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G7" t="n">
-        <v>169.2301488804216</v>
+        <v>169.247518043053</v>
       </c>
       <c r="H7" t="n">
-        <v>167.5399932967506</v>
+        <v>167.6944209426916</v>
       </c>
       <c r="I7" t="n">
-        <v>167.6082484609042</v>
+        <v>168.1305865516738</v>
       </c>
       <c r="J7" t="n">
-        <v>131.9810555526804</v>
+        <v>133.20905535072</v>
       </c>
       <c r="K7" t="n">
-        <v>86.97257914960316</v>
+        <v>88.99056004441432</v>
       </c>
       <c r="L7" t="n">
-        <v>60.38728625235798</v>
+        <v>62.96960703121101</v>
       </c>
       <c r="M7" t="n">
-        <v>56.98380791654166</v>
+        <v>59.70650310975206</v>
       </c>
       <c r="N7" t="n">
-        <v>44.6574712671532</v>
+        <v>47.31542685419204</v>
       </c>
       <c r="O7" t="n">
-        <v>70.12792420831695</v>
+        <v>72.58297639552539</v>
       </c>
       <c r="P7" t="n">
-        <v>89.33725884936725</v>
+        <v>91.43798011889523</v>
       </c>
       <c r="Q7" t="n">
-        <v>151.2842285170383</v>
+        <v>152.7386590351999</v>
       </c>
       <c r="R7" t="n">
-        <v>220.863144246656</v>
+        <v>221.644124959155</v>
       </c>
       <c r="S7" t="n">
-        <v>243.6182431833628</v>
+        <v>243.9209403175845</v>
       </c>
       <c r="T7" t="n">
-        <v>218.0685539250803</v>
+        <v>218.1427676199599</v>
       </c>
       <c r="U7" t="n">
-        <v>291.2193491222004</v>
+        <v>291.2202965310711</v>
       </c>
       <c r="V7" t="n">
         <v>237.3615500762718</v>
@@ -23033,22 +23035,22 @@
         <v>399.146417573369</v>
       </c>
       <c r="G8" t="n">
-        <v>422.0568960504156</v>
+        <v>422.1164521319908</v>
       </c>
       <c r="H8" t="n">
-        <v>348.3932585555301</v>
+        <v>349.0031872759618</v>
       </c>
       <c r="I8" t="n">
-        <v>248.5166188045319</v>
+        <v>250.8126546394585</v>
       </c>
       <c r="J8" t="n">
-        <v>90.67542824598098</v>
+        <v>95.73017622457125</v>
       </c>
       <c r="K8" t="n">
-        <v>42.5588432808045</v>
+        <v>50.13460019247154</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>3.644594849271272</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -23060,22 +23062,22 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>34.01646518147885</v>
+        <v>42.58070415708974</v>
       </c>
       <c r="Q8" t="n">
-        <v>104.3382672065391</v>
+        <v>110.7696540107393</v>
       </c>
       <c r="R8" t="n">
-        <v>201.8898204488762</v>
+        <v>205.6309101581223</v>
       </c>
       <c r="S8" t="n">
-        <v>232.4490946716583</v>
+        <v>233.8062288805524</v>
       </c>
       <c r="T8" t="n">
-        <v>218.802265886147</v>
+        <v>219.0629726332423</v>
       </c>
       <c r="U8" t="n">
-        <v>248.7789394948323</v>
+        <v>248.7837039813583</v>
       </c>
       <c r="V8" t="n">
         <v>313.3044420010231</v>
@@ -23112,19 +23114,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G9" t="n">
-        <v>160.948794407391</v>
+        <v>160.9806597202829</v>
       </c>
       <c r="H9" t="n">
-        <v>137.1112742977616</v>
+        <v>137.4190261354275</v>
       </c>
       <c r="I9" t="n">
-        <v>114.6725073984828</v>
+        <v>115.7696245309433</v>
       </c>
       <c r="J9" t="n">
-        <v>75.20641102934879</v>
+        <v>78.21698429690682</v>
       </c>
       <c r="K9" t="n">
-        <v>0.3552948050415807</v>
+        <v>5.5008440363532</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -23142,19 +23144,19 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>45.37972027109998</v>
+        <v>49.44729950971514</v>
       </c>
       <c r="R9" t="n">
-        <v>150.2837834742034</v>
+        <v>152.262228076383</v>
       </c>
       <c r="S9" t="n">
-        <v>206.7933815687133</v>
+        <v>207.3852657796648</v>
       </c>
       <c r="T9" t="n">
-        <v>229.8285755535207</v>
+        <v>229.9570151260979</v>
       </c>
       <c r="U9" t="n">
-        <v>249.64520105408</v>
+        <v>249.6472974562439</v>
       </c>
       <c r="V9" t="n">
         <v>249.2999251801724</v>
@@ -23191,49 +23193,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G10" t="n">
-        <v>169.1789052395657</v>
+        <v>169.205620047469</v>
       </c>
       <c r="H10" t="n">
-        <v>167.0843907444132</v>
+        <v>167.3219096728624</v>
       </c>
       <c r="I10" t="n">
-        <v>166.0672124249817</v>
+        <v>166.8705995572006</v>
       </c>
       <c r="J10" t="n">
-        <v>128.3581301441649</v>
+        <v>130.2468670629273</v>
       </c>
       <c r="K10" t="n">
-        <v>81.01899978470317</v>
+        <v>84.12277473928502</v>
       </c>
       <c r="L10" t="n">
-        <v>52.76875441092022</v>
+        <v>56.74051776046886</v>
       </c>
       <c r="M10" t="n">
-        <v>48.95113428673176</v>
+        <v>53.13880185651696</v>
       </c>
       <c r="N10" t="n">
-        <v>36.81579666235181</v>
+        <v>40.90389085722478</v>
       </c>
       <c r="O10" t="n">
-        <v>62.88486849896913</v>
+        <v>66.66088516515369</v>
       </c>
       <c r="P10" t="n">
-        <v>83.13957341348075</v>
+        <v>86.37060799843826</v>
       </c>
       <c r="Q10" t="n">
-        <v>146.9932723722735</v>
+        <v>149.2302732413388</v>
       </c>
       <c r="R10" t="n">
-        <v>218.5590438132605</v>
+        <v>219.7602387213483</v>
       </c>
       <c r="S10" t="n">
-        <v>242.7252062786279</v>
+        <v>243.1907725218151</v>
       </c>
       <c r="T10" t="n">
-        <v>217.8496038232412</v>
+        <v>217.9637489115553</v>
       </c>
       <c r="U10" t="n">
-        <v>291.2165540145173</v>
+        <v>291.2180111858574</v>
       </c>
       <c r="V10" t="n">
         <v>237.3615500762718</v>
@@ -23270,16 +23272,16 @@
         <v>399.146417573369</v>
       </c>
       <c r="G11" t="n">
-        <v>421.7098656665098</v>
+        <v>421.67247144649</v>
       </c>
       <c r="H11" t="n">
-        <v>344.8392336363538</v>
+        <v>344.4562700805762</v>
       </c>
       <c r="I11" t="n">
-        <v>235.1377299289993</v>
+        <v>233.6960892616871</v>
       </c>
       <c r="J11" t="n">
-        <v>61.2216581999468</v>
+        <v>58.04787051854379</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23300,19 +23302,19 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>66.8628898365198</v>
+        <v>62.82473475935981</v>
       </c>
       <c r="R11" t="n">
-        <v>180.0906730958467</v>
+        <v>177.7417084225297</v>
       </c>
       <c r="S11" t="n">
-        <v>224.5411397984024</v>
+        <v>223.6890190097018</v>
       </c>
       <c r="T11" t="n">
-        <v>217.2831403805989</v>
+        <v>217.1194471824624</v>
       </c>
       <c r="U11" t="n">
-        <v>248.7511770641198</v>
+        <v>248.7481855265182</v>
       </c>
       <c r="V11" t="n">
         <v>313.3044420010231</v>
@@ -23349,16 +23351,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G12" t="n">
-        <v>160.7631167826437</v>
+        <v>160.7431091110548</v>
       </c>
       <c r="H12" t="n">
-        <v>135.3180193429644</v>
+        <v>135.1247873568297</v>
       </c>
       <c r="I12" t="n">
-        <v>108.279659353452</v>
+        <v>107.5907987307646</v>
       </c>
       <c r="J12" t="n">
-        <v>57.66394736845585</v>
+        <v>55.77366116803451</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23379,19 +23381,19 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>21.67813434720469</v>
+        <v>19.12417261947328</v>
       </c>
       <c r="R12" t="n">
-        <v>138.7554832289223</v>
+        <v>137.5132525315004</v>
       </c>
       <c r="S12" t="n">
-        <v>203.3445011265852</v>
+        <v>202.9728674021163</v>
       </c>
       <c r="T12" t="n">
-        <v>229.0801644257012</v>
+        <v>228.9995194687267</v>
       </c>
       <c r="U12" t="n">
-        <v>249.6329854208729</v>
+        <v>249.6316691266894</v>
       </c>
       <c r="V12" t="n">
         <v>249.2999251801724</v>
@@ -23428,49 +23430,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G13" t="n">
-        <v>169.0232393562931</v>
+        <v>169.0064655965343</v>
       </c>
       <c r="H13" t="n">
-        <v>165.7003795276809</v>
+        <v>165.5512455545521</v>
       </c>
       <c r="I13" t="n">
-        <v>161.3859147716582</v>
+        <v>160.8814820690915</v>
       </c>
       <c r="J13" t="n">
-        <v>117.3525521967958</v>
+        <v>116.1666473818438</v>
       </c>
       <c r="K13" t="n">
-        <v>62.93345443721984</v>
+        <v>60.9846485306895</v>
       </c>
       <c r="L13" t="n">
-        <v>29.62548300147245</v>
+        <v>27.13168239150397</v>
       </c>
       <c r="M13" t="n">
-        <v>24.54979951156312</v>
+        <v>21.92043642499797</v>
       </c>
       <c r="N13" t="n">
-        <v>12.99467108847176</v>
+        <v>10.42782837918966</v>
       </c>
       <c r="O13" t="n">
-        <v>40.88220347059112</v>
+        <v>38.51130877303761</v>
       </c>
       <c r="P13" t="n">
-        <v>64.31249240386273</v>
+        <v>62.28378240539014</v>
       </c>
       <c r="Q13" t="n">
-        <v>133.9583773647877</v>
+        <v>132.5538037180701</v>
       </c>
       <c r="R13" t="n">
-        <v>211.5597396435694</v>
+        <v>210.8055304093206</v>
       </c>
       <c r="S13" t="n">
-        <v>240.0123744765054</v>
+        <v>239.7200535905258</v>
       </c>
       <c r="T13" t="n">
-        <v>217.1844859583495</v>
+        <v>217.1128162575616</v>
       </c>
       <c r="U13" t="n">
-        <v>291.208063148157</v>
+        <v>291.2071482158065</v>
       </c>
       <c r="V13" t="n">
         <v>237.3615500762718</v>
@@ -23507,16 +23509,16 @@
         <v>399.146417573369</v>
       </c>
       <c r="G14" t="n">
-        <v>421.7098656665098</v>
+        <v>421.67247144649</v>
       </c>
       <c r="H14" t="n">
-        <v>344.8392336363538</v>
+        <v>344.4562700805762</v>
       </c>
       <c r="I14" t="n">
-        <v>235.1377299289993</v>
+        <v>233.6960892616871</v>
       </c>
       <c r="J14" t="n">
-        <v>61.2216581999468</v>
+        <v>58.04787051854379</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23537,19 +23539,19 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>66.8628898365198</v>
+        <v>62.82473475935981</v>
       </c>
       <c r="R14" t="n">
-        <v>180.0906730958467</v>
+        <v>177.7417084225297</v>
       </c>
       <c r="S14" t="n">
-        <v>224.5411397984024</v>
+        <v>223.6890190097018</v>
       </c>
       <c r="T14" t="n">
-        <v>217.2831403805989</v>
+        <v>217.1194471824624</v>
       </c>
       <c r="U14" t="n">
-        <v>248.7511770641198</v>
+        <v>248.7481855265182</v>
       </c>
       <c r="V14" t="n">
         <v>313.3044420010231</v>
@@ -23586,16 +23588,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G15" t="n">
-        <v>160.7631167826437</v>
+        <v>160.7431091110548</v>
       </c>
       <c r="H15" t="n">
-        <v>135.3180193429644</v>
+        <v>135.1247873568297</v>
       </c>
       <c r="I15" t="n">
-        <v>108.279659353452</v>
+        <v>107.5907987307646</v>
       </c>
       <c r="J15" t="n">
-        <v>57.66394736845585</v>
+        <v>55.77366116803451</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23616,19 +23618,19 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>21.67813434720469</v>
+        <v>19.12417261947328</v>
       </c>
       <c r="R15" t="n">
-        <v>138.7554832289223</v>
+        <v>137.5132525315004</v>
       </c>
       <c r="S15" t="n">
-        <v>203.3445011265852</v>
+        <v>202.9728674021163</v>
       </c>
       <c r="T15" t="n">
-        <v>229.0801644257012</v>
+        <v>228.9995194687267</v>
       </c>
       <c r="U15" t="n">
-        <v>249.6329854208729</v>
+        <v>249.6316691266894</v>
       </c>
       <c r="V15" t="n">
         <v>249.2999251801724</v>
@@ -23665,49 +23667,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G16" t="n">
-        <v>169.0232393562931</v>
+        <v>169.0064655965343</v>
       </c>
       <c r="H16" t="n">
-        <v>165.7003795276809</v>
+        <v>165.5512455545521</v>
       </c>
       <c r="I16" t="n">
-        <v>161.3859147716582</v>
+        <v>160.8814820690915</v>
       </c>
       <c r="J16" t="n">
-        <v>117.3525521967958</v>
+        <v>116.1666473818438</v>
       </c>
       <c r="K16" t="n">
-        <v>62.93345443721984</v>
+        <v>60.9846485306895</v>
       </c>
       <c r="L16" t="n">
-        <v>29.62548300147245</v>
+        <v>27.13168239150397</v>
       </c>
       <c r="M16" t="n">
-        <v>24.54979951156312</v>
+        <v>21.92043642499797</v>
       </c>
       <c r="N16" t="n">
-        <v>12.99467108847176</v>
+        <v>10.42782837918966</v>
       </c>
       <c r="O16" t="n">
-        <v>40.88220347059112</v>
+        <v>38.51130877303761</v>
       </c>
       <c r="P16" t="n">
-        <v>64.31249240386273</v>
+        <v>62.28378240539014</v>
       </c>
       <c r="Q16" t="n">
-        <v>133.9583773647877</v>
+        <v>132.5538037180701</v>
       </c>
       <c r="R16" t="n">
-        <v>211.5597396435694</v>
+        <v>210.8055304093206</v>
       </c>
       <c r="S16" t="n">
-        <v>240.0123744765054</v>
+        <v>239.7200535905258</v>
       </c>
       <c r="T16" t="n">
-        <v>217.1844859583495</v>
+        <v>217.1128162575616</v>
       </c>
       <c r="U16" t="n">
-        <v>291.208063148157</v>
+        <v>291.2071482158065</v>
       </c>
       <c r="V16" t="n">
         <v>237.3615500762718</v>
@@ -23744,16 +23746,16 @@
         <v>399.146417573369</v>
       </c>
       <c r="G17" t="n">
-        <v>421.7098656665098</v>
+        <v>421.67247144649</v>
       </c>
       <c r="H17" t="n">
-        <v>344.8392336363538</v>
+        <v>344.4562700805762</v>
       </c>
       <c r="I17" t="n">
-        <v>235.1377299289993</v>
+        <v>233.6960892616871</v>
       </c>
       <c r="J17" t="n">
-        <v>61.2216581999468</v>
+        <v>58.04787051854379</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23774,19 +23776,19 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>66.8628898365198</v>
+        <v>62.82473475935981</v>
       </c>
       <c r="R17" t="n">
-        <v>180.0906730958467</v>
+        <v>177.7417084225297</v>
       </c>
       <c r="S17" t="n">
-        <v>224.5411397984024</v>
+        <v>223.6890190097018</v>
       </c>
       <c r="T17" t="n">
-        <v>217.2831403805989</v>
+        <v>217.1194471824624</v>
       </c>
       <c r="U17" t="n">
-        <v>248.7511770641198</v>
+        <v>248.7481855265182</v>
       </c>
       <c r="V17" t="n">
         <v>313.3044420010231</v>
@@ -23823,16 +23825,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G18" t="n">
-        <v>160.7631167826437</v>
+        <v>160.7431091110548</v>
       </c>
       <c r="H18" t="n">
-        <v>135.3180193429644</v>
+        <v>135.1247873568297</v>
       </c>
       <c r="I18" t="n">
-        <v>108.279659353452</v>
+        <v>107.5907987307646</v>
       </c>
       <c r="J18" t="n">
-        <v>57.66394736845585</v>
+        <v>55.77366116803451</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23853,19 +23855,19 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>21.67813434720469</v>
+        <v>19.12417261947328</v>
       </c>
       <c r="R18" t="n">
-        <v>138.7554832289223</v>
+        <v>137.5132525315004</v>
       </c>
       <c r="S18" t="n">
-        <v>203.3445011265852</v>
+        <v>202.9728674021163</v>
       </c>
       <c r="T18" t="n">
-        <v>229.0801644257012</v>
+        <v>228.9995194687267</v>
       </c>
       <c r="U18" t="n">
-        <v>249.6329854208729</v>
+        <v>249.6316691266894</v>
       </c>
       <c r="V18" t="n">
         <v>249.2999251801724</v>
@@ -23902,49 +23904,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G19" t="n">
-        <v>169.0232393562931</v>
+        <v>169.0064655965343</v>
       </c>
       <c r="H19" t="n">
-        <v>165.7003795276809</v>
+        <v>165.5512455545521</v>
       </c>
       <c r="I19" t="n">
-        <v>161.3859147716582</v>
+        <v>160.8814820690915</v>
       </c>
       <c r="J19" t="n">
-        <v>117.3525521967958</v>
+        <v>116.1666473818438</v>
       </c>
       <c r="K19" t="n">
-        <v>62.93345443721984</v>
+        <v>60.9846485306895</v>
       </c>
       <c r="L19" t="n">
-        <v>29.62548300147245</v>
+        <v>27.13168239150397</v>
       </c>
       <c r="M19" t="n">
-        <v>24.54979951156312</v>
+        <v>21.92043642499797</v>
       </c>
       <c r="N19" t="n">
-        <v>12.99467108847176</v>
+        <v>10.42782837918966</v>
       </c>
       <c r="O19" t="n">
-        <v>40.88220347059112</v>
+        <v>38.51130877303761</v>
       </c>
       <c r="P19" t="n">
-        <v>64.31249240386273</v>
+        <v>62.28378240539014</v>
       </c>
       <c r="Q19" t="n">
-        <v>133.9583773647877</v>
+        <v>132.5538037180701</v>
       </c>
       <c r="R19" t="n">
-        <v>211.5597396435694</v>
+        <v>210.8055304093206</v>
       </c>
       <c r="S19" t="n">
-        <v>240.0123744765054</v>
+        <v>239.7200535905258</v>
       </c>
       <c r="T19" t="n">
-        <v>217.1844859583495</v>
+        <v>217.1128162575616</v>
       </c>
       <c r="U19" t="n">
-        <v>291.208063148157</v>
+        <v>291.2071482158065</v>
       </c>
       <c r="V19" t="n">
         <v>237.3615500762718</v>
@@ -23981,16 +23983,16 @@
         <v>399.146417573369</v>
       </c>
       <c r="G20" t="n">
-        <v>421.7098656665098</v>
+        <v>421.67247144649</v>
       </c>
       <c r="H20" t="n">
-        <v>344.8392336363538</v>
+        <v>344.4562700805762</v>
       </c>
       <c r="I20" t="n">
-        <v>235.1377299289993</v>
+        <v>233.6960892616871</v>
       </c>
       <c r="J20" t="n">
-        <v>61.2216581999468</v>
+        <v>58.04787051854379</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24011,19 +24013,19 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>66.8628898365198</v>
+        <v>62.82473475935981</v>
       </c>
       <c r="R20" t="n">
-        <v>180.0906730958467</v>
+        <v>177.7417084225297</v>
       </c>
       <c r="S20" t="n">
-        <v>224.5411397984024</v>
+        <v>223.6890190097018</v>
       </c>
       <c r="T20" t="n">
-        <v>217.2831403805989</v>
+        <v>217.1194471824624</v>
       </c>
       <c r="U20" t="n">
-        <v>248.7511770641198</v>
+        <v>248.7481855265182</v>
       </c>
       <c r="V20" t="n">
         <v>313.3044420010231</v>
@@ -24060,16 +24062,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G21" t="n">
-        <v>160.7631167826437</v>
+        <v>160.7431091110548</v>
       </c>
       <c r="H21" t="n">
-        <v>135.3180193429644</v>
+        <v>135.1247873568297</v>
       </c>
       <c r="I21" t="n">
-        <v>108.279659353452</v>
+        <v>107.5907987307646</v>
       </c>
       <c r="J21" t="n">
-        <v>57.66394736845585</v>
+        <v>55.77366116803451</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24090,19 +24092,19 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>21.67813434720469</v>
+        <v>19.12417261947328</v>
       </c>
       <c r="R21" t="n">
-        <v>138.7554832289223</v>
+        <v>137.5132525315004</v>
       </c>
       <c r="S21" t="n">
-        <v>203.3445011265852</v>
+        <v>202.9728674021163</v>
       </c>
       <c r="T21" t="n">
-        <v>229.0801644257012</v>
+        <v>228.9995194687267</v>
       </c>
       <c r="U21" t="n">
-        <v>249.6329854208729</v>
+        <v>249.6316691266894</v>
       </c>
       <c r="V21" t="n">
         <v>249.2999251801724</v>
@@ -24139,49 +24141,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G22" t="n">
-        <v>169.0232393562931</v>
+        <v>169.0064655965343</v>
       </c>
       <c r="H22" t="n">
-        <v>165.7003795276809</v>
+        <v>165.5512455545521</v>
       </c>
       <c r="I22" t="n">
-        <v>161.3859147716582</v>
+        <v>160.8814820690915</v>
       </c>
       <c r="J22" t="n">
-        <v>117.3525521967958</v>
+        <v>116.1666473818438</v>
       </c>
       <c r="K22" t="n">
-        <v>62.93345443721984</v>
+        <v>60.9846485306895</v>
       </c>
       <c r="L22" t="n">
-        <v>29.62548300147245</v>
+        <v>27.13168239150397</v>
       </c>
       <c r="M22" t="n">
-        <v>24.54979951156312</v>
+        <v>21.92043642499797</v>
       </c>
       <c r="N22" t="n">
-        <v>12.99467108847176</v>
+        <v>10.42782837918966</v>
       </c>
       <c r="O22" t="n">
-        <v>40.88220347059112</v>
+        <v>38.51130877303761</v>
       </c>
       <c r="P22" t="n">
-        <v>64.31249240386273</v>
+        <v>62.28378240539014</v>
       </c>
       <c r="Q22" t="n">
-        <v>133.9583773647877</v>
+        <v>132.5538037180701</v>
       </c>
       <c r="R22" t="n">
-        <v>211.5597396435694</v>
+        <v>210.8055304093206</v>
       </c>
       <c r="S22" t="n">
-        <v>240.0123744765054</v>
+        <v>239.7200535905258</v>
       </c>
       <c r="T22" t="n">
-        <v>217.1844859583495</v>
+        <v>217.1128162575616</v>
       </c>
       <c r="U22" t="n">
-        <v>291.208063148157</v>
+        <v>291.2071482158065</v>
       </c>
       <c r="V22" t="n">
         <v>237.3615500762718</v>
@@ -24218,16 +24220,16 @@
         <v>399.146417573369</v>
       </c>
       <c r="G23" t="n">
-        <v>421.7098656665098</v>
+        <v>421.67247144649</v>
       </c>
       <c r="H23" t="n">
-        <v>344.8392336363538</v>
+        <v>344.4562700805762</v>
       </c>
       <c r="I23" t="n">
-        <v>235.1377299289993</v>
+        <v>233.6960892616871</v>
       </c>
       <c r="J23" t="n">
-        <v>61.2216581999468</v>
+        <v>58.04787051854379</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24248,19 +24250,19 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>66.86288983651983</v>
+        <v>62.82473475935981</v>
       </c>
       <c r="R23" t="n">
-        <v>180.0906730958467</v>
+        <v>177.7417084225297</v>
       </c>
       <c r="S23" t="n">
-        <v>224.5411397984024</v>
+        <v>223.6890190097018</v>
       </c>
       <c r="T23" t="n">
-        <v>217.2831403805989</v>
+        <v>217.1194471824624</v>
       </c>
       <c r="U23" t="n">
-        <v>248.7511770641198</v>
+        <v>248.7481855265182</v>
       </c>
       <c r="V23" t="n">
         <v>313.3044420010231</v>
@@ -24297,16 +24299,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G24" t="n">
-        <v>160.7631167826437</v>
+        <v>160.7431091110548</v>
       </c>
       <c r="H24" t="n">
-        <v>135.3180193429644</v>
+        <v>135.1247873568297</v>
       </c>
       <c r="I24" t="n">
-        <v>108.279659353452</v>
+        <v>107.5907987307646</v>
       </c>
       <c r="J24" t="n">
-        <v>57.66394736845585</v>
+        <v>55.77366116803451</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24327,19 +24329,19 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>21.67813434720469</v>
+        <v>19.12417261947328</v>
       </c>
       <c r="R24" t="n">
-        <v>138.7554832289223</v>
+        <v>137.5132525315004</v>
       </c>
       <c r="S24" t="n">
-        <v>203.3445011265852</v>
+        <v>202.9728674021163</v>
       </c>
       <c r="T24" t="n">
-        <v>229.0801644257012</v>
+        <v>228.9995194687267</v>
       </c>
       <c r="U24" t="n">
-        <v>249.6329854208729</v>
+        <v>249.6316691266894</v>
       </c>
       <c r="V24" t="n">
         <v>249.2999251801724</v>
@@ -24376,49 +24378,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G25" t="n">
-        <v>169.0232393562931</v>
+        <v>169.0064655965343</v>
       </c>
       <c r="H25" t="n">
-        <v>165.7003795276809</v>
+        <v>165.5512455545521</v>
       </c>
       <c r="I25" t="n">
-        <v>161.3859147716582</v>
+        <v>160.8814820690915</v>
       </c>
       <c r="J25" t="n">
-        <v>117.3525521967958</v>
+        <v>116.1666473818438</v>
       </c>
       <c r="K25" t="n">
-        <v>62.93345443721985</v>
+        <v>60.9846485306895</v>
       </c>
       <c r="L25" t="n">
-        <v>29.62548300147246</v>
+        <v>27.13168239150397</v>
       </c>
       <c r="M25" t="n">
-        <v>24.54979951156312</v>
+        <v>21.92043642499797</v>
       </c>
       <c r="N25" t="n">
-        <v>12.99467108847176</v>
+        <v>10.42782837918966</v>
       </c>
       <c r="O25" t="n">
-        <v>40.88220347059112</v>
+        <v>38.51130877303761</v>
       </c>
       <c r="P25" t="n">
-        <v>64.31249240386273</v>
+        <v>62.28378240539014</v>
       </c>
       <c r="Q25" t="n">
-        <v>133.9583773647877</v>
+        <v>132.5538037180701</v>
       </c>
       <c r="R25" t="n">
-        <v>211.5597396435694</v>
+        <v>210.8055304093206</v>
       </c>
       <c r="S25" t="n">
-        <v>240.0123744765054</v>
+        <v>239.7200535905258</v>
       </c>
       <c r="T25" t="n">
-        <v>217.1844859583495</v>
+        <v>217.1128162575616</v>
       </c>
       <c r="U25" t="n">
-        <v>291.208063148157</v>
+        <v>291.2071482158065</v>
       </c>
       <c r="V25" t="n">
         <v>237.3615500762718</v>
@@ -24455,16 +24457,16 @@
         <v>399.146417573369</v>
       </c>
       <c r="G26" t="n">
-        <v>421.7098656665098</v>
+        <v>421.67247144649</v>
       </c>
       <c r="H26" t="n">
-        <v>344.8392336363538</v>
+        <v>344.4562700805762</v>
       </c>
       <c r="I26" t="n">
-        <v>235.1377299289993</v>
+        <v>233.6960892616871</v>
       </c>
       <c r="J26" t="n">
-        <v>61.2216581999468</v>
+        <v>58.04787051854379</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24485,19 +24487,19 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>66.8628898365198</v>
+        <v>62.82473475935981</v>
       </c>
       <c r="R26" t="n">
-        <v>180.0906730958467</v>
+        <v>177.7417084225297</v>
       </c>
       <c r="S26" t="n">
-        <v>224.5411397984024</v>
+        <v>223.6890190097018</v>
       </c>
       <c r="T26" t="n">
-        <v>217.2831403805989</v>
+        <v>217.1194471824624</v>
       </c>
       <c r="U26" t="n">
-        <v>248.7511770641198</v>
+        <v>248.7481855265182</v>
       </c>
       <c r="V26" t="n">
         <v>313.3044420010231</v>
@@ -24534,16 +24536,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G27" t="n">
-        <v>160.7631167826437</v>
+        <v>160.7431091110548</v>
       </c>
       <c r="H27" t="n">
-        <v>135.3180193429644</v>
+        <v>135.1247873568297</v>
       </c>
       <c r="I27" t="n">
-        <v>108.279659353452</v>
+        <v>107.5907987307646</v>
       </c>
       <c r="J27" t="n">
-        <v>57.66394736845585</v>
+        <v>55.77366116803451</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24564,19 +24566,19 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>21.67813434720469</v>
+        <v>19.12417261947328</v>
       </c>
       <c r="R27" t="n">
-        <v>138.7554832289223</v>
+        <v>137.5132525315004</v>
       </c>
       <c r="S27" t="n">
-        <v>203.3445011265852</v>
+        <v>202.9728674021163</v>
       </c>
       <c r="T27" t="n">
-        <v>229.0801644257012</v>
+        <v>228.9995194687267</v>
       </c>
       <c r="U27" t="n">
-        <v>249.6329854208729</v>
+        <v>249.6316691266894</v>
       </c>
       <c r="V27" t="n">
         <v>249.2999251801724</v>
@@ -24613,49 +24615,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G28" t="n">
-        <v>169.0232393562931</v>
+        <v>169.0064655965343</v>
       </c>
       <c r="H28" t="n">
-        <v>165.7003795276809</v>
+        <v>165.5512455545521</v>
       </c>
       <c r="I28" t="n">
-        <v>161.3859147716582</v>
+        <v>160.8814820690915</v>
       </c>
       <c r="J28" t="n">
-        <v>117.3525521967958</v>
+        <v>116.1666473818438</v>
       </c>
       <c r="K28" t="n">
-        <v>62.93345443721984</v>
+        <v>60.9846485306895</v>
       </c>
       <c r="L28" t="n">
-        <v>29.62548300147245</v>
+        <v>27.13168239150397</v>
       </c>
       <c r="M28" t="n">
-        <v>24.54979951156312</v>
+        <v>21.92043642499797</v>
       </c>
       <c r="N28" t="n">
-        <v>12.99467108847176</v>
+        <v>10.42782837918966</v>
       </c>
       <c r="O28" t="n">
-        <v>40.88220347059112</v>
+        <v>38.51130877303761</v>
       </c>
       <c r="P28" t="n">
-        <v>64.31249240386273</v>
+        <v>62.28378240539014</v>
       </c>
       <c r="Q28" t="n">
-        <v>133.9583773647877</v>
+        <v>132.5538037180701</v>
       </c>
       <c r="R28" t="n">
-        <v>211.5597396435694</v>
+        <v>210.8055304093206</v>
       </c>
       <c r="S28" t="n">
-        <v>240.0123744765054</v>
+        <v>239.7200535905258</v>
       </c>
       <c r="T28" t="n">
-        <v>217.1844859583495</v>
+        <v>217.1128162575616</v>
       </c>
       <c r="U28" t="n">
-        <v>291.208063148157</v>
+        <v>291.2071482158065</v>
       </c>
       <c r="V28" t="n">
         <v>237.3615500762718</v>
@@ -24692,16 +24694,16 @@
         <v>399.146417573369</v>
       </c>
       <c r="G29" t="n">
-        <v>421.7098656665098</v>
+        <v>421.67247144649</v>
       </c>
       <c r="H29" t="n">
-        <v>344.8392336363538</v>
+        <v>344.4562700805762</v>
       </c>
       <c r="I29" t="n">
-        <v>235.1377299289993</v>
+        <v>233.6960892616871</v>
       </c>
       <c r="J29" t="n">
-        <v>61.2216581999468</v>
+        <v>58.04787051854379</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24722,19 +24724,19 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>66.8628898365198</v>
+        <v>62.82473475935981</v>
       </c>
       <c r="R29" t="n">
-        <v>180.0906730958467</v>
+        <v>177.7417084225297</v>
       </c>
       <c r="S29" t="n">
-        <v>224.5411397984024</v>
+        <v>223.6890190097018</v>
       </c>
       <c r="T29" t="n">
-        <v>217.2831403805989</v>
+        <v>217.1194471824624</v>
       </c>
       <c r="U29" t="n">
-        <v>248.7511770641198</v>
+        <v>248.7481855265182</v>
       </c>
       <c r="V29" t="n">
         <v>313.3044420010231</v>
@@ -24771,16 +24773,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G30" t="n">
-        <v>160.7631167826437</v>
+        <v>160.7431091110548</v>
       </c>
       <c r="H30" t="n">
-        <v>135.3180193429644</v>
+        <v>135.1247873568297</v>
       </c>
       <c r="I30" t="n">
-        <v>108.279659353452</v>
+        <v>107.5907987307646</v>
       </c>
       <c r="J30" t="n">
-        <v>57.66394736845585</v>
+        <v>55.77366116803451</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24801,19 +24803,19 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>21.67813434720469</v>
+        <v>19.12417261947328</v>
       </c>
       <c r="R30" t="n">
-        <v>138.7554832289223</v>
+        <v>137.5132525315004</v>
       </c>
       <c r="S30" t="n">
-        <v>203.3445011265852</v>
+        <v>202.9728674021163</v>
       </c>
       <c r="T30" t="n">
-        <v>229.0801644257012</v>
+        <v>228.9995194687267</v>
       </c>
       <c r="U30" t="n">
-        <v>249.6329854208729</v>
+        <v>249.6316691266894</v>
       </c>
       <c r="V30" t="n">
         <v>249.2999251801724</v>
@@ -24850,49 +24852,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G31" t="n">
-        <v>169.0232393562931</v>
+        <v>169.0064655965343</v>
       </c>
       <c r="H31" t="n">
-        <v>165.7003795276809</v>
+        <v>165.5512455545521</v>
       </c>
       <c r="I31" t="n">
-        <v>161.3859147716582</v>
+        <v>160.8814820690915</v>
       </c>
       <c r="J31" t="n">
-        <v>117.3525521967958</v>
+        <v>116.1666473818438</v>
       </c>
       <c r="K31" t="n">
-        <v>62.93345443721984</v>
+        <v>60.9846485306895</v>
       </c>
       <c r="L31" t="n">
-        <v>29.62548300147245</v>
+        <v>27.13168239150397</v>
       </c>
       <c r="M31" t="n">
-        <v>24.54979951156312</v>
+        <v>21.92043642499797</v>
       </c>
       <c r="N31" t="n">
-        <v>12.99467108847176</v>
+        <v>10.42782837918966</v>
       </c>
       <c r="O31" t="n">
-        <v>40.88220347059112</v>
+        <v>38.51130877303761</v>
       </c>
       <c r="P31" t="n">
-        <v>64.31249240386273</v>
+        <v>62.28378240539014</v>
       </c>
       <c r="Q31" t="n">
-        <v>133.9583773647877</v>
+        <v>132.5538037180701</v>
       </c>
       <c r="R31" t="n">
-        <v>211.5597396435694</v>
+        <v>210.8055304093206</v>
       </c>
       <c r="S31" t="n">
-        <v>240.0123744765054</v>
+        <v>239.7200535905258</v>
       </c>
       <c r="T31" t="n">
-        <v>217.1844859583495</v>
+        <v>217.1128162575616</v>
       </c>
       <c r="U31" t="n">
-        <v>291.208063148157</v>
+        <v>291.2071482158065</v>
       </c>
       <c r="V31" t="n">
         <v>237.3615500762718</v>
@@ -24929,16 +24931,16 @@
         <v>399.146417573369</v>
       </c>
       <c r="G32" t="n">
-        <v>421.7098656665098</v>
+        <v>421.67247144649</v>
       </c>
       <c r="H32" t="n">
-        <v>344.8392336363538</v>
+        <v>344.4562700805762</v>
       </c>
       <c r="I32" t="n">
-        <v>235.1377299289993</v>
+        <v>233.6960892616871</v>
       </c>
       <c r="J32" t="n">
-        <v>61.2216581999468</v>
+        <v>58.04787051854379</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24959,19 +24961,19 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>66.8628898365198</v>
+        <v>62.82473475935981</v>
       </c>
       <c r="R32" t="n">
-        <v>180.0906730958467</v>
+        <v>177.7417084225297</v>
       </c>
       <c r="S32" t="n">
-        <v>224.5411397984024</v>
+        <v>223.6890190097018</v>
       </c>
       <c r="T32" t="n">
-        <v>217.2831403805989</v>
+        <v>217.1194471824624</v>
       </c>
       <c r="U32" t="n">
-        <v>248.7511770641198</v>
+        <v>248.7481855265182</v>
       </c>
       <c r="V32" t="n">
         <v>313.3044420010231</v>
@@ -25008,16 +25010,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G33" t="n">
-        <v>160.7631167826437</v>
+        <v>160.7431091110548</v>
       </c>
       <c r="H33" t="n">
-        <v>135.3180193429644</v>
+        <v>135.1247873568297</v>
       </c>
       <c r="I33" t="n">
-        <v>108.279659353452</v>
+        <v>107.5907987307646</v>
       </c>
       <c r="J33" t="n">
-        <v>57.66394736845585</v>
+        <v>55.77366116803451</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25038,19 +25040,19 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>21.67813434720469</v>
+        <v>19.12417261947328</v>
       </c>
       <c r="R33" t="n">
-        <v>138.7554832289223</v>
+        <v>137.5132525315004</v>
       </c>
       <c r="S33" t="n">
-        <v>203.3445011265852</v>
+        <v>202.9728674021163</v>
       </c>
       <c r="T33" t="n">
-        <v>229.0801644257012</v>
+        <v>228.9995194687267</v>
       </c>
       <c r="U33" t="n">
-        <v>249.6329854208729</v>
+        <v>249.6316691266894</v>
       </c>
       <c r="V33" t="n">
         <v>249.2999251801724</v>
@@ -25087,49 +25089,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G34" t="n">
-        <v>169.0232393562931</v>
+        <v>169.0064655965343</v>
       </c>
       <c r="H34" t="n">
-        <v>165.7003795276809</v>
+        <v>165.5512455545521</v>
       </c>
       <c r="I34" t="n">
-        <v>161.3859147716582</v>
+        <v>160.8814820690915</v>
       </c>
       <c r="J34" t="n">
-        <v>117.3525521967958</v>
+        <v>116.1666473818438</v>
       </c>
       <c r="K34" t="n">
-        <v>62.93345443721984</v>
+        <v>60.9846485306895</v>
       </c>
       <c r="L34" t="n">
-        <v>29.62548300147245</v>
+        <v>27.13168239150397</v>
       </c>
       <c r="M34" t="n">
-        <v>24.54979951156312</v>
+        <v>21.92043642499797</v>
       </c>
       <c r="N34" t="n">
-        <v>12.99467108847176</v>
+        <v>10.42782837918966</v>
       </c>
       <c r="O34" t="n">
-        <v>40.88220347059112</v>
+        <v>38.51130877303761</v>
       </c>
       <c r="P34" t="n">
-        <v>64.31249240386273</v>
+        <v>62.28378240539014</v>
       </c>
       <c r="Q34" t="n">
-        <v>133.9583773647877</v>
+        <v>132.5538037180701</v>
       </c>
       <c r="R34" t="n">
-        <v>211.5597396435694</v>
+        <v>210.8055304093206</v>
       </c>
       <c r="S34" t="n">
-        <v>240.0123744765054</v>
+        <v>239.7200535905258</v>
       </c>
       <c r="T34" t="n">
-        <v>217.1844859583495</v>
+        <v>217.1128162575616</v>
       </c>
       <c r="U34" t="n">
-        <v>291.208063148157</v>
+        <v>291.2071482158065</v>
       </c>
       <c r="V34" t="n">
         <v>237.3615500762718</v>
@@ -25166,16 +25168,16 @@
         <v>399.146417573369</v>
       </c>
       <c r="G35" t="n">
-        <v>421.7098656665098</v>
+        <v>421.67247144649</v>
       </c>
       <c r="H35" t="n">
-        <v>344.8392336363538</v>
+        <v>344.4562700805762</v>
       </c>
       <c r="I35" t="n">
-        <v>235.1377299289993</v>
+        <v>233.6960892616871</v>
       </c>
       <c r="J35" t="n">
-        <v>61.2216581999468</v>
+        <v>58.04787051854379</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25196,19 +25198,19 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>66.8628898365198</v>
+        <v>62.82473475935981</v>
       </c>
       <c r="R35" t="n">
-        <v>180.0906730958467</v>
+        <v>177.7417084225297</v>
       </c>
       <c r="S35" t="n">
-        <v>224.5411397984024</v>
+        <v>223.6890190097018</v>
       </c>
       <c r="T35" t="n">
-        <v>217.2831403805989</v>
+        <v>217.1194471824624</v>
       </c>
       <c r="U35" t="n">
-        <v>248.7511770641198</v>
+        <v>248.7481855265182</v>
       </c>
       <c r="V35" t="n">
         <v>313.3044420010231</v>
@@ -25245,16 +25247,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G36" t="n">
-        <v>160.7631167826437</v>
+        <v>160.7431091110548</v>
       </c>
       <c r="H36" t="n">
-        <v>135.3180193429644</v>
+        <v>135.1247873568297</v>
       </c>
       <c r="I36" t="n">
-        <v>108.279659353452</v>
+        <v>107.5907987307646</v>
       </c>
       <c r="J36" t="n">
-        <v>57.66394736845585</v>
+        <v>55.77366116803451</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25275,19 +25277,19 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>21.67813434720469</v>
+        <v>19.12417261947328</v>
       </c>
       <c r="R36" t="n">
-        <v>138.7554832289223</v>
+        <v>137.5132525315004</v>
       </c>
       <c r="S36" t="n">
-        <v>203.3445011265852</v>
+        <v>202.9728674021163</v>
       </c>
       <c r="T36" t="n">
-        <v>229.0801644257012</v>
+        <v>228.9995194687267</v>
       </c>
       <c r="U36" t="n">
-        <v>249.6329854208729</v>
+        <v>249.6316691266894</v>
       </c>
       <c r="V36" t="n">
         <v>249.2999251801724</v>
@@ -25324,49 +25326,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G37" t="n">
-        <v>169.0232393562931</v>
+        <v>169.0064655965343</v>
       </c>
       <c r="H37" t="n">
-        <v>165.7003795276809</v>
+        <v>165.5512455545521</v>
       </c>
       <c r="I37" t="n">
-        <v>161.3859147716582</v>
+        <v>160.8814820690915</v>
       </c>
       <c r="J37" t="n">
-        <v>117.3525521967958</v>
+        <v>116.1666473818438</v>
       </c>
       <c r="K37" t="n">
-        <v>62.93345443721984</v>
+        <v>60.9846485306895</v>
       </c>
       <c r="L37" t="n">
-        <v>29.62548300147245</v>
+        <v>27.13168239150397</v>
       </c>
       <c r="M37" t="n">
-        <v>24.54979951156312</v>
+        <v>21.92043642499797</v>
       </c>
       <c r="N37" t="n">
-        <v>12.99467108847176</v>
+        <v>10.42782837918966</v>
       </c>
       <c r="O37" t="n">
-        <v>40.88220347059112</v>
+        <v>38.51130877303761</v>
       </c>
       <c r="P37" t="n">
-        <v>64.31249240386273</v>
+        <v>62.28378240539014</v>
       </c>
       <c r="Q37" t="n">
-        <v>133.9583773647877</v>
+        <v>132.5538037180701</v>
       </c>
       <c r="R37" t="n">
-        <v>211.5597396435694</v>
+        <v>210.8055304093206</v>
       </c>
       <c r="S37" t="n">
-        <v>240.0123744765054</v>
+        <v>239.7200535905258</v>
       </c>
       <c r="T37" t="n">
-        <v>217.1844859583495</v>
+        <v>217.1128162575616</v>
       </c>
       <c r="U37" t="n">
-        <v>291.208063148157</v>
+        <v>291.2071482158065</v>
       </c>
       <c r="V37" t="n">
         <v>237.3615500762718</v>
@@ -25403,16 +25405,16 @@
         <v>399.146417573369</v>
       </c>
       <c r="G38" t="n">
-        <v>421.7098656665098</v>
+        <v>421.67247144649</v>
       </c>
       <c r="H38" t="n">
-        <v>344.8392336363538</v>
+        <v>344.4562700805762</v>
       </c>
       <c r="I38" t="n">
-        <v>235.1377299289993</v>
+        <v>233.6960892616871</v>
       </c>
       <c r="J38" t="n">
-        <v>61.2216581999468</v>
+        <v>58.04787051854379</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25433,19 +25435,19 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>66.8628898365198</v>
+        <v>62.82473475935981</v>
       </c>
       <c r="R38" t="n">
-        <v>180.0906730958467</v>
+        <v>177.7417084225297</v>
       </c>
       <c r="S38" t="n">
-        <v>224.5411397984024</v>
+        <v>223.6890190097018</v>
       </c>
       <c r="T38" t="n">
-        <v>217.2831403805989</v>
+        <v>217.1194471824624</v>
       </c>
       <c r="U38" t="n">
-        <v>248.7511770641198</v>
+        <v>248.7481855265182</v>
       </c>
       <c r="V38" t="n">
         <v>313.3044420010231</v>
@@ -25482,16 +25484,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G39" t="n">
-        <v>160.7631167826437</v>
+        <v>160.7431091110548</v>
       </c>
       <c r="H39" t="n">
-        <v>135.3180193429644</v>
+        <v>135.1247873568297</v>
       </c>
       <c r="I39" t="n">
-        <v>108.279659353452</v>
+        <v>107.5907987307646</v>
       </c>
       <c r="J39" t="n">
-        <v>57.66394736845585</v>
+        <v>55.77366116803451</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25512,19 +25514,19 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>21.67813434720469</v>
+        <v>19.12417261947328</v>
       </c>
       <c r="R39" t="n">
-        <v>138.7554832289223</v>
+        <v>137.5132525315004</v>
       </c>
       <c r="S39" t="n">
-        <v>203.3445011265852</v>
+        <v>202.9728674021163</v>
       </c>
       <c r="T39" t="n">
-        <v>229.0801644257012</v>
+        <v>228.9995194687267</v>
       </c>
       <c r="U39" t="n">
-        <v>249.6329854208729</v>
+        <v>249.6316691266894</v>
       </c>
       <c r="V39" t="n">
         <v>249.2999251801724</v>
@@ -25561,49 +25563,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G40" t="n">
-        <v>169.0232393562931</v>
+        <v>169.0064655965343</v>
       </c>
       <c r="H40" t="n">
-        <v>165.7003795276809</v>
+        <v>165.5512455545521</v>
       </c>
       <c r="I40" t="n">
-        <v>161.3859147716582</v>
+        <v>160.8814820690915</v>
       </c>
       <c r="J40" t="n">
-        <v>117.3525521967958</v>
+        <v>116.1666473818438</v>
       </c>
       <c r="K40" t="n">
-        <v>62.93345443721984</v>
+        <v>60.9846485306895</v>
       </c>
       <c r="L40" t="n">
-        <v>29.62548300147245</v>
+        <v>27.13168239150397</v>
       </c>
       <c r="M40" t="n">
-        <v>24.54979951156312</v>
+        <v>21.92043642499797</v>
       </c>
       <c r="N40" t="n">
-        <v>12.99467108847176</v>
+        <v>10.42782837918966</v>
       </c>
       <c r="O40" t="n">
-        <v>40.88220347059112</v>
+        <v>38.51130877303761</v>
       </c>
       <c r="P40" t="n">
-        <v>64.31249240386273</v>
+        <v>62.28378240539014</v>
       </c>
       <c r="Q40" t="n">
-        <v>133.9583773647877</v>
+        <v>132.5538037180701</v>
       </c>
       <c r="R40" t="n">
-        <v>211.5597396435694</v>
+        <v>210.8055304093206</v>
       </c>
       <c r="S40" t="n">
-        <v>240.0123744765054</v>
+        <v>239.7200535905258</v>
       </c>
       <c r="T40" t="n">
-        <v>217.1844859583495</v>
+        <v>217.1128162575616</v>
       </c>
       <c r="U40" t="n">
-        <v>291.208063148157</v>
+        <v>291.2071482158065</v>
       </c>
       <c r="V40" t="n">
         <v>237.3615500762718</v>
@@ -25640,16 +25642,16 @@
         <v>399.146417573369</v>
       </c>
       <c r="G41" t="n">
-        <v>421.7098656665098</v>
+        <v>421.67247144649</v>
       </c>
       <c r="H41" t="n">
-        <v>344.8392336363538</v>
+        <v>344.4562700805762</v>
       </c>
       <c r="I41" t="n">
-        <v>235.1377299289993</v>
+        <v>233.6960892616871</v>
       </c>
       <c r="J41" t="n">
-        <v>61.2216581999468</v>
+        <v>58.04787051854379</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25670,19 +25672,19 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>66.8628898365198</v>
+        <v>62.82473475935981</v>
       </c>
       <c r="R41" t="n">
-        <v>180.0906730958467</v>
+        <v>177.7417084225297</v>
       </c>
       <c r="S41" t="n">
-        <v>224.5411397984024</v>
+        <v>223.6890190097018</v>
       </c>
       <c r="T41" t="n">
-        <v>217.2831403805989</v>
+        <v>217.1194471824624</v>
       </c>
       <c r="U41" t="n">
-        <v>248.7511770641198</v>
+        <v>248.7481855265182</v>
       </c>
       <c r="V41" t="n">
         <v>313.3044420010231</v>
@@ -25719,16 +25721,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G42" t="n">
-        <v>160.7631167826437</v>
+        <v>160.7431091110548</v>
       </c>
       <c r="H42" t="n">
-        <v>135.3180193429644</v>
+        <v>135.1247873568297</v>
       </c>
       <c r="I42" t="n">
-        <v>108.279659353452</v>
+        <v>107.5907987307646</v>
       </c>
       <c r="J42" t="n">
-        <v>57.66394736845585</v>
+        <v>55.77366116803451</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25749,19 +25751,19 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>21.67813434720469</v>
+        <v>19.12417261947328</v>
       </c>
       <c r="R42" t="n">
-        <v>138.7554832289223</v>
+        <v>137.5132525315004</v>
       </c>
       <c r="S42" t="n">
-        <v>203.3445011265852</v>
+        <v>202.9728674021163</v>
       </c>
       <c r="T42" t="n">
-        <v>229.0801644257012</v>
+        <v>228.9995194687267</v>
       </c>
       <c r="U42" t="n">
-        <v>249.6329854208729</v>
+        <v>249.6316691266894</v>
       </c>
       <c r="V42" t="n">
         <v>249.2999251801724</v>
@@ -25798,49 +25800,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G43" t="n">
-        <v>169.0232393562931</v>
+        <v>169.0064655965343</v>
       </c>
       <c r="H43" t="n">
-        <v>165.7003795276809</v>
+        <v>165.5512455545521</v>
       </c>
       <c r="I43" t="n">
-        <v>161.3859147716582</v>
+        <v>160.8814820690915</v>
       </c>
       <c r="J43" t="n">
-        <v>117.3525521967958</v>
+        <v>116.1666473818438</v>
       </c>
       <c r="K43" t="n">
-        <v>62.93345443721984</v>
+        <v>60.9846485306895</v>
       </c>
       <c r="L43" t="n">
-        <v>29.62548300147245</v>
+        <v>27.13168239150397</v>
       </c>
       <c r="M43" t="n">
-        <v>24.54979951156312</v>
+        <v>21.92043642499797</v>
       </c>
       <c r="N43" t="n">
-        <v>12.99467108847176</v>
+        <v>10.42782837918966</v>
       </c>
       <c r="O43" t="n">
-        <v>40.88220347059112</v>
+        <v>38.51130877303761</v>
       </c>
       <c r="P43" t="n">
-        <v>64.31249240386273</v>
+        <v>62.28378240539014</v>
       </c>
       <c r="Q43" t="n">
-        <v>133.9583773647877</v>
+        <v>132.5538037180701</v>
       </c>
       <c r="R43" t="n">
-        <v>211.5597396435694</v>
+        <v>210.8055304093206</v>
       </c>
       <c r="S43" t="n">
-        <v>240.0123744765054</v>
+        <v>239.7200535905258</v>
       </c>
       <c r="T43" t="n">
-        <v>217.1844859583495</v>
+        <v>217.1128162575616</v>
       </c>
       <c r="U43" t="n">
-        <v>291.208063148157</v>
+        <v>291.2071482158065</v>
       </c>
       <c r="V43" t="n">
         <v>237.3615500762718</v>
@@ -25877,16 +25879,16 @@
         <v>399.146417573369</v>
       </c>
       <c r="G44" t="n">
-        <v>421.7098656665098</v>
+        <v>421.67247144649</v>
       </c>
       <c r="H44" t="n">
-        <v>344.8392336363538</v>
+        <v>344.4562700805762</v>
       </c>
       <c r="I44" t="n">
-        <v>235.1377299289993</v>
+        <v>233.6960892616871</v>
       </c>
       <c r="J44" t="n">
-        <v>61.2216581999468</v>
+        <v>58.04787051854379</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25907,19 +25909,19 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>66.8628898365198</v>
+        <v>62.82473475935981</v>
       </c>
       <c r="R44" t="n">
-        <v>180.0906730958467</v>
+        <v>177.7417084225297</v>
       </c>
       <c r="S44" t="n">
-        <v>224.5411397984024</v>
+        <v>223.6890190097018</v>
       </c>
       <c r="T44" t="n">
-        <v>217.2831403805989</v>
+        <v>217.1194471824624</v>
       </c>
       <c r="U44" t="n">
-        <v>248.7511770641198</v>
+        <v>248.7481855265182</v>
       </c>
       <c r="V44" t="n">
         <v>313.3044420010231</v>
@@ -25956,16 +25958,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G45" t="n">
-        <v>160.7631167826437</v>
+        <v>160.7431091110548</v>
       </c>
       <c r="H45" t="n">
-        <v>135.3180193429644</v>
+        <v>135.1247873568297</v>
       </c>
       <c r="I45" t="n">
-        <v>108.279659353452</v>
+        <v>107.5907987307646</v>
       </c>
       <c r="J45" t="n">
-        <v>57.66394736845585</v>
+        <v>55.77366116803451</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25986,19 +25988,19 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>21.67813434720469</v>
+        <v>19.12417261947328</v>
       </c>
       <c r="R45" t="n">
-        <v>138.7554832289223</v>
+        <v>137.5132525315004</v>
       </c>
       <c r="S45" t="n">
-        <v>203.3445011265852</v>
+        <v>202.9728674021163</v>
       </c>
       <c r="T45" t="n">
-        <v>229.0801644257012</v>
+        <v>228.9995194687267</v>
       </c>
       <c r="U45" t="n">
-        <v>249.6329854208729</v>
+        <v>249.6316691266894</v>
       </c>
       <c r="V45" t="n">
         <v>249.2999251801724</v>
@@ -26035,49 +26037,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G46" t="n">
-        <v>169.0232393562931</v>
+        <v>169.0064655965343</v>
       </c>
       <c r="H46" t="n">
-        <v>165.7003795276809</v>
+        <v>165.5512455545521</v>
       </c>
       <c r="I46" t="n">
-        <v>161.3859147716582</v>
+        <v>160.8814820690915</v>
       </c>
       <c r="J46" t="n">
-        <v>117.3525521967958</v>
+        <v>116.1666473818438</v>
       </c>
       <c r="K46" t="n">
-        <v>62.93345443721984</v>
+        <v>60.9846485306895</v>
       </c>
       <c r="L46" t="n">
-        <v>29.62548300147245</v>
+        <v>27.13168239150397</v>
       </c>
       <c r="M46" t="n">
-        <v>24.54979951156312</v>
+        <v>21.92043642499797</v>
       </c>
       <c r="N46" t="n">
-        <v>12.99467108847176</v>
+        <v>10.42782837918966</v>
       </c>
       <c r="O46" t="n">
-        <v>40.88220347059112</v>
+        <v>38.51130877303761</v>
       </c>
       <c r="P46" t="n">
-        <v>64.31249240386273</v>
+        <v>62.28378240539014</v>
       </c>
       <c r="Q46" t="n">
-        <v>133.9583773647877</v>
+        <v>132.5538037180701</v>
       </c>
       <c r="R46" t="n">
-        <v>211.5597396435694</v>
+        <v>210.8055304093206</v>
       </c>
       <c r="S46" t="n">
-        <v>240.0123744765054</v>
+        <v>239.7200535905258</v>
       </c>
       <c r="T46" t="n">
-        <v>217.1844859583495</v>
+        <v>217.1128162575616</v>
       </c>
       <c r="U46" t="n">
-        <v>291.208063148157</v>
+        <v>291.2071482158065</v>
       </c>
       <c r="V46" t="n">
         <v>237.3615500762718</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>413822.6351402602</v>
+        <v>398997.9754025644</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>418187.179000699</v>
+        <v>413822.6351402602</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>428315.0954530985</v>
+        <v>423407.8117281935</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>450826.9506740476</v>
+        <v>452362.2048754031</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>450826.9506740476</v>
+        <v>452362.2048754031</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>450826.9506740476</v>
+        <v>452362.2048754031</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>450826.9506740476</v>
+        <v>452362.2048754031</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>450826.9506740476</v>
+        <v>452362.2048754031</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>450826.9506740476</v>
+        <v>452362.2048754031</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>450826.9506740476</v>
+        <v>452362.2048754031</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>450826.9506740476</v>
+        <v>452362.2048754031</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>450826.9506740476</v>
+        <v>452362.2048754031</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>450826.9506740476</v>
+        <v>452362.2048754031</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>450826.9506740476</v>
+        <v>452362.2048754031</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>450826.9506740476</v>
+        <v>452362.2048754031</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>101666.2295477195</v>
+      </c>
+      <c r="C2" t="n">
         <v>106324.6178041929</v>
       </c>
-      <c r="C2" t="n">
-        <v>107692.9091181656</v>
-      </c>
       <c r="D2" t="n">
-        <v>111123.4126360214</v>
+        <v>109417.203044638</v>
       </c>
       <c r="E2" t="n">
-        <v>119438.8845502296</v>
+        <v>120088.0053561499</v>
       </c>
       <c r="F2" t="n">
-        <v>119438.8845502296</v>
+        <v>120088.0053561499</v>
       </c>
       <c r="G2" t="n">
-        <v>119438.8845502296</v>
+        <v>120088.0053561499</v>
       </c>
       <c r="H2" t="n">
-        <v>119438.8845502296</v>
+        <v>120088.0053561499</v>
       </c>
       <c r="I2" t="n">
-        <v>119438.8845502296</v>
+        <v>120088.0053561499</v>
       </c>
       <c r="J2" t="n">
-        <v>119438.8845502296</v>
+        <v>120088.0053561499</v>
       </c>
       <c r="K2" t="n">
-        <v>119438.8845502296</v>
+        <v>120088.0053561499</v>
       </c>
       <c r="L2" t="n">
-        <v>119438.8845502296</v>
+        <v>120088.0053561499</v>
       </c>
       <c r="M2" t="n">
-        <v>119438.8845502296</v>
+        <v>120088.0053561499</v>
       </c>
       <c r="N2" t="n">
-        <v>119438.8845502296</v>
+        <v>120088.0053561499</v>
       </c>
       <c r="O2" t="n">
-        <v>119438.8845502296</v>
+        <v>120088.0053561499</v>
       </c>
       <c r="P2" t="n">
-        <v>119438.8845502296</v>
+        <v>120088.0053561499</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>330871.7541851042</v>
+        <v>300331.6078316385</v>
       </c>
       <c r="C3" t="n">
-        <v>8770.909527808109</v>
+        <v>28860.04895093618</v>
       </c>
       <c r="D3" t="n">
-        <v>24336.65507127536</v>
+        <v>19898.21663088638</v>
       </c>
       <c r="E3" t="n">
-        <v>69352.80631588837</v>
+        <v>88727.98440001735</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>23965.70319155299</v>
+        <v>26221.80039425983</v>
       </c>
       <c r="C4" t="n">
-        <v>23313.17890075855</v>
+        <v>23965.703191553</v>
       </c>
       <c r="D4" t="n">
-        <v>20862.58245435359</v>
+        <v>22211.4005645207</v>
       </c>
       <c r="E4" t="n">
-        <v>12884.37398987268</v>
+        <v>12039.51856952029</v>
       </c>
       <c r="F4" t="n">
-        <v>12884.37398987268</v>
+        <v>12039.51856952029</v>
       </c>
       <c r="G4" t="n">
-        <v>12884.37398987268</v>
+        <v>12039.51856952029</v>
       </c>
       <c r="H4" t="n">
-        <v>12884.37398987268</v>
+        <v>12039.51856952029</v>
       </c>
       <c r="I4" t="n">
-        <v>12884.37398987268</v>
+        <v>12039.51856952029</v>
       </c>
       <c r="J4" t="n">
-        <v>12884.37398987268</v>
+        <v>12039.51856952029</v>
       </c>
       <c r="K4" t="n">
-        <v>12884.37398987268</v>
+        <v>12039.51856952029</v>
       </c>
       <c r="L4" t="n">
-        <v>12884.37398987268</v>
+        <v>12039.51856952029</v>
       </c>
       <c r="M4" t="n">
-        <v>12884.37398987268</v>
+        <v>12039.51856952029</v>
       </c>
       <c r="N4" t="n">
-        <v>12884.37398987268</v>
+        <v>12039.51856952029</v>
       </c>
       <c r="O4" t="n">
-        <v>12884.37398987268</v>
+        <v>12039.51856952029</v>
       </c>
       <c r="P4" t="n">
-        <v>12884.37398987268</v>
+        <v>12039.51856952029</v>
       </c>
     </row>
     <row r="5">
@@ -26467,49 +26469,49 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>40422.05903150925</v>
+      </c>
+      <c r="C5" t="n">
         <v>41112.97456555201</v>
       </c>
-      <c r="C5" t="n">
-        <v>41322.95195161772</v>
-      </c>
       <c r="D5" t="n">
-        <v>41942.44098443807</v>
+        <v>41619.48324307634</v>
       </c>
       <c r="E5" t="n">
-        <v>10196.69999876384</v>
+        <v>10399.47950537606</v>
       </c>
       <c r="F5" t="n">
-        <v>10196.69999876384</v>
+        <v>10399.47950537606</v>
       </c>
       <c r="G5" t="n">
-        <v>10196.69999876384</v>
+        <v>10399.47950537606</v>
       </c>
       <c r="H5" t="n">
-        <v>10196.69999876384</v>
+        <v>10399.47950537606</v>
       </c>
       <c r="I5" t="n">
-        <v>10196.69999876384</v>
+        <v>10399.47950537606</v>
       </c>
       <c r="J5" t="n">
-        <v>10196.69999876384</v>
+        <v>10399.47950537606</v>
       </c>
       <c r="K5" t="n">
-        <v>10196.69999876384</v>
+        <v>10399.47950537606</v>
       </c>
       <c r="L5" t="n">
-        <v>10196.69999876384</v>
+        <v>10399.47950537606</v>
       </c>
       <c r="M5" t="n">
-        <v>10196.69999876384</v>
+        <v>10399.47950537606</v>
       </c>
       <c r="N5" t="n">
-        <v>10196.69999876384</v>
+        <v>10399.47950537606</v>
       </c>
       <c r="O5" t="n">
-        <v>10196.69999876384</v>
+        <v>10399.47950537606</v>
       </c>
       <c r="P5" t="n">
-        <v>10196.69999876384</v>
+        <v>10399.47950537606</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-289625.8141380163</v>
+        <v>-265309.2377096881</v>
       </c>
       <c r="C6" t="n">
-        <v>34285.86873798119</v>
+        <v>12385.89109615168</v>
       </c>
       <c r="D6" t="n">
-        <v>23981.73412595433</v>
+        <v>25688.10260615461</v>
       </c>
       <c r="E6" t="n">
-        <v>27005.00424570468</v>
+        <v>8921.022881236209</v>
       </c>
       <c r="F6" t="n">
-        <v>96357.81056159307</v>
+        <v>97649.00728125355</v>
       </c>
       <c r="G6" t="n">
-        <v>96357.81056159305</v>
+        <v>97649.00728125352</v>
       </c>
       <c r="H6" t="n">
-        <v>96357.81056159305</v>
+        <v>97649.00728125355</v>
       </c>
       <c r="I6" t="n">
-        <v>96357.81056159304</v>
+        <v>97649.00728125352</v>
       </c>
       <c r="J6" t="n">
-        <v>96357.81056159307</v>
+        <v>97649.00728125352</v>
       </c>
       <c r="K6" t="n">
-        <v>96357.81056159305</v>
+        <v>97649.00728125355</v>
       </c>
       <c r="L6" t="n">
-        <v>96357.81056159304</v>
+        <v>97649.00728125352</v>
       </c>
       <c r="M6" t="n">
-        <v>96357.81056159307</v>
+        <v>97649.00728125352</v>
       </c>
       <c r="N6" t="n">
-        <v>96357.81056159304</v>
+        <v>97649.00728125352</v>
       </c>
       <c r="O6" t="n">
-        <v>96357.81056159307</v>
+        <v>97649.00728125352</v>
       </c>
       <c r="P6" t="n">
-        <v>96357.81056159307</v>
+        <v>97649.00728125352</v>
       </c>
     </row>
   </sheetData>
@@ -26735,49 +26737,49 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>311.6724326380389</v>
+      </c>
+      <c r="C3" t="n">
         <v>343.3658057592666</v>
       </c>
-      <c r="C3" t="n">
-        <v>352.9977959457674</v>
-      </c>
       <c r="D3" t="n">
-        <v>381.4147240567924</v>
+        <v>366.6001487649698</v>
       </c>
       <c r="E3" t="n">
-        <v>467.7385320533874</v>
+        <v>477.0403442833053</v>
       </c>
       <c r="F3" t="n">
-        <v>467.7385320533874</v>
+        <v>477.0403442833053</v>
       </c>
       <c r="G3" t="n">
-        <v>467.7385320533874</v>
+        <v>477.0403442833053</v>
       </c>
       <c r="H3" t="n">
-        <v>467.7385320533874</v>
+        <v>477.0403442833053</v>
       </c>
       <c r="I3" t="n">
-        <v>467.7385320533874</v>
+        <v>477.0403442833053</v>
       </c>
       <c r="J3" t="n">
-        <v>467.7385320533874</v>
+        <v>477.0403442833053</v>
       </c>
       <c r="K3" t="n">
-        <v>467.7385320533874</v>
+        <v>477.0403442833053</v>
       </c>
       <c r="L3" t="n">
-        <v>467.7385320533874</v>
+        <v>477.0403442833053</v>
       </c>
       <c r="M3" t="n">
-        <v>467.7385320533874</v>
+        <v>477.0403442833053</v>
       </c>
       <c r="N3" t="n">
-        <v>467.7385320533874</v>
+        <v>477.0403442833053</v>
       </c>
       <c r="O3" t="n">
-        <v>467.7385320533874</v>
+        <v>477.0403442833053</v>
       </c>
       <c r="P3" t="n">
-        <v>467.7385320533874</v>
+        <v>477.0403442833053</v>
       </c>
     </row>
     <row r="4">
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>343.3658057592666</v>
+        <v>311.6724326380389</v>
       </c>
       <c r="C3" t="n">
-        <v>9.631990186500918</v>
+        <v>31.69337312122769</v>
       </c>
       <c r="D3" t="n">
-        <v>28.416928111025</v>
+        <v>23.23434300570329</v>
       </c>
       <c r="E3" t="n">
-        <v>86.32380799659495</v>
+        <v>110.4401955183356</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.380365048278458</v>
+        <v>1.252954503067492</v>
       </c>
       <c r="H2" t="n">
-        <v>14.13666355068176</v>
+        <v>12.83182030453995</v>
       </c>
       <c r="I2" t="n">
-        <v>53.21652352375528</v>
+        <v>48.30452847950953</v>
       </c>
       <c r="J2" t="n">
-        <v>117.1567580163238</v>
+        <v>106.3429472547246</v>
       </c>
       <c r="K2" t="n">
-        <v>175.587610509951</v>
+        <v>159.3805113695716</v>
       </c>
       <c r="L2" t="n">
-        <v>217.8319573562028</v>
+        <v>197.7256177428234</v>
       </c>
       <c r="M2" t="n">
-        <v>242.3800242835249</v>
+        <v>220.0078473867499</v>
       </c>
       <c r="N2" t="n">
-        <v>246.3019864769461</v>
+        <v>223.5678043685904</v>
       </c>
       <c r="O2" t="n">
-        <v>232.5759815281271</v>
+        <v>211.108738028713</v>
       </c>
       <c r="P2" t="n">
-        <v>198.4982193987527</v>
+        <v>180.1764237342343</v>
       </c>
       <c r="Q2" t="n">
-        <v>149.0638961072804</v>
+        <v>135.3049905931297</v>
       </c>
       <c r="R2" t="n">
-        <v>86.70935596392172</v>
+        <v>78.70590330331341</v>
       </c>
       <c r="S2" t="n">
-        <v>31.45506853764538</v>
+        <v>28.5517007386505</v>
       </c>
       <c r="T2" t="n">
-        <v>6.042547998838951</v>
+        <v>5.484808337177948</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1104292038622766</v>
+        <v>0.1002363602453993</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7385604123878564</v>
+        <v>0.6703897607686119</v>
       </c>
       <c r="H3" t="n">
-        <v>7.132938719640614</v>
+        <v>6.474553742160015</v>
       </c>
       <c r="I3" t="n">
-        <v>25.42850542651172</v>
+        <v>23.08140185102458</v>
       </c>
       <c r="J3" t="n">
-        <v>69.77776247038078</v>
+        <v>63.33713086279241</v>
       </c>
       <c r="K3" t="n">
-        <v>119.2613101003671</v>
+        <v>108.2532448342894</v>
       </c>
       <c r="L3" t="n">
-        <v>160.3615491897405</v>
+        <v>145.559846959869</v>
       </c>
       <c r="M3" t="n">
-        <v>187.1343641388002</v>
+        <v>169.8614757877311</v>
       </c>
       <c r="N3" t="n">
-        <v>192.087253921875</v>
+        <v>174.3572036132365</v>
       </c>
       <c r="O3" t="n">
-        <v>175.7223100473861</v>
+        <v>159.5027778614688</v>
       </c>
       <c r="P3" t="n">
-        <v>141.0326457655372</v>
+        <v>128.015041247122</v>
       </c>
       <c r="Q3" t="n">
-        <v>94.27658878129901</v>
+        <v>85.57466490091966</v>
       </c>
       <c r="R3" t="n">
-        <v>45.85553156913377</v>
+        <v>41.62297128701962</v>
       </c>
       <c r="S3" t="n">
-        <v>13.71843573009899</v>
+        <v>12.45219577568013</v>
       </c>
       <c r="T3" t="n">
-        <v>2.976916749931753</v>
+        <v>2.70214118485243</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04858950081499057</v>
+        <v>0.0441045895242508</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6191842398937593</v>
+        <v>0.5620322555767913</v>
       </c>
       <c r="H4" t="n">
-        <v>5.505110787419063</v>
+        <v>4.996977690491839</v>
       </c>
       <c r="I4" t="n">
-        <v>18.62055877789597</v>
+        <v>16.9018427404366</v>
       </c>
       <c r="J4" t="n">
-        <v>43.77632576048878</v>
+        <v>39.73568046927914</v>
       </c>
       <c r="K4" t="n">
-        <v>71.93795078038401</v>
+        <v>65.29792932973992</v>
       </c>
       <c r="L4" t="n">
-        <v>92.05580962929582</v>
+        <v>83.55886825184406</v>
       </c>
       <c r="M4" t="n">
-        <v>97.05994407716446</v>
+        <v>88.10111075373283</v>
       </c>
       <c r="N4" t="n">
-        <v>94.75207554665143</v>
+        <v>86.00626325567394</v>
       </c>
       <c r="O4" t="n">
-        <v>87.51887783516521</v>
+        <v>79.44070463370868</v>
       </c>
       <c r="P4" t="n">
-        <v>74.88751934133246</v>
+        <v>67.97524661994207</v>
       </c>
       <c r="Q4" t="n">
-        <v>51.84823666964925</v>
+        <v>47.06253732834386</v>
       </c>
       <c r="R4" t="n">
-        <v>27.84077500467757</v>
+        <v>25.27101396438917</v>
       </c>
       <c r="S4" t="n">
-        <v>10.7906926170576</v>
+        <v>9.794689399460985</v>
       </c>
       <c r="T4" t="n">
-        <v>2.645605388636971</v>
+        <v>2.40141054655538</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03377368581238691</v>
+        <v>0.0306563048496432</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.419086616867405</v>
+        <v>1.380365048278458</v>
       </c>
       <c r="H5" t="n">
-        <v>14.53322081499332</v>
+        <v>14.13666355068176</v>
       </c>
       <c r="I5" t="n">
-        <v>54.7093367967807</v>
+        <v>53.21652352375528</v>
       </c>
       <c r="J5" t="n">
-        <v>120.4432027483501</v>
+        <v>117.1567580163238</v>
       </c>
       <c r="K5" t="n">
-        <v>180.5131392403474</v>
+        <v>175.587610509951</v>
       </c>
       <c r="L5" t="n">
-        <v>223.9425112913033</v>
+        <v>217.8319573562029</v>
       </c>
       <c r="M5" t="n">
-        <v>249.179192914019</v>
+        <v>242.3800242835249</v>
       </c>
       <c r="N5" t="n">
-        <v>253.2111727641935</v>
+        <v>246.301986476946</v>
       </c>
       <c r="O5" t="n">
-        <v>239.1001302177183</v>
+        <v>232.5759815281271</v>
       </c>
       <c r="P5" t="n">
-        <v>204.0664293638042</v>
+        <v>198.4982193987527</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.2453898972402</v>
+        <v>149.0638961072804</v>
       </c>
       <c r="R5" t="n">
-        <v>89.14169969679725</v>
+        <v>86.70935596392172</v>
       </c>
       <c r="S5" t="n">
-        <v>32.33743628186603</v>
+        <v>31.45506853764538</v>
       </c>
       <c r="T5" t="n">
-        <v>6.212051665337071</v>
+        <v>6.04254799883895</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1135269293493924</v>
+        <v>0.1104292038622766</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.759278278072028</v>
+        <v>0.7385604123878564</v>
       </c>
       <c r="H6" t="n">
-        <v>7.333029685590377</v>
+        <v>7.132938719640613</v>
       </c>
       <c r="I6" t="n">
-        <v>26.14181790730447</v>
+        <v>25.42850542651172</v>
       </c>
       <c r="J6" t="n">
-        <v>71.73514643837525</v>
+        <v>69.77776247038078</v>
       </c>
       <c r="K6" t="n">
-        <v>122.6067910692011</v>
+        <v>119.2613101003672</v>
       </c>
       <c r="L6" t="n">
-        <v>164.8599612103322</v>
+        <v>160.3615491897405</v>
       </c>
       <c r="M6" t="n">
-        <v>192.3837987904432</v>
+        <v>187.1343641388002</v>
       </c>
       <c r="N6" t="n">
         <v>192.087253921875</v>
       </c>
       <c r="O6" t="n">
-        <v>180.6516173270759</v>
+        <v>175.7223100473861</v>
       </c>
       <c r="P6" t="n">
-        <v>144.9888494328945</v>
+        <v>141.0326457655372</v>
       </c>
       <c r="Q6" t="n">
-        <v>96.92120616231713</v>
+        <v>94.276588781299</v>
       </c>
       <c r="R6" t="n">
-        <v>47.14185659819137</v>
+        <v>45.85553156913376</v>
       </c>
       <c r="S6" t="n">
-        <v>14.10326099839928</v>
+        <v>13.71843573009899</v>
       </c>
       <c r="T6" t="n">
-        <v>3.060424287492077</v>
+        <v>2.976916749931753</v>
       </c>
       <c r="U6" t="n">
-        <v>0.04995251829421239</v>
+        <v>0.04858950081499057</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6365534025251542</v>
+        <v>0.6191842398937593</v>
       </c>
       <c r="H7" t="n">
-        <v>5.659538433360012</v>
+        <v>5.505110787419063</v>
       </c>
       <c r="I7" t="n">
-        <v>19.14289686866555</v>
+        <v>18.62055877789597</v>
       </c>
       <c r="J7" t="n">
-        <v>45.0043255585284</v>
+        <v>43.77632576048878</v>
       </c>
       <c r="K7" t="n">
-        <v>73.95593167519517</v>
+        <v>71.93795078038401</v>
       </c>
       <c r="L7" t="n">
-        <v>94.63813040814885</v>
+        <v>92.05580962929582</v>
       </c>
       <c r="M7" t="n">
-        <v>99.78263927037484</v>
+        <v>97.05994407716445</v>
       </c>
       <c r="N7" t="n">
-        <v>97.41003113369027</v>
+        <v>94.75207554665143</v>
       </c>
       <c r="O7" t="n">
-        <v>89.97393002237365</v>
+        <v>87.51887783516521</v>
       </c>
       <c r="P7" t="n">
-        <v>76.98824061086044</v>
+        <v>74.88751934133246</v>
       </c>
       <c r="Q7" t="n">
-        <v>53.30266718781088</v>
+        <v>51.84823666964925</v>
       </c>
       <c r="R7" t="n">
-        <v>28.62175571717647</v>
+        <v>27.84077500467757</v>
       </c>
       <c r="S7" t="n">
-        <v>11.09338975127928</v>
+        <v>10.7906926170576</v>
       </c>
       <c r="T7" t="n">
-        <v>2.719819083516568</v>
+        <v>2.645605388636971</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03472109468319027</v>
+        <v>0.03377368581238691</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.533325523846401</v>
+        <v>1.473769442271234</v>
       </c>
       <c r="H8" t="n">
-        <v>15.70317002109195</v>
+        <v>15.09324130066028</v>
       </c>
       <c r="I8" t="n">
-        <v>59.11353225808841</v>
+        <v>56.81749642316181</v>
       </c>
       <c r="J8" t="n">
-        <v>130.1390871795585</v>
+        <v>125.0843392009683</v>
       </c>
       <c r="K8" t="n">
-        <v>195.0447566039767</v>
+        <v>187.4689996923097</v>
       </c>
       <c r="L8" t="n">
-        <v>241.970267604391</v>
+        <v>232.571871261218</v>
       </c>
       <c r="M8" t="n">
-        <v>269.2385453890944</v>
+        <v>258.781018580209</v>
       </c>
       <c r="N8" t="n">
-        <v>273.5951065337231</v>
+        <v>262.9683660080622</v>
       </c>
       <c r="O8" t="n">
-        <v>258.3481008559754</v>
+        <v>248.3135711164776</v>
       </c>
       <c r="P8" t="n">
-        <v>220.4941269860174</v>
+        <v>211.9298880104065</v>
       </c>
       <c r="Q8" t="n">
-        <v>165.5819066632681</v>
+        <v>159.1505198590679</v>
       </c>
       <c r="R8" t="n">
-        <v>96.31775943731654</v>
+        <v>92.5766697280705</v>
       </c>
       <c r="S8" t="n">
-        <v>34.94065537464989</v>
+        <v>33.58352116575578</v>
       </c>
       <c r="T8" t="n">
-        <v>6.712132480637622</v>
+        <v>6.451425733542331</v>
       </c>
       <c r="U8" t="n">
-        <v>0.122666041907712</v>
+        <v>0.1179015553816987</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8204014819334781</v>
+        <v>0.7885361690416332</v>
       </c>
       <c r="H9" t="n">
-        <v>7.923351154462802</v>
+        <v>7.615599316796827</v>
       </c>
       <c r="I9" t="n">
-        <v>28.2462790928851</v>
+        <v>27.14916196042465</v>
       </c>
       <c r="J9" t="n">
-        <v>77.50994878214497</v>
+        <v>74.49937551458694</v>
       </c>
       <c r="K9" t="n">
-        <v>132.476848071688</v>
+        <v>127.3312988403764</v>
       </c>
       <c r="L9" t="n">
-        <v>178.1314708908633</v>
+        <v>171.2126449491494</v>
       </c>
       <c r="M9" t="n">
-        <v>207.8710246109518</v>
+        <v>199.7970810769085</v>
       </c>
       <c r="N9" t="n">
         <v>192.087253921875</v>
       </c>
       <c r="O9" t="n">
-        <v>195.1943824142341</v>
+        <v>187.6128138684275</v>
       </c>
       <c r="P9" t="n">
-        <v>156.6607005281569</v>
+        <v>150.5758233672571</v>
       </c>
       <c r="Q9" t="n">
-        <v>104.7235295183857</v>
+        <v>100.6559502797706</v>
       </c>
       <c r="R9" t="n">
-        <v>50.93685692215053</v>
+        <v>48.95841231997089</v>
       </c>
       <c r="S9" t="n">
-        <v>15.23859770170297</v>
+        <v>14.64671349075138</v>
       </c>
       <c r="T9" t="n">
-        <v>3.306793692530114</v>
+        <v>3.178354119952898</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05397378170614989</v>
+        <v>0.05187737954221273</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.687797043381101</v>
+        <v>0.6610822354778143</v>
       </c>
       <c r="H10" t="n">
-        <v>6.11514098569743</v>
+        <v>5.877622057248208</v>
       </c>
       <c r="I10" t="n">
-        <v>20.68393290458803</v>
+        <v>19.88054577236919</v>
       </c>
       <c r="J10" t="n">
-        <v>48.62725096704384</v>
+        <v>46.73851404828147</v>
       </c>
       <c r="K10" t="n">
-        <v>79.90951104009517</v>
+        <v>76.80573608551332</v>
       </c>
       <c r="L10" t="n">
-        <v>102.2566622495866</v>
+        <v>98.28489890003797</v>
       </c>
       <c r="M10" t="n">
-        <v>107.8153129001848</v>
+        <v>103.6276453303995</v>
       </c>
       <c r="N10" t="n">
-        <v>105.2517057384917</v>
+        <v>101.1636115436187</v>
       </c>
       <c r="O10" t="n">
-        <v>97.21698573172148</v>
+        <v>93.44096906553692</v>
       </c>
       <c r="P10" t="n">
-        <v>83.18592604674694</v>
+        <v>79.95489146178943</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.59362333257565</v>
+        <v>55.35662246351043</v>
       </c>
       <c r="R10" t="n">
-        <v>30.92585615057204</v>
+        <v>29.72466124248426</v>
       </c>
       <c r="S10" t="n">
-        <v>11.98642665601427</v>
+        <v>11.520860412827</v>
       </c>
       <c r="T10" t="n">
-        <v>2.938769185355612</v>
+        <v>2.824624097041569</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03751620236624192</v>
+        <v>0.03605903102606264</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.88035590775231</v>
+        <v>1.91775012777208</v>
       </c>
       <c r="H11" t="n">
-        <v>19.25719494026835</v>
+        <v>19.64015849604582</v>
       </c>
       <c r="I11" t="n">
-        <v>72.49242113362098</v>
+        <v>73.93406180093319</v>
       </c>
       <c r="J11" t="n">
-        <v>159.5928572255927</v>
+        <v>162.7666449069957</v>
       </c>
       <c r="K11" t="n">
-        <v>239.188322800748</v>
+        <v>243.9450078155879</v>
       </c>
       <c r="L11" t="n">
-        <v>296.7342649126228</v>
+        <v>302.6353532883928</v>
       </c>
       <c r="M11" t="n">
-        <v>330.174044287113</v>
+        <v>336.7401421231595</v>
       </c>
       <c r="N11" t="n">
         <v>335.5166055100142</v>
       </c>
       <c r="O11" t="n">
-        <v>316.8188164523022</v>
+        <v>323.1193218406583</v>
       </c>
       <c r="P11" t="n">
-        <v>270.397529979667</v>
+        <v>275.774865561285</v>
       </c>
       <c r="Q11" t="n">
-        <v>203.0572840332874</v>
+        <v>207.0954391104474</v>
       </c>
       <c r="R11" t="n">
-        <v>118.1169067903461</v>
+        <v>120.465871463663</v>
       </c>
       <c r="S11" t="n">
-        <v>42.8486102479058</v>
+        <v>43.70073103660632</v>
       </c>
       <c r="T11" t="n">
-        <v>8.231257986185739</v>
+        <v>8.394951184322284</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1504284726201847</v>
+        <v>0.1534200102217664</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,19 +31831,19 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.006079106680871</v>
+        <v>1.026086778269751</v>
       </c>
       <c r="H12" t="n">
-        <v>9.716606109259992</v>
+        <v>9.909838095394703</v>
       </c>
       <c r="I12" t="n">
-        <v>34.63912713791596</v>
+        <v>35.32798776060327</v>
       </c>
       <c r="J12" t="n">
-        <v>95.05241244303791</v>
+        <v>96.94269864345925</v>
       </c>
       <c r="K12" t="n">
-        <v>162.4597125906563</v>
+        <v>165.6905127875326</v>
       </c>
       <c r="L12" t="n">
         <v>202.635780428066</v>
@@ -31856,22 +31858,22 @@
         <v>208.5470075</v>
       </c>
       <c r="P12" t="n">
-        <v>192.1169830994376</v>
+        <v>195.937570843458</v>
       </c>
       <c r="Q12" t="n">
-        <v>128.425115442281</v>
+        <v>130.9790771700124</v>
       </c>
       <c r="R12" t="n">
-        <v>62.46515716743164</v>
+        <v>63.70738786485351</v>
       </c>
       <c r="S12" t="n">
-        <v>18.68747814383108</v>
+        <v>19.05911186829997</v>
       </c>
       <c r="T12" t="n">
-        <v>4.055204820349649</v>
+        <v>4.135849777324126</v>
       </c>
       <c r="U12" t="n">
-        <v>0.06618941491321523</v>
+        <v>0.06750570909669418</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8434629266536492</v>
+        <v>0.8602366864125176</v>
       </c>
       <c r="H13" t="n">
-        <v>7.499152202429723</v>
+        <v>7.648286175558571</v>
       </c>
       <c r="I13" t="n">
-        <v>25.36523055791157</v>
+        <v>25.86966326047827</v>
       </c>
       <c r="J13" t="n">
-        <v>59.632828914413</v>
+        <v>60.81873372936499</v>
       </c>
       <c r="K13" t="n">
-        <v>97.9950563875785</v>
+        <v>99.94386229410884</v>
       </c>
       <c r="L13" t="n">
-        <v>125.3999336590344</v>
+        <v>127.8937342690029</v>
       </c>
       <c r="M13" t="n">
-        <v>132.2166476753534</v>
+        <v>134.8460107619185</v>
       </c>
       <c r="N13" t="n">
-        <v>129.0728313123717</v>
+        <v>131.6396740216538</v>
       </c>
       <c r="O13" t="n">
-        <v>119.2196507600995</v>
+        <v>121.590545457653</v>
       </c>
       <c r="P13" t="n">
-        <v>102.013007056365</v>
+        <v>104.0417170548375</v>
       </c>
       <c r="Q13" t="n">
-        <v>70.62851834006149</v>
+        <v>72.0330919867791</v>
       </c>
       <c r="R13" t="n">
-        <v>37.92516032026317</v>
+        <v>38.67936955451192</v>
       </c>
       <c r="S13" t="n">
-        <v>14.69925845813677</v>
+        <v>14.99157934411632</v>
       </c>
       <c r="T13" t="n">
-        <v>3.60388705024741</v>
+        <v>3.675556751035302</v>
       </c>
       <c r="U13" t="n">
-        <v>0.04600706872656274</v>
+        <v>0.04692200107704647</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.88035590775231</v>
+        <v>1.91775012777208</v>
       </c>
       <c r="H14" t="n">
-        <v>19.25719494026835</v>
+        <v>19.64015849604582</v>
       </c>
       <c r="I14" t="n">
-        <v>72.49242113362098</v>
+        <v>73.93406180093319</v>
       </c>
       <c r="J14" t="n">
-        <v>159.5928572255927</v>
+        <v>162.7666449069957</v>
       </c>
       <c r="K14" t="n">
-        <v>239.188322800748</v>
+        <v>243.9450078155879</v>
       </c>
       <c r="L14" t="n">
-        <v>296.7342649126228</v>
+        <v>302.6353532883928</v>
       </c>
       <c r="M14" t="n">
-        <v>330.174044287113</v>
+        <v>336.7401421231595</v>
       </c>
       <c r="N14" t="n">
         <v>335.5166055100142</v>
       </c>
       <c r="O14" t="n">
-        <v>316.8188164523022</v>
+        <v>323.1193218406583</v>
       </c>
       <c r="P14" t="n">
-        <v>270.397529979667</v>
+        <v>275.774865561285</v>
       </c>
       <c r="Q14" t="n">
-        <v>203.0572840332874</v>
+        <v>207.0954391104474</v>
       </c>
       <c r="R14" t="n">
-        <v>118.1169067903461</v>
+        <v>120.465871463663</v>
       </c>
       <c r="S14" t="n">
-        <v>42.8486102479058</v>
+        <v>43.70073103660632</v>
       </c>
       <c r="T14" t="n">
-        <v>8.231257986185739</v>
+        <v>8.394951184322284</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1504284726201847</v>
+        <v>0.1534200102217664</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,19 +32068,19 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.006079106680871</v>
+        <v>1.026086778269751</v>
       </c>
       <c r="H15" t="n">
-        <v>9.716606109259992</v>
+        <v>9.909838095394703</v>
       </c>
       <c r="I15" t="n">
-        <v>34.63912713791596</v>
+        <v>35.32798776060327</v>
       </c>
       <c r="J15" t="n">
-        <v>95.05241244303791</v>
+        <v>96.94269864345925</v>
       </c>
       <c r="K15" t="n">
-        <v>162.4597125906563</v>
+        <v>165.6905127875326</v>
       </c>
       <c r="L15" t="n">
         <v>202.635780428066</v>
@@ -32093,22 +32095,22 @@
         <v>208.5470075</v>
       </c>
       <c r="P15" t="n">
-        <v>192.1169830994376</v>
+        <v>195.937570843458</v>
       </c>
       <c r="Q15" t="n">
-        <v>128.425115442281</v>
+        <v>130.9790771700124</v>
       </c>
       <c r="R15" t="n">
-        <v>62.46515716743164</v>
+        <v>63.70738786485351</v>
       </c>
       <c r="S15" t="n">
-        <v>18.68747814383108</v>
+        <v>19.05911186829997</v>
       </c>
       <c r="T15" t="n">
-        <v>4.055204820349649</v>
+        <v>4.135849777324126</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06618941491321523</v>
+        <v>0.06750570909669418</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8434629266536492</v>
+        <v>0.8602366864125176</v>
       </c>
       <c r="H16" t="n">
-        <v>7.499152202429723</v>
+        <v>7.648286175558571</v>
       </c>
       <c r="I16" t="n">
-        <v>25.36523055791157</v>
+        <v>25.86966326047827</v>
       </c>
       <c r="J16" t="n">
-        <v>59.632828914413</v>
+        <v>60.81873372936499</v>
       </c>
       <c r="K16" t="n">
-        <v>97.9950563875785</v>
+        <v>99.94386229410884</v>
       </c>
       <c r="L16" t="n">
-        <v>125.3999336590344</v>
+        <v>127.8937342690029</v>
       </c>
       <c r="M16" t="n">
-        <v>132.2166476753534</v>
+        <v>134.8460107619185</v>
       </c>
       <c r="N16" t="n">
-        <v>129.0728313123717</v>
+        <v>131.6396740216538</v>
       </c>
       <c r="O16" t="n">
-        <v>119.2196507600995</v>
+        <v>121.590545457653</v>
       </c>
       <c r="P16" t="n">
-        <v>102.013007056365</v>
+        <v>104.0417170548375</v>
       </c>
       <c r="Q16" t="n">
-        <v>70.62851834006149</v>
+        <v>72.0330919867791</v>
       </c>
       <c r="R16" t="n">
-        <v>37.92516032026317</v>
+        <v>38.67936955451192</v>
       </c>
       <c r="S16" t="n">
-        <v>14.69925845813677</v>
+        <v>14.99157934411632</v>
       </c>
       <c r="T16" t="n">
-        <v>3.60388705024741</v>
+        <v>3.675556751035302</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04600706872656274</v>
+        <v>0.04692200107704647</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.88035590775231</v>
+        <v>1.91775012777208</v>
       </c>
       <c r="H17" t="n">
-        <v>19.25719494026835</v>
+        <v>19.64015849604582</v>
       </c>
       <c r="I17" t="n">
-        <v>72.49242113362098</v>
+        <v>73.93406180093319</v>
       </c>
       <c r="J17" t="n">
-        <v>159.5928572255927</v>
+        <v>162.7666449069957</v>
       </c>
       <c r="K17" t="n">
-        <v>239.188322800748</v>
+        <v>243.9450078155879</v>
       </c>
       <c r="L17" t="n">
-        <v>296.7342649126228</v>
+        <v>302.6353532883928</v>
       </c>
       <c r="M17" t="n">
-        <v>330.174044287113</v>
+        <v>336.7401421231595</v>
       </c>
       <c r="N17" t="n">
         <v>335.5166055100142</v>
       </c>
       <c r="O17" t="n">
-        <v>316.8188164523022</v>
+        <v>323.1193218406583</v>
       </c>
       <c r="P17" t="n">
-        <v>270.397529979667</v>
+        <v>275.774865561285</v>
       </c>
       <c r="Q17" t="n">
-        <v>203.0572840332874</v>
+        <v>207.0954391104474</v>
       </c>
       <c r="R17" t="n">
-        <v>118.1169067903461</v>
+        <v>120.465871463663</v>
       </c>
       <c r="S17" t="n">
-        <v>42.8486102479058</v>
+        <v>43.70073103660632</v>
       </c>
       <c r="T17" t="n">
-        <v>8.231257986185739</v>
+        <v>8.394951184322284</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1504284726201847</v>
+        <v>0.1534200102217664</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,19 +32305,19 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.006079106680871</v>
+        <v>1.026086778269751</v>
       </c>
       <c r="H18" t="n">
-        <v>9.716606109259992</v>
+        <v>9.909838095394703</v>
       </c>
       <c r="I18" t="n">
-        <v>34.63912713791596</v>
+        <v>35.32798776060327</v>
       </c>
       <c r="J18" t="n">
-        <v>95.05241244303791</v>
+        <v>96.94269864345925</v>
       </c>
       <c r="K18" t="n">
-        <v>162.4597125906563</v>
+        <v>165.6905127875326</v>
       </c>
       <c r="L18" t="n">
         <v>202.635780428066</v>
@@ -32330,22 +32332,22 @@
         <v>208.5470075</v>
       </c>
       <c r="P18" t="n">
-        <v>192.1169830994376</v>
+        <v>195.937570843458</v>
       </c>
       <c r="Q18" t="n">
-        <v>128.425115442281</v>
+        <v>130.9790771700124</v>
       </c>
       <c r="R18" t="n">
-        <v>62.46515716743164</v>
+        <v>63.70738786485351</v>
       </c>
       <c r="S18" t="n">
-        <v>18.68747814383108</v>
+        <v>19.05911186829997</v>
       </c>
       <c r="T18" t="n">
-        <v>4.055204820349649</v>
+        <v>4.135849777324126</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06618941491321523</v>
+        <v>0.06750570909669418</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8434629266536492</v>
+        <v>0.8602366864125176</v>
       </c>
       <c r="H19" t="n">
-        <v>7.499152202429723</v>
+        <v>7.648286175558571</v>
       </c>
       <c r="I19" t="n">
-        <v>25.36523055791157</v>
+        <v>25.86966326047827</v>
       </c>
       <c r="J19" t="n">
-        <v>59.632828914413</v>
+        <v>60.81873372936499</v>
       </c>
       <c r="K19" t="n">
-        <v>97.9950563875785</v>
+        <v>99.94386229410884</v>
       </c>
       <c r="L19" t="n">
-        <v>125.3999336590344</v>
+        <v>127.8937342690029</v>
       </c>
       <c r="M19" t="n">
-        <v>132.2166476753534</v>
+        <v>134.8460107619185</v>
       </c>
       <c r="N19" t="n">
-        <v>129.0728313123717</v>
+        <v>131.6396740216538</v>
       </c>
       <c r="O19" t="n">
-        <v>119.2196507600995</v>
+        <v>121.590545457653</v>
       </c>
       <c r="P19" t="n">
-        <v>102.013007056365</v>
+        <v>104.0417170548375</v>
       </c>
       <c r="Q19" t="n">
-        <v>70.62851834006149</v>
+        <v>72.0330919867791</v>
       </c>
       <c r="R19" t="n">
-        <v>37.92516032026317</v>
+        <v>38.67936955451192</v>
       </c>
       <c r="S19" t="n">
-        <v>14.69925845813677</v>
+        <v>14.99157934411632</v>
       </c>
       <c r="T19" t="n">
-        <v>3.60388705024741</v>
+        <v>3.675556751035302</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04600706872656274</v>
+        <v>0.04692200107704647</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.88035590775231</v>
+        <v>1.91775012777208</v>
       </c>
       <c r="H20" t="n">
-        <v>19.25719494026835</v>
+        <v>19.64015849604582</v>
       </c>
       <c r="I20" t="n">
-        <v>72.49242113362098</v>
+        <v>73.93406180093319</v>
       </c>
       <c r="J20" t="n">
-        <v>159.5928572255927</v>
+        <v>162.7666449069957</v>
       </c>
       <c r="K20" t="n">
-        <v>239.188322800748</v>
+        <v>243.9450078155879</v>
       </c>
       <c r="L20" t="n">
-        <v>296.7342649126228</v>
+        <v>302.6353532883928</v>
       </c>
       <c r="M20" t="n">
-        <v>330.174044287113</v>
+        <v>336.7401421231595</v>
       </c>
       <c r="N20" t="n">
         <v>335.5166055100142</v>
       </c>
       <c r="O20" t="n">
-        <v>316.8188164523022</v>
+        <v>323.1193218406583</v>
       </c>
       <c r="P20" t="n">
-        <v>270.397529979667</v>
+        <v>275.774865561285</v>
       </c>
       <c r="Q20" t="n">
-        <v>203.0572840332874</v>
+        <v>207.0954391104474</v>
       </c>
       <c r="R20" t="n">
-        <v>118.1169067903461</v>
+        <v>120.465871463663</v>
       </c>
       <c r="S20" t="n">
-        <v>42.8486102479058</v>
+        <v>43.70073103660632</v>
       </c>
       <c r="T20" t="n">
-        <v>8.231257986185739</v>
+        <v>8.394951184322284</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1504284726201847</v>
+        <v>0.1534200102217664</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,19 +32542,19 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.006079106680871</v>
+        <v>1.026086778269751</v>
       </c>
       <c r="H21" t="n">
-        <v>9.716606109259992</v>
+        <v>9.909838095394703</v>
       </c>
       <c r="I21" t="n">
-        <v>34.63912713791596</v>
+        <v>35.32798776060327</v>
       </c>
       <c r="J21" t="n">
-        <v>95.05241244303791</v>
+        <v>96.94269864345925</v>
       </c>
       <c r="K21" t="n">
-        <v>162.4597125906563</v>
+        <v>165.6905127875326</v>
       </c>
       <c r="L21" t="n">
         <v>202.635780428066</v>
@@ -32567,22 +32569,22 @@
         <v>208.5470075</v>
       </c>
       <c r="P21" t="n">
-        <v>192.1169830994376</v>
+        <v>195.937570843458</v>
       </c>
       <c r="Q21" t="n">
-        <v>128.425115442281</v>
+        <v>130.9790771700124</v>
       </c>
       <c r="R21" t="n">
-        <v>62.46515716743164</v>
+        <v>63.70738786485351</v>
       </c>
       <c r="S21" t="n">
-        <v>18.68747814383108</v>
+        <v>19.05911186829997</v>
       </c>
       <c r="T21" t="n">
-        <v>4.055204820349649</v>
+        <v>4.135849777324126</v>
       </c>
       <c r="U21" t="n">
-        <v>0.06618941491321523</v>
+        <v>0.06750570909669418</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8434629266536492</v>
+        <v>0.8602366864125176</v>
       </c>
       <c r="H22" t="n">
-        <v>7.499152202429723</v>
+        <v>7.648286175558571</v>
       </c>
       <c r="I22" t="n">
-        <v>25.36523055791157</v>
+        <v>25.86966326047827</v>
       </c>
       <c r="J22" t="n">
-        <v>59.632828914413</v>
+        <v>60.81873372936499</v>
       </c>
       <c r="K22" t="n">
-        <v>97.9950563875785</v>
+        <v>99.94386229410884</v>
       </c>
       <c r="L22" t="n">
-        <v>125.3999336590344</v>
+        <v>127.8937342690029</v>
       </c>
       <c r="M22" t="n">
-        <v>132.2166476753534</v>
+        <v>134.8460107619185</v>
       </c>
       <c r="N22" t="n">
-        <v>129.0728313123717</v>
+        <v>131.6396740216538</v>
       </c>
       <c r="O22" t="n">
-        <v>119.2196507600995</v>
+        <v>121.590545457653</v>
       </c>
       <c r="P22" t="n">
-        <v>102.013007056365</v>
+        <v>104.0417170548375</v>
       </c>
       <c r="Q22" t="n">
-        <v>70.62851834006149</v>
+        <v>72.0330919867791</v>
       </c>
       <c r="R22" t="n">
-        <v>37.92516032026317</v>
+        <v>38.67936955451192</v>
       </c>
       <c r="S22" t="n">
-        <v>14.69925845813677</v>
+        <v>14.99157934411632</v>
       </c>
       <c r="T22" t="n">
-        <v>3.60388705024741</v>
+        <v>3.675556751035302</v>
       </c>
       <c r="U22" t="n">
-        <v>0.04600706872656274</v>
+        <v>0.04692200107704647</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.88035590775231</v>
+        <v>1.91775012777208</v>
       </c>
       <c r="H23" t="n">
-        <v>19.25719494026835</v>
+        <v>19.64015849604582</v>
       </c>
       <c r="I23" t="n">
-        <v>72.49242113362098</v>
+        <v>73.93406180093319</v>
       </c>
       <c r="J23" t="n">
-        <v>159.5928572255927</v>
+        <v>162.7666449069957</v>
       </c>
       <c r="K23" t="n">
-        <v>239.188322800748</v>
+        <v>243.9450078155879</v>
       </c>
       <c r="L23" t="n">
-        <v>296.7342649126228</v>
+        <v>302.6353532883928</v>
       </c>
       <c r="M23" t="n">
-        <v>330.174044287113</v>
+        <v>336.7401421231595</v>
       </c>
       <c r="N23" t="n">
         <v>335.5166055100142</v>
       </c>
       <c r="O23" t="n">
-        <v>316.8188164523022</v>
+        <v>323.1193218406583</v>
       </c>
       <c r="P23" t="n">
-        <v>270.397529979667</v>
+        <v>275.774865561285</v>
       </c>
       <c r="Q23" t="n">
-        <v>203.0572840332873</v>
+        <v>207.0954391104474</v>
       </c>
       <c r="R23" t="n">
-        <v>118.1169067903461</v>
+        <v>120.465871463663</v>
       </c>
       <c r="S23" t="n">
-        <v>42.8486102479058</v>
+        <v>43.70073103660632</v>
       </c>
       <c r="T23" t="n">
-        <v>8.23125798618574</v>
+        <v>8.394951184322284</v>
       </c>
       <c r="U23" t="n">
-        <v>0.1504284726201847</v>
+        <v>0.1534200102217664</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,19 +32779,19 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.006079106680871</v>
+        <v>1.026086778269751</v>
       </c>
       <c r="H24" t="n">
-        <v>9.716606109259992</v>
+        <v>9.909838095394703</v>
       </c>
       <c r="I24" t="n">
-        <v>34.63912713791596</v>
+        <v>35.32798776060327</v>
       </c>
       <c r="J24" t="n">
-        <v>95.05241244303791</v>
+        <v>96.94269864345925</v>
       </c>
       <c r="K24" t="n">
-        <v>162.4597125906563</v>
+        <v>165.6905127875326</v>
       </c>
       <c r="L24" t="n">
         <v>202.635780428066</v>
@@ -32804,22 +32806,22 @@
         <v>208.5470075</v>
       </c>
       <c r="P24" t="n">
-        <v>192.1169830994376</v>
+        <v>195.937570843458</v>
       </c>
       <c r="Q24" t="n">
-        <v>128.425115442281</v>
+        <v>130.9790771700124</v>
       </c>
       <c r="R24" t="n">
-        <v>62.46515716743164</v>
+        <v>63.70738786485351</v>
       </c>
       <c r="S24" t="n">
-        <v>18.68747814383108</v>
+        <v>19.05911186829997</v>
       </c>
       <c r="T24" t="n">
-        <v>4.055204820349649</v>
+        <v>4.135849777324126</v>
       </c>
       <c r="U24" t="n">
-        <v>0.06618941491321521</v>
+        <v>0.06750570909669418</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8434629266536492</v>
+        <v>0.8602366864125176</v>
       </c>
       <c r="H25" t="n">
-        <v>7.499152202429724</v>
+        <v>7.648286175558571</v>
       </c>
       <c r="I25" t="n">
-        <v>25.36523055791157</v>
+        <v>25.86966326047827</v>
       </c>
       <c r="J25" t="n">
-        <v>59.632828914413</v>
+        <v>60.81873372936499</v>
       </c>
       <c r="K25" t="n">
-        <v>97.99505638757849</v>
+        <v>99.94386229410884</v>
       </c>
       <c r="L25" t="n">
-        <v>125.3999336590344</v>
+        <v>127.8937342690029</v>
       </c>
       <c r="M25" t="n">
-        <v>132.2166476753534</v>
+        <v>134.8460107619185</v>
       </c>
       <c r="N25" t="n">
-        <v>129.0728313123717</v>
+        <v>131.6396740216538</v>
       </c>
       <c r="O25" t="n">
-        <v>119.2196507600995</v>
+        <v>121.590545457653</v>
       </c>
       <c r="P25" t="n">
-        <v>102.013007056365</v>
+        <v>104.0417170548375</v>
       </c>
       <c r="Q25" t="n">
-        <v>70.62851834006149</v>
+        <v>72.0330919867791</v>
       </c>
       <c r="R25" t="n">
-        <v>37.92516032026317</v>
+        <v>38.67936955451192</v>
       </c>
       <c r="S25" t="n">
-        <v>14.69925845813677</v>
+        <v>14.99157934411632</v>
       </c>
       <c r="T25" t="n">
-        <v>3.60388705024741</v>
+        <v>3.675556751035302</v>
       </c>
       <c r="U25" t="n">
-        <v>0.04600706872656274</v>
+        <v>0.04692200107704647</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.88035590775231</v>
+        <v>1.91775012777208</v>
       </c>
       <c r="H26" t="n">
-        <v>19.25719494026835</v>
+        <v>19.64015849604582</v>
       </c>
       <c r="I26" t="n">
-        <v>72.49242113362098</v>
+        <v>73.93406180093319</v>
       </c>
       <c r="J26" t="n">
-        <v>159.5928572255927</v>
+        <v>162.7666449069957</v>
       </c>
       <c r="K26" t="n">
-        <v>239.188322800748</v>
+        <v>243.9450078155879</v>
       </c>
       <c r="L26" t="n">
-        <v>296.7342649126228</v>
+        <v>302.6353532883928</v>
       </c>
       <c r="M26" t="n">
-        <v>330.174044287113</v>
+        <v>336.7401421231595</v>
       </c>
       <c r="N26" t="n">
         <v>335.5166055100142</v>
       </c>
       <c r="O26" t="n">
-        <v>316.8188164523022</v>
+        <v>323.1193218406583</v>
       </c>
       <c r="P26" t="n">
-        <v>270.397529979667</v>
+        <v>275.774865561285</v>
       </c>
       <c r="Q26" t="n">
-        <v>203.0572840332874</v>
+        <v>207.0954391104474</v>
       </c>
       <c r="R26" t="n">
-        <v>118.1169067903461</v>
+        <v>120.465871463663</v>
       </c>
       <c r="S26" t="n">
-        <v>42.8486102479058</v>
+        <v>43.70073103660632</v>
       </c>
       <c r="T26" t="n">
-        <v>8.231257986185739</v>
+        <v>8.394951184322284</v>
       </c>
       <c r="U26" t="n">
-        <v>0.1504284726201847</v>
+        <v>0.1534200102217664</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,19 +33016,19 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.006079106680871</v>
+        <v>1.026086778269751</v>
       </c>
       <c r="H27" t="n">
-        <v>9.716606109259992</v>
+        <v>9.909838095394703</v>
       </c>
       <c r="I27" t="n">
-        <v>34.63912713791596</v>
+        <v>35.32798776060327</v>
       </c>
       <c r="J27" t="n">
-        <v>95.05241244303791</v>
+        <v>96.94269864345925</v>
       </c>
       <c r="K27" t="n">
-        <v>162.4597125906563</v>
+        <v>165.6905127875326</v>
       </c>
       <c r="L27" t="n">
         <v>202.635780428066</v>
@@ -33041,22 +33043,22 @@
         <v>208.5470075</v>
       </c>
       <c r="P27" t="n">
-        <v>192.1169830994376</v>
+        <v>195.937570843458</v>
       </c>
       <c r="Q27" t="n">
-        <v>128.425115442281</v>
+        <v>130.9790771700124</v>
       </c>
       <c r="R27" t="n">
-        <v>62.46515716743164</v>
+        <v>63.70738786485351</v>
       </c>
       <c r="S27" t="n">
-        <v>18.68747814383108</v>
+        <v>19.05911186829997</v>
       </c>
       <c r="T27" t="n">
-        <v>4.055204820349649</v>
+        <v>4.135849777324126</v>
       </c>
       <c r="U27" t="n">
-        <v>0.06618941491321523</v>
+        <v>0.06750570909669418</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8434629266536492</v>
+        <v>0.8602366864125176</v>
       </c>
       <c r="H28" t="n">
-        <v>7.499152202429723</v>
+        <v>7.648286175558571</v>
       </c>
       <c r="I28" t="n">
-        <v>25.36523055791157</v>
+        <v>25.86966326047827</v>
       </c>
       <c r="J28" t="n">
-        <v>59.632828914413</v>
+        <v>60.81873372936499</v>
       </c>
       <c r="K28" t="n">
-        <v>97.9950563875785</v>
+        <v>99.94386229410884</v>
       </c>
       <c r="L28" t="n">
-        <v>125.3999336590344</v>
+        <v>127.8937342690029</v>
       </c>
       <c r="M28" t="n">
-        <v>132.2166476753534</v>
+        <v>134.8460107619185</v>
       </c>
       <c r="N28" t="n">
-        <v>129.0728313123717</v>
+        <v>131.6396740216538</v>
       </c>
       <c r="O28" t="n">
-        <v>119.2196507600995</v>
+        <v>121.590545457653</v>
       </c>
       <c r="P28" t="n">
-        <v>102.013007056365</v>
+        <v>104.0417170548375</v>
       </c>
       <c r="Q28" t="n">
-        <v>70.62851834006149</v>
+        <v>72.0330919867791</v>
       </c>
       <c r="R28" t="n">
-        <v>37.92516032026317</v>
+        <v>38.67936955451192</v>
       </c>
       <c r="S28" t="n">
-        <v>14.69925845813677</v>
+        <v>14.99157934411632</v>
       </c>
       <c r="T28" t="n">
-        <v>3.60388705024741</v>
+        <v>3.675556751035302</v>
       </c>
       <c r="U28" t="n">
-        <v>0.04600706872656274</v>
+        <v>0.04692200107704647</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.88035590775231</v>
+        <v>1.91775012777208</v>
       </c>
       <c r="H29" t="n">
-        <v>19.25719494026835</v>
+        <v>19.64015849604582</v>
       </c>
       <c r="I29" t="n">
-        <v>72.49242113362098</v>
+        <v>73.93406180093319</v>
       </c>
       <c r="J29" t="n">
-        <v>159.5928572255927</v>
+        <v>162.7666449069957</v>
       </c>
       <c r="K29" t="n">
-        <v>239.188322800748</v>
+        <v>243.9450078155879</v>
       </c>
       <c r="L29" t="n">
-        <v>296.7342649126228</v>
+        <v>302.6353532883928</v>
       </c>
       <c r="M29" t="n">
-        <v>330.174044287113</v>
+        <v>336.7401421231595</v>
       </c>
       <c r="N29" t="n">
         <v>335.5166055100142</v>
       </c>
       <c r="O29" t="n">
-        <v>316.8188164523022</v>
+        <v>323.1193218406583</v>
       </c>
       <c r="P29" t="n">
-        <v>270.397529979667</v>
+        <v>275.774865561285</v>
       </c>
       <c r="Q29" t="n">
-        <v>203.0572840332874</v>
+        <v>207.0954391104474</v>
       </c>
       <c r="R29" t="n">
-        <v>118.1169067903461</v>
+        <v>120.465871463663</v>
       </c>
       <c r="S29" t="n">
-        <v>42.8486102479058</v>
+        <v>43.70073103660632</v>
       </c>
       <c r="T29" t="n">
-        <v>8.231257986185739</v>
+        <v>8.394951184322284</v>
       </c>
       <c r="U29" t="n">
-        <v>0.1504284726201847</v>
+        <v>0.1534200102217664</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,19 +33253,19 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.006079106680871</v>
+        <v>1.026086778269751</v>
       </c>
       <c r="H30" t="n">
-        <v>9.716606109259992</v>
+        <v>9.909838095394703</v>
       </c>
       <c r="I30" t="n">
-        <v>34.63912713791596</v>
+        <v>35.32798776060327</v>
       </c>
       <c r="J30" t="n">
-        <v>95.05241244303791</v>
+        <v>96.94269864345925</v>
       </c>
       <c r="K30" t="n">
-        <v>162.4597125906563</v>
+        <v>165.6905127875326</v>
       </c>
       <c r="L30" t="n">
         <v>202.635780428066</v>
@@ -33278,22 +33280,22 @@
         <v>208.5470075</v>
       </c>
       <c r="P30" t="n">
-        <v>192.1169830994376</v>
+        <v>195.937570843458</v>
       </c>
       <c r="Q30" t="n">
-        <v>128.425115442281</v>
+        <v>130.9790771700124</v>
       </c>
       <c r="R30" t="n">
-        <v>62.46515716743164</v>
+        <v>63.70738786485351</v>
       </c>
       <c r="S30" t="n">
-        <v>18.68747814383108</v>
+        <v>19.05911186829997</v>
       </c>
       <c r="T30" t="n">
-        <v>4.055204820349649</v>
+        <v>4.135849777324126</v>
       </c>
       <c r="U30" t="n">
-        <v>0.06618941491321523</v>
+        <v>0.06750570909669418</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8434629266536492</v>
+        <v>0.8602366864125176</v>
       </c>
       <c r="H31" t="n">
-        <v>7.499152202429723</v>
+        <v>7.648286175558571</v>
       </c>
       <c r="I31" t="n">
-        <v>25.36523055791157</v>
+        <v>25.86966326047827</v>
       </c>
       <c r="J31" t="n">
-        <v>59.632828914413</v>
+        <v>60.81873372936499</v>
       </c>
       <c r="K31" t="n">
-        <v>97.9950563875785</v>
+        <v>99.94386229410884</v>
       </c>
       <c r="L31" t="n">
-        <v>125.3999336590344</v>
+        <v>127.8937342690029</v>
       </c>
       <c r="M31" t="n">
-        <v>132.2166476753534</v>
+        <v>134.8460107619185</v>
       </c>
       <c r="N31" t="n">
-        <v>129.0728313123717</v>
+        <v>131.6396740216538</v>
       </c>
       <c r="O31" t="n">
-        <v>119.2196507600995</v>
+        <v>121.590545457653</v>
       </c>
       <c r="P31" t="n">
-        <v>102.013007056365</v>
+        <v>104.0417170548375</v>
       </c>
       <c r="Q31" t="n">
-        <v>70.62851834006149</v>
+        <v>72.0330919867791</v>
       </c>
       <c r="R31" t="n">
-        <v>37.92516032026317</v>
+        <v>38.67936955451192</v>
       </c>
       <c r="S31" t="n">
-        <v>14.69925845813677</v>
+        <v>14.99157934411632</v>
       </c>
       <c r="T31" t="n">
-        <v>3.60388705024741</v>
+        <v>3.675556751035302</v>
       </c>
       <c r="U31" t="n">
-        <v>0.04600706872656274</v>
+        <v>0.04692200107704647</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.88035590775231</v>
+        <v>1.91775012777208</v>
       </c>
       <c r="H32" t="n">
-        <v>19.25719494026835</v>
+        <v>19.64015849604582</v>
       </c>
       <c r="I32" t="n">
-        <v>72.49242113362098</v>
+        <v>73.93406180093319</v>
       </c>
       <c r="J32" t="n">
-        <v>159.5928572255927</v>
+        <v>162.7666449069957</v>
       </c>
       <c r="K32" t="n">
-        <v>239.188322800748</v>
+        <v>243.9450078155879</v>
       </c>
       <c r="L32" t="n">
-        <v>296.7342649126228</v>
+        <v>302.6353532883928</v>
       </c>
       <c r="M32" t="n">
-        <v>330.174044287113</v>
+        <v>336.7401421231595</v>
       </c>
       <c r="N32" t="n">
         <v>335.5166055100142</v>
       </c>
       <c r="O32" t="n">
-        <v>316.8188164523022</v>
+        <v>323.1193218406583</v>
       </c>
       <c r="P32" t="n">
-        <v>270.397529979667</v>
+        <v>275.774865561285</v>
       </c>
       <c r="Q32" t="n">
-        <v>203.0572840332874</v>
+        <v>207.0954391104474</v>
       </c>
       <c r="R32" t="n">
-        <v>118.1169067903461</v>
+        <v>120.465871463663</v>
       </c>
       <c r="S32" t="n">
-        <v>42.8486102479058</v>
+        <v>43.70073103660632</v>
       </c>
       <c r="T32" t="n">
-        <v>8.231257986185739</v>
+        <v>8.394951184322284</v>
       </c>
       <c r="U32" t="n">
-        <v>0.1504284726201847</v>
+        <v>0.1534200102217664</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,19 +33490,19 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.006079106680871</v>
+        <v>1.026086778269751</v>
       </c>
       <c r="H33" t="n">
-        <v>9.716606109259992</v>
+        <v>9.909838095394703</v>
       </c>
       <c r="I33" t="n">
-        <v>34.63912713791596</v>
+        <v>35.32798776060327</v>
       </c>
       <c r="J33" t="n">
-        <v>95.05241244303791</v>
+        <v>96.94269864345925</v>
       </c>
       <c r="K33" t="n">
-        <v>162.4597125906563</v>
+        <v>165.6905127875326</v>
       </c>
       <c r="L33" t="n">
         <v>202.635780428066</v>
@@ -33515,22 +33517,22 @@
         <v>208.5470075</v>
       </c>
       <c r="P33" t="n">
-        <v>192.1169830994376</v>
+        <v>195.937570843458</v>
       </c>
       <c r="Q33" t="n">
-        <v>128.425115442281</v>
+        <v>130.9790771700124</v>
       </c>
       <c r="R33" t="n">
-        <v>62.46515716743164</v>
+        <v>63.70738786485351</v>
       </c>
       <c r="S33" t="n">
-        <v>18.68747814383108</v>
+        <v>19.05911186829997</v>
       </c>
       <c r="T33" t="n">
-        <v>4.055204820349649</v>
+        <v>4.135849777324126</v>
       </c>
       <c r="U33" t="n">
-        <v>0.06618941491321523</v>
+        <v>0.06750570909669418</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8434629266536492</v>
+        <v>0.8602366864125176</v>
       </c>
       <c r="H34" t="n">
-        <v>7.499152202429723</v>
+        <v>7.648286175558571</v>
       </c>
       <c r="I34" t="n">
-        <v>25.36523055791157</v>
+        <v>25.86966326047827</v>
       </c>
       <c r="J34" t="n">
-        <v>59.632828914413</v>
+        <v>60.81873372936499</v>
       </c>
       <c r="K34" t="n">
-        <v>97.9950563875785</v>
+        <v>99.94386229410884</v>
       </c>
       <c r="L34" t="n">
-        <v>125.3999336590344</v>
+        <v>127.8937342690029</v>
       </c>
       <c r="M34" t="n">
-        <v>132.2166476753534</v>
+        <v>134.8460107619185</v>
       </c>
       <c r="N34" t="n">
-        <v>129.0728313123717</v>
+        <v>131.6396740216538</v>
       </c>
       <c r="O34" t="n">
-        <v>119.2196507600995</v>
+        <v>121.590545457653</v>
       </c>
       <c r="P34" t="n">
-        <v>102.013007056365</v>
+        <v>104.0417170548375</v>
       </c>
       <c r="Q34" t="n">
-        <v>70.62851834006149</v>
+        <v>72.0330919867791</v>
       </c>
       <c r="R34" t="n">
-        <v>37.92516032026317</v>
+        <v>38.67936955451192</v>
       </c>
       <c r="S34" t="n">
-        <v>14.69925845813677</v>
+        <v>14.99157934411632</v>
       </c>
       <c r="T34" t="n">
-        <v>3.60388705024741</v>
+        <v>3.675556751035302</v>
       </c>
       <c r="U34" t="n">
-        <v>0.04600706872656274</v>
+        <v>0.04692200107704647</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.88035590775231</v>
+        <v>1.91775012777208</v>
       </c>
       <c r="H35" t="n">
-        <v>19.25719494026835</v>
+        <v>19.64015849604582</v>
       </c>
       <c r="I35" t="n">
-        <v>72.49242113362098</v>
+        <v>73.93406180093319</v>
       </c>
       <c r="J35" t="n">
-        <v>159.5928572255927</v>
+        <v>162.7666449069957</v>
       </c>
       <c r="K35" t="n">
-        <v>239.188322800748</v>
+        <v>243.9450078155879</v>
       </c>
       <c r="L35" t="n">
-        <v>296.7342649126228</v>
+        <v>302.6353532883928</v>
       </c>
       <c r="M35" t="n">
-        <v>330.174044287113</v>
+        <v>336.7401421231595</v>
       </c>
       <c r="N35" t="n">
         <v>335.5166055100142</v>
       </c>
       <c r="O35" t="n">
-        <v>316.8188164523022</v>
+        <v>323.1193218406583</v>
       </c>
       <c r="P35" t="n">
-        <v>270.397529979667</v>
+        <v>275.774865561285</v>
       </c>
       <c r="Q35" t="n">
-        <v>203.0572840332874</v>
+        <v>207.0954391104474</v>
       </c>
       <c r="R35" t="n">
-        <v>118.1169067903461</v>
+        <v>120.465871463663</v>
       </c>
       <c r="S35" t="n">
-        <v>42.8486102479058</v>
+        <v>43.70073103660632</v>
       </c>
       <c r="T35" t="n">
-        <v>8.231257986185739</v>
+        <v>8.394951184322284</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1504284726201847</v>
+        <v>0.1534200102217664</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,19 +33727,19 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.006079106680871</v>
+        <v>1.026086778269751</v>
       </c>
       <c r="H36" t="n">
-        <v>9.716606109259992</v>
+        <v>9.909838095394703</v>
       </c>
       <c r="I36" t="n">
-        <v>34.63912713791596</v>
+        <v>35.32798776060327</v>
       </c>
       <c r="J36" t="n">
-        <v>95.05241244303791</v>
+        <v>96.94269864345925</v>
       </c>
       <c r="K36" t="n">
-        <v>162.4597125906563</v>
+        <v>165.6905127875326</v>
       </c>
       <c r="L36" t="n">
         <v>202.635780428066</v>
@@ -33752,22 +33754,22 @@
         <v>208.5470075</v>
       </c>
       <c r="P36" t="n">
-        <v>192.1169830994376</v>
+        <v>195.937570843458</v>
       </c>
       <c r="Q36" t="n">
-        <v>128.425115442281</v>
+        <v>130.9790771700124</v>
       </c>
       <c r="R36" t="n">
-        <v>62.46515716743164</v>
+        <v>63.70738786485351</v>
       </c>
       <c r="S36" t="n">
-        <v>18.68747814383108</v>
+        <v>19.05911186829997</v>
       </c>
       <c r="T36" t="n">
-        <v>4.055204820349649</v>
+        <v>4.135849777324126</v>
       </c>
       <c r="U36" t="n">
-        <v>0.06618941491321523</v>
+        <v>0.06750570909669418</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8434629266536492</v>
+        <v>0.8602366864125176</v>
       </c>
       <c r="H37" t="n">
-        <v>7.499152202429723</v>
+        <v>7.648286175558571</v>
       </c>
       <c r="I37" t="n">
-        <v>25.36523055791157</v>
+        <v>25.86966326047827</v>
       </c>
       <c r="J37" t="n">
-        <v>59.632828914413</v>
+        <v>60.81873372936499</v>
       </c>
       <c r="K37" t="n">
-        <v>97.9950563875785</v>
+        <v>99.94386229410884</v>
       </c>
       <c r="L37" t="n">
-        <v>125.3999336590344</v>
+        <v>127.8937342690029</v>
       </c>
       <c r="M37" t="n">
-        <v>132.2166476753534</v>
+        <v>134.8460107619185</v>
       </c>
       <c r="N37" t="n">
-        <v>129.0728313123717</v>
+        <v>131.6396740216538</v>
       </c>
       <c r="O37" t="n">
-        <v>119.2196507600995</v>
+        <v>121.590545457653</v>
       </c>
       <c r="P37" t="n">
-        <v>102.013007056365</v>
+        <v>104.0417170548375</v>
       </c>
       <c r="Q37" t="n">
-        <v>70.62851834006149</v>
+        <v>72.0330919867791</v>
       </c>
       <c r="R37" t="n">
-        <v>37.92516032026317</v>
+        <v>38.67936955451192</v>
       </c>
       <c r="S37" t="n">
-        <v>14.69925845813677</v>
+        <v>14.99157934411632</v>
       </c>
       <c r="T37" t="n">
-        <v>3.60388705024741</v>
+        <v>3.675556751035302</v>
       </c>
       <c r="U37" t="n">
-        <v>0.04600706872656274</v>
+        <v>0.04692200107704647</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.88035590775231</v>
+        <v>1.91775012777208</v>
       </c>
       <c r="H38" t="n">
-        <v>19.25719494026835</v>
+        <v>19.64015849604582</v>
       </c>
       <c r="I38" t="n">
-        <v>72.49242113362098</v>
+        <v>73.93406180093319</v>
       </c>
       <c r="J38" t="n">
-        <v>159.5928572255927</v>
+        <v>162.7666449069957</v>
       </c>
       <c r="K38" t="n">
-        <v>239.188322800748</v>
+        <v>243.9450078155879</v>
       </c>
       <c r="L38" t="n">
-        <v>296.7342649126228</v>
+        <v>302.6353532883928</v>
       </c>
       <c r="M38" t="n">
-        <v>330.174044287113</v>
+        <v>336.7401421231595</v>
       </c>
       <c r="N38" t="n">
         <v>335.5166055100142</v>
       </c>
       <c r="O38" t="n">
-        <v>316.8188164523022</v>
+        <v>323.1193218406583</v>
       </c>
       <c r="P38" t="n">
-        <v>270.397529979667</v>
+        <v>275.774865561285</v>
       </c>
       <c r="Q38" t="n">
-        <v>203.0572840332874</v>
+        <v>207.0954391104474</v>
       </c>
       <c r="R38" t="n">
-        <v>118.1169067903461</v>
+        <v>120.465871463663</v>
       </c>
       <c r="S38" t="n">
-        <v>42.8486102479058</v>
+        <v>43.70073103660632</v>
       </c>
       <c r="T38" t="n">
-        <v>8.231257986185739</v>
+        <v>8.394951184322284</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1504284726201847</v>
+        <v>0.1534200102217664</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,19 +33964,19 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.006079106680871</v>
+        <v>1.026086778269751</v>
       </c>
       <c r="H39" t="n">
-        <v>9.716606109259992</v>
+        <v>9.909838095394703</v>
       </c>
       <c r="I39" t="n">
-        <v>34.63912713791596</v>
+        <v>35.32798776060327</v>
       </c>
       <c r="J39" t="n">
-        <v>95.05241244303791</v>
+        <v>96.94269864345925</v>
       </c>
       <c r="K39" t="n">
-        <v>162.4597125906563</v>
+        <v>165.6905127875326</v>
       </c>
       <c r="L39" t="n">
         <v>202.635780428066</v>
@@ -33989,22 +33991,22 @@
         <v>208.5470075</v>
       </c>
       <c r="P39" t="n">
-        <v>192.1169830994376</v>
+        <v>195.937570843458</v>
       </c>
       <c r="Q39" t="n">
-        <v>128.425115442281</v>
+        <v>130.9790771700124</v>
       </c>
       <c r="R39" t="n">
-        <v>62.46515716743164</v>
+        <v>63.70738786485351</v>
       </c>
       <c r="S39" t="n">
-        <v>18.68747814383108</v>
+        <v>19.05911186829997</v>
       </c>
       <c r="T39" t="n">
-        <v>4.055204820349649</v>
+        <v>4.135849777324126</v>
       </c>
       <c r="U39" t="n">
-        <v>0.06618941491321523</v>
+        <v>0.06750570909669418</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8434629266536492</v>
+        <v>0.8602366864125176</v>
       </c>
       <c r="H40" t="n">
-        <v>7.499152202429723</v>
+        <v>7.648286175558571</v>
       </c>
       <c r="I40" t="n">
-        <v>25.36523055791157</v>
+        <v>25.86966326047827</v>
       </c>
       <c r="J40" t="n">
-        <v>59.632828914413</v>
+        <v>60.81873372936499</v>
       </c>
       <c r="K40" t="n">
-        <v>97.9950563875785</v>
+        <v>99.94386229410884</v>
       </c>
       <c r="L40" t="n">
-        <v>125.3999336590344</v>
+        <v>127.8937342690029</v>
       </c>
       <c r="M40" t="n">
-        <v>132.2166476753534</v>
+        <v>134.8460107619185</v>
       </c>
       <c r="N40" t="n">
-        <v>129.0728313123717</v>
+        <v>131.6396740216538</v>
       </c>
       <c r="O40" t="n">
-        <v>119.2196507600995</v>
+        <v>121.590545457653</v>
       </c>
       <c r="P40" t="n">
-        <v>102.013007056365</v>
+        <v>104.0417170548375</v>
       </c>
       <c r="Q40" t="n">
-        <v>70.62851834006149</v>
+        <v>72.0330919867791</v>
       </c>
       <c r="R40" t="n">
-        <v>37.92516032026317</v>
+        <v>38.67936955451192</v>
       </c>
       <c r="S40" t="n">
-        <v>14.69925845813677</v>
+        <v>14.99157934411632</v>
       </c>
       <c r="T40" t="n">
-        <v>3.60388705024741</v>
+        <v>3.675556751035302</v>
       </c>
       <c r="U40" t="n">
-        <v>0.04600706872656274</v>
+        <v>0.04692200107704647</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.88035590775231</v>
+        <v>1.91775012777208</v>
       </c>
       <c r="H41" t="n">
-        <v>19.25719494026835</v>
+        <v>19.64015849604582</v>
       </c>
       <c r="I41" t="n">
-        <v>72.49242113362098</v>
+        <v>73.93406180093319</v>
       </c>
       <c r="J41" t="n">
-        <v>159.5928572255927</v>
+        <v>162.7666449069957</v>
       </c>
       <c r="K41" t="n">
-        <v>239.188322800748</v>
+        <v>243.9450078155879</v>
       </c>
       <c r="L41" t="n">
-        <v>296.7342649126228</v>
+        <v>302.6353532883928</v>
       </c>
       <c r="M41" t="n">
-        <v>330.174044287113</v>
+        <v>336.7401421231595</v>
       </c>
       <c r="N41" t="n">
         <v>335.5166055100142</v>
       </c>
       <c r="O41" t="n">
-        <v>316.8188164523022</v>
+        <v>323.1193218406583</v>
       </c>
       <c r="P41" t="n">
-        <v>270.397529979667</v>
+        <v>275.774865561285</v>
       </c>
       <c r="Q41" t="n">
-        <v>203.0572840332874</v>
+        <v>207.0954391104474</v>
       </c>
       <c r="R41" t="n">
-        <v>118.1169067903461</v>
+        <v>120.465871463663</v>
       </c>
       <c r="S41" t="n">
-        <v>42.8486102479058</v>
+        <v>43.70073103660632</v>
       </c>
       <c r="T41" t="n">
-        <v>8.231257986185739</v>
+        <v>8.394951184322284</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1504284726201847</v>
+        <v>0.1534200102217664</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,19 +34201,19 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.006079106680871</v>
+        <v>1.026086778269751</v>
       </c>
       <c r="H42" t="n">
-        <v>9.716606109259992</v>
+        <v>9.909838095394703</v>
       </c>
       <c r="I42" t="n">
-        <v>34.63912713791596</v>
+        <v>35.32798776060327</v>
       </c>
       <c r="J42" t="n">
-        <v>95.05241244303791</v>
+        <v>96.94269864345925</v>
       </c>
       <c r="K42" t="n">
-        <v>162.4597125906563</v>
+        <v>165.6905127875326</v>
       </c>
       <c r="L42" t="n">
         <v>202.635780428066</v>
@@ -34226,22 +34228,22 @@
         <v>208.5470075</v>
       </c>
       <c r="P42" t="n">
-        <v>192.1169830994376</v>
+        <v>195.937570843458</v>
       </c>
       <c r="Q42" t="n">
-        <v>128.425115442281</v>
+        <v>130.9790771700124</v>
       </c>
       <c r="R42" t="n">
-        <v>62.46515716743164</v>
+        <v>63.70738786485351</v>
       </c>
       <c r="S42" t="n">
-        <v>18.68747814383108</v>
+        <v>19.05911186829997</v>
       </c>
       <c r="T42" t="n">
-        <v>4.055204820349649</v>
+        <v>4.135849777324126</v>
       </c>
       <c r="U42" t="n">
-        <v>0.06618941491321523</v>
+        <v>0.06750570909669418</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8434629266536492</v>
+        <v>0.8602366864125176</v>
       </c>
       <c r="H43" t="n">
-        <v>7.499152202429723</v>
+        <v>7.648286175558571</v>
       </c>
       <c r="I43" t="n">
-        <v>25.36523055791157</v>
+        <v>25.86966326047827</v>
       </c>
       <c r="J43" t="n">
-        <v>59.632828914413</v>
+        <v>60.81873372936499</v>
       </c>
       <c r="K43" t="n">
-        <v>97.9950563875785</v>
+        <v>99.94386229410884</v>
       </c>
       <c r="L43" t="n">
-        <v>125.3999336590344</v>
+        <v>127.8937342690029</v>
       </c>
       <c r="M43" t="n">
-        <v>132.2166476753534</v>
+        <v>134.8460107619185</v>
       </c>
       <c r="N43" t="n">
-        <v>129.0728313123717</v>
+        <v>131.6396740216538</v>
       </c>
       <c r="O43" t="n">
-        <v>119.2196507600995</v>
+        <v>121.590545457653</v>
       </c>
       <c r="P43" t="n">
-        <v>102.013007056365</v>
+        <v>104.0417170548375</v>
       </c>
       <c r="Q43" t="n">
-        <v>70.62851834006149</v>
+        <v>72.0330919867791</v>
       </c>
       <c r="R43" t="n">
-        <v>37.92516032026317</v>
+        <v>38.67936955451192</v>
       </c>
       <c r="S43" t="n">
-        <v>14.69925845813677</v>
+        <v>14.99157934411632</v>
       </c>
       <c r="T43" t="n">
-        <v>3.60388705024741</v>
+        <v>3.675556751035302</v>
       </c>
       <c r="U43" t="n">
-        <v>0.04600706872656274</v>
+        <v>0.04692200107704647</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.88035590775231</v>
+        <v>1.91775012777208</v>
       </c>
       <c r="H44" t="n">
-        <v>19.25719494026835</v>
+        <v>19.64015849604582</v>
       </c>
       <c r="I44" t="n">
-        <v>72.49242113362098</v>
+        <v>73.93406180093319</v>
       </c>
       <c r="J44" t="n">
-        <v>159.5928572255927</v>
+        <v>162.7666449069957</v>
       </c>
       <c r="K44" t="n">
-        <v>239.188322800748</v>
+        <v>243.9450078155879</v>
       </c>
       <c r="L44" t="n">
-        <v>296.7342649126228</v>
+        <v>302.6353532883928</v>
       </c>
       <c r="M44" t="n">
-        <v>330.174044287113</v>
+        <v>336.7401421231595</v>
       </c>
       <c r="N44" t="n">
         <v>335.5166055100142</v>
       </c>
       <c r="O44" t="n">
-        <v>316.8188164523022</v>
+        <v>323.1193218406583</v>
       </c>
       <c r="P44" t="n">
-        <v>270.397529979667</v>
+        <v>275.774865561285</v>
       </c>
       <c r="Q44" t="n">
-        <v>203.0572840332874</v>
+        <v>207.0954391104474</v>
       </c>
       <c r="R44" t="n">
-        <v>118.1169067903461</v>
+        <v>120.465871463663</v>
       </c>
       <c r="S44" t="n">
-        <v>42.8486102479058</v>
+        <v>43.70073103660632</v>
       </c>
       <c r="T44" t="n">
-        <v>8.231257986185739</v>
+        <v>8.394951184322284</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1504284726201847</v>
+        <v>0.1534200102217664</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,19 +34438,19 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.006079106680871</v>
+        <v>1.026086778269751</v>
       </c>
       <c r="H45" t="n">
-        <v>9.716606109259992</v>
+        <v>9.909838095394703</v>
       </c>
       <c r="I45" t="n">
-        <v>34.63912713791596</v>
+        <v>35.32798776060327</v>
       </c>
       <c r="J45" t="n">
-        <v>95.05241244303791</v>
+        <v>96.94269864345925</v>
       </c>
       <c r="K45" t="n">
-        <v>162.4597125906563</v>
+        <v>165.6905127875326</v>
       </c>
       <c r="L45" t="n">
         <v>202.635780428066</v>
@@ -34463,22 +34465,22 @@
         <v>208.5470075</v>
       </c>
       <c r="P45" t="n">
-        <v>192.1169830994376</v>
+        <v>195.937570843458</v>
       </c>
       <c r="Q45" t="n">
-        <v>128.425115442281</v>
+        <v>130.9790771700124</v>
       </c>
       <c r="R45" t="n">
-        <v>62.46515716743164</v>
+        <v>63.70738786485351</v>
       </c>
       <c r="S45" t="n">
-        <v>18.68747814383108</v>
+        <v>19.05911186829997</v>
       </c>
       <c r="T45" t="n">
-        <v>4.055204820349649</v>
+        <v>4.135849777324126</v>
       </c>
       <c r="U45" t="n">
-        <v>0.06618941491321523</v>
+        <v>0.06750570909669418</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8434629266536492</v>
+        <v>0.8602366864125176</v>
       </c>
       <c r="H46" t="n">
-        <v>7.499152202429723</v>
+        <v>7.648286175558571</v>
       </c>
       <c r="I46" t="n">
-        <v>25.36523055791157</v>
+        <v>25.86966326047827</v>
       </c>
       <c r="J46" t="n">
-        <v>59.632828914413</v>
+        <v>60.81873372936499</v>
       </c>
       <c r="K46" t="n">
-        <v>97.9950563875785</v>
+        <v>99.94386229410884</v>
       </c>
       <c r="L46" t="n">
-        <v>125.3999336590344</v>
+        <v>127.8937342690029</v>
       </c>
       <c r="M46" t="n">
-        <v>132.2166476753534</v>
+        <v>134.8460107619185</v>
       </c>
       <c r="N46" t="n">
-        <v>129.0728313123717</v>
+        <v>131.6396740216538</v>
       </c>
       <c r="O46" t="n">
-        <v>119.2196507600995</v>
+        <v>121.590545457653</v>
       </c>
       <c r="P46" t="n">
-        <v>102.013007056365</v>
+        <v>104.0417170548375</v>
       </c>
       <c r="Q46" t="n">
-        <v>70.62851834006149</v>
+        <v>72.0330919867791</v>
       </c>
       <c r="R46" t="n">
-        <v>37.92516032026317</v>
+        <v>38.67936955451192</v>
       </c>
       <c r="S46" t="n">
-        <v>14.69925845813677</v>
+        <v>14.99157934411632</v>
       </c>
       <c r="T46" t="n">
-        <v>3.60388705024741</v>
+        <v>3.675556751035302</v>
       </c>
       <c r="U46" t="n">
-        <v>0.04600706872656274</v>
+        <v>0.04692200107704647</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/10/Output_13_15.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/10/Output_13_15.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>283407.2820998324</v>
+        <v>147806.952935642</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1835704.663838078</v>
+        <v>1830971.66262432</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>24007110.38884276</v>
+        <v>24007790.48668386</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5113528.31147079</v>
+        <v>5114146.973408032</v>
       </c>
     </row>
     <row r="11">
@@ -8066,13 +8066,13 @@
         <v>57.07593346819698</v>
       </c>
       <c r="M3" t="n">
-        <v>38.00954882322068</v>
+        <v>38.00954882322065</v>
       </c>
       <c r="N3" t="n">
-        <v>17.73005030863851</v>
+        <v>17.73005030863848</v>
       </c>
       <c r="O3" t="n">
-        <v>49.04422963853119</v>
+        <v>49.04422963853116</v>
       </c>
       <c r="P3" t="n">
         <v>67.92252959633595</v>
@@ -8227,7 +8227,7 @@
         <v>94.50134181136147</v>
       </c>
       <c r="N5" t="n">
-        <v>89.2146190330682</v>
+        <v>89.21461903306817</v>
       </c>
       <c r="O5" t="n">
         <v>99.00804712831379</v>
@@ -8461,13 +8461,13 @@
         <v>108.5919157831171</v>
       </c>
       <c r="M8" t="n">
-        <v>78.10034751467731</v>
+        <v>74.04503350661616</v>
       </c>
       <c r="N8" t="n">
-        <v>72.54823950195203</v>
+        <v>68.42730627354024</v>
       </c>
       <c r="O8" t="n">
-        <v>88.20506308773926</v>
+        <v>84.31378269605855</v>
       </c>
       <c r="P8" t="n">
         <v>83.66766412458549</v>
@@ -8537,19 +8537,19 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L9" t="n">
-        <v>31.42313547891663</v>
+        <v>28.74009079028824</v>
       </c>
       <c r="M9" t="n">
-        <v>8.073943534043309</v>
+        <v>4.94295693345623</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>20.93419363157247</v>
+        <v>17.99414464209616</v>
       </c>
       <c r="P9" t="n">
-        <v>45.36174747620086</v>
+        <v>43.00209896284861</v>
       </c>
       <c r="Q9" t="n">
         <v>54.62009481132077</v>
@@ -8692,22 +8692,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>77.93639933769612</v>
+        <v>78.44340811072308</v>
       </c>
       <c r="L11" t="n">
-        <v>42.17302860521357</v>
+        <v>42.80201782093599</v>
       </c>
       <c r="M11" t="n">
-        <v>0.1412239717268449</v>
+        <v>0.8410956674651402</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>13.39931236355858</v>
+        <v>14.07087491109627</v>
       </c>
       <c r="P11" t="n">
-        <v>62.40339073079667</v>
+        <v>62.97655382797143</v>
       </c>
       <c r="Q11" t="n">
         <v>55.20189757157522</v>
@@ -8771,7 +8771,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K12" t="n">
-        <v>35.90259171246745</v>
+        <v>36.24695843816048</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8786,7 +8786,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>0.4072314013424148</v>
       </c>
       <c r="Q12" t="n">
         <v>54.62009481132077</v>
@@ -8929,22 +8929,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>77.93639933769612</v>
+        <v>78.44340811072308</v>
       </c>
       <c r="L14" t="n">
-        <v>42.17302860521357</v>
+        <v>42.80201782093599</v>
       </c>
       <c r="M14" t="n">
-        <v>0.1412239717268449</v>
+        <v>0.8410956674651402</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>13.39931236355858</v>
+        <v>14.07087491109627</v>
       </c>
       <c r="P14" t="n">
-        <v>62.40339073079667</v>
+        <v>62.97655382797143</v>
       </c>
       <c r="Q14" t="n">
         <v>55.20189757157522</v>
@@ -9008,7 +9008,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K15" t="n">
-        <v>35.90259171246745</v>
+        <v>36.24695843816048</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9023,7 +9023,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>0.4072314013424148</v>
       </c>
       <c r="Q15" t="n">
         <v>54.62009481132077</v>
@@ -9166,22 +9166,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>77.93639933769612</v>
+        <v>78.44340811072308</v>
       </c>
       <c r="L17" t="n">
-        <v>42.17302860521357</v>
+        <v>42.80201782093599</v>
       </c>
       <c r="M17" t="n">
-        <v>0.1412239717268449</v>
+        <v>0.8410956674651402</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>13.39931236355858</v>
+        <v>14.07087491109627</v>
       </c>
       <c r="P17" t="n">
-        <v>62.40339073079667</v>
+        <v>62.97655382797143</v>
       </c>
       <c r="Q17" t="n">
         <v>55.20189757157522</v>
@@ -9245,7 +9245,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K18" t="n">
-        <v>35.90259171246745</v>
+        <v>36.24695843816048</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9260,7 +9260,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>0.4072314013424148</v>
       </c>
       <c r="Q18" t="n">
         <v>54.62009481132077</v>
@@ -9403,22 +9403,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>77.93639933769612</v>
+        <v>78.44340811072308</v>
       </c>
       <c r="L20" t="n">
-        <v>42.17302860521357</v>
+        <v>42.80201782093599</v>
       </c>
       <c r="M20" t="n">
-        <v>0.1412239717268449</v>
+        <v>0.8410956674651402</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>13.39931236355858</v>
+        <v>14.07087491109627</v>
       </c>
       <c r="P20" t="n">
-        <v>62.40339073079667</v>
+        <v>62.97655382797143</v>
       </c>
       <c r="Q20" t="n">
         <v>55.20189757157522</v>
@@ -9482,7 +9482,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K21" t="n">
-        <v>35.90259171246745</v>
+        <v>36.24695843816048</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9497,7 +9497,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>0.4072314013424148</v>
       </c>
       <c r="Q21" t="n">
         <v>54.62009481132077</v>
@@ -9640,22 +9640,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>77.93639933769612</v>
+        <v>78.44340811072308</v>
       </c>
       <c r="L23" t="n">
-        <v>42.17302860521357</v>
+        <v>42.80201782093599</v>
       </c>
       <c r="M23" t="n">
-        <v>0.1412239717268449</v>
+        <v>0.8410956674651402</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>13.39931236355858</v>
+        <v>14.07087491109627</v>
       </c>
       <c r="P23" t="n">
-        <v>62.40339073079667</v>
+        <v>62.97655382797143</v>
       </c>
       <c r="Q23" t="n">
         <v>55.20189757157522</v>
@@ -9719,7 +9719,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K24" t="n">
-        <v>35.90259171246745</v>
+        <v>36.24695843816048</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9734,7 +9734,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>0.4072314013424148</v>
       </c>
       <c r="Q24" t="n">
         <v>54.62009481132077</v>
@@ -9877,22 +9877,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>77.93639933769612</v>
+        <v>78.44340811072308</v>
       </c>
       <c r="L26" t="n">
-        <v>42.17302860521357</v>
+        <v>42.80201782093599</v>
       </c>
       <c r="M26" t="n">
-        <v>0.1412239717268449</v>
+        <v>0.8410956674651402</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>13.39931236355858</v>
+        <v>14.07087491109627</v>
       </c>
       <c r="P26" t="n">
-        <v>62.40339073079667</v>
+        <v>62.97655382797143</v>
       </c>
       <c r="Q26" t="n">
         <v>55.20189757157522</v>
@@ -9956,7 +9956,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K27" t="n">
-        <v>35.90259171246745</v>
+        <v>36.24695843816048</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9971,7 +9971,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>0.4072314013424148</v>
       </c>
       <c r="Q27" t="n">
         <v>54.62009481132077</v>
@@ -10114,22 +10114,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>77.93639933769612</v>
+        <v>78.44340811072308</v>
       </c>
       <c r="L29" t="n">
-        <v>42.17302860521357</v>
+        <v>42.80201782093599</v>
       </c>
       <c r="M29" t="n">
-        <v>0.1412239717268449</v>
+        <v>0.8410956674651402</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>13.39931236355858</v>
+        <v>14.07087491109627</v>
       </c>
       <c r="P29" t="n">
-        <v>62.40339073079667</v>
+        <v>62.97655382797143</v>
       </c>
       <c r="Q29" t="n">
         <v>55.20189757157522</v>
@@ -10193,7 +10193,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K30" t="n">
-        <v>35.90259171246745</v>
+        <v>36.24695843816048</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10208,7 +10208,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>0.4072314013424148</v>
       </c>
       <c r="Q30" t="n">
         <v>54.62009481132077</v>
@@ -10351,22 +10351,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>77.93639933769612</v>
+        <v>78.44340811072308</v>
       </c>
       <c r="L32" t="n">
-        <v>42.17302860521357</v>
+        <v>42.80201782093599</v>
       </c>
       <c r="M32" t="n">
-        <v>0.1412239717268449</v>
+        <v>0.8410956674651402</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>13.39931236355858</v>
+        <v>14.07087491109627</v>
       </c>
       <c r="P32" t="n">
-        <v>62.40339073079667</v>
+        <v>62.97655382797143</v>
       </c>
       <c r="Q32" t="n">
         <v>55.20189757157522</v>
@@ -10430,7 +10430,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K33" t="n">
-        <v>35.90259171246745</v>
+        <v>36.24695843816048</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10445,7 +10445,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>0.4072314013424148</v>
       </c>
       <c r="Q33" t="n">
         <v>54.62009481132077</v>
@@ -10588,22 +10588,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>77.93639933769612</v>
+        <v>78.44340811072308</v>
       </c>
       <c r="L35" t="n">
-        <v>42.17302860521357</v>
+        <v>42.80201782093599</v>
       </c>
       <c r="M35" t="n">
-        <v>0.1412239717268449</v>
+        <v>0.8410956674651402</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>13.39931236355858</v>
+        <v>14.07087491109627</v>
       </c>
       <c r="P35" t="n">
-        <v>62.40339073079667</v>
+        <v>62.97655382797143</v>
       </c>
       <c r="Q35" t="n">
         <v>55.20189757157522</v>
@@ -10667,7 +10667,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K36" t="n">
-        <v>35.90259171246745</v>
+        <v>36.24695843816048</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10682,7 +10682,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>0.4072314013424148</v>
       </c>
       <c r="Q36" t="n">
         <v>54.62009481132077</v>
@@ -10825,22 +10825,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>77.93639933769612</v>
+        <v>78.44340811072308</v>
       </c>
       <c r="L38" t="n">
-        <v>42.17302860521357</v>
+        <v>42.80201782093599</v>
       </c>
       <c r="M38" t="n">
-        <v>0.1412239717268449</v>
+        <v>0.8410956674651402</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>13.39931236355858</v>
+        <v>14.07087491109627</v>
       </c>
       <c r="P38" t="n">
-        <v>62.40339073079667</v>
+        <v>62.97655382797143</v>
       </c>
       <c r="Q38" t="n">
         <v>55.20189757157522</v>
@@ -10904,7 +10904,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K39" t="n">
-        <v>35.90259171246745</v>
+        <v>36.24695843816048</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10919,7 +10919,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>0.4072314013424148</v>
       </c>
       <c r="Q39" t="n">
         <v>54.62009481132077</v>
@@ -11062,22 +11062,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>77.93639933769612</v>
+        <v>78.44340811072308</v>
       </c>
       <c r="L41" t="n">
-        <v>42.17302860521357</v>
+        <v>42.80201782093599</v>
       </c>
       <c r="M41" t="n">
-        <v>0.1412239717268449</v>
+        <v>0.8410956674651402</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>13.39931236355858</v>
+        <v>14.07087491109627</v>
       </c>
       <c r="P41" t="n">
-        <v>62.40339073079667</v>
+        <v>62.97655382797143</v>
       </c>
       <c r="Q41" t="n">
         <v>55.20189757157522</v>
@@ -11141,7 +11141,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K42" t="n">
-        <v>35.90259171246745</v>
+        <v>36.24695843816048</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11156,7 +11156,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>0.4072314013424148</v>
       </c>
       <c r="Q42" t="n">
         <v>54.62009481132077</v>
@@ -11299,22 +11299,22 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>77.93639933769612</v>
+        <v>78.44340811072308</v>
       </c>
       <c r="L44" t="n">
-        <v>42.17302860521357</v>
+        <v>42.80201782093599</v>
       </c>
       <c r="M44" t="n">
-        <v>0.1412239717268449</v>
+        <v>0.8410956674651402</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>13.39931236355858</v>
+        <v>14.07087491109627</v>
       </c>
       <c r="P44" t="n">
-        <v>62.40339073079667</v>
+        <v>62.97655382797143</v>
       </c>
       <c r="Q44" t="n">
         <v>55.20189757157522</v>
@@ -11378,7 +11378,7 @@
         <v>32.78366918850629</v>
       </c>
       <c r="K45" t="n">
-        <v>35.90259171246745</v>
+        <v>36.24695843816048</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11393,7 +11393,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>0.4072314013424148</v>
       </c>
       <c r="Q45" t="n">
         <v>54.62009481132077</v>
@@ -22576,7 +22576,7 @@
         <v>78.22308851520961</v>
       </c>
       <c r="L2" t="n">
-        <v>38.49084836766588</v>
+        <v>38.49084836766585</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -22731,7 +22731,7 @@
         <v>137.2497006419296</v>
       </c>
       <c r="K4" t="n">
-        <v>95.63058149505842</v>
+        <v>95.63058149505841</v>
       </c>
       <c r="L4" t="n">
         <v>71.46654840866277</v>
@@ -22740,13 +22740,13 @@
         <v>68.66533643318368</v>
       </c>
       <c r="N4" t="n">
-        <v>56.06123914516952</v>
+        <v>56.06123914516951</v>
       </c>
       <c r="O4" t="n">
         <v>80.66114959698193</v>
       </c>
       <c r="P4" t="n">
-        <v>98.35025284028562</v>
+        <v>98.35025284028561</v>
       </c>
       <c r="Q4" t="n">
         <v>157.5243583765053</v>
@@ -22813,7 +22813,7 @@
         <v>62.01598937483024</v>
       </c>
       <c r="L5" t="n">
-        <v>18.38450875428637</v>
+        <v>18.3845087542864</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -22825,7 +22825,7 @@
         <v>4.934605547775959</v>
       </c>
       <c r="P5" t="n">
-        <v>56.01237276874352</v>
+        <v>56.01237276874355</v>
       </c>
       <c r="Q5" t="n">
         <v>120.8562777625268</v>
@@ -22889,7 +22889,7 @@
         <v>82.93859734111298</v>
       </c>
       <c r="K6" t="n">
-        <v>13.57083277636241</v>
+        <v>13.57083277636242</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -22907,7 +22907,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>55.82666100818672</v>
+        <v>55.8266610081867</v>
       </c>
       <c r="R6" t="n">
         <v>155.3651088272201</v>
@@ -22974,7 +22974,7 @@
         <v>62.96960703121101</v>
       </c>
       <c r="M7" t="n">
-        <v>59.70650310975206</v>
+        <v>59.70650310975205</v>
       </c>
       <c r="N7" t="n">
         <v>47.31542685419204</v>
@@ -23035,22 +23035,22 @@
         <v>399.146417573369</v>
       </c>
       <c r="G8" t="n">
-        <v>422.1164521319908</v>
+        <v>422.0933569378507</v>
       </c>
       <c r="H8" t="n">
-        <v>349.0031872759618</v>
+        <v>348.766663618974</v>
       </c>
       <c r="I8" t="n">
-        <v>250.8126546394585</v>
+        <v>249.9222771673705</v>
       </c>
       <c r="J8" t="n">
-        <v>95.73017622457125</v>
+        <v>93.77000049091893</v>
       </c>
       <c r="K8" t="n">
-        <v>50.13460019247154</v>
+        <v>47.19680489086682</v>
       </c>
       <c r="L8" t="n">
-        <v>3.644594849271272</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -23062,22 +23062,22 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>42.58070415708974</v>
+        <v>39.2595863707439</v>
       </c>
       <c r="Q8" t="n">
-        <v>110.7696540107393</v>
+        <v>108.2756328645375</v>
       </c>
       <c r="R8" t="n">
-        <v>205.6309101581223</v>
+        <v>204.1801566692163</v>
       </c>
       <c r="S8" t="n">
-        <v>233.8062288805524</v>
+        <v>233.2799471440838</v>
       </c>
       <c r="T8" t="n">
-        <v>219.0629726332423</v>
+        <v>218.9618734208938</v>
       </c>
       <c r="U8" t="n">
-        <v>248.7837039813583</v>
+        <v>248.7818563658271</v>
       </c>
       <c r="V8" t="n">
         <v>313.3044420010231</v>
@@ -23114,19 +23114,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G9" t="n">
-        <v>160.9806597202829</v>
+        <v>160.968302702022</v>
       </c>
       <c r="H9" t="n">
-        <v>137.4190261354275</v>
+        <v>137.2996833538022</v>
       </c>
       <c r="I9" t="n">
-        <v>115.7696245309433</v>
+        <v>115.3441745601174</v>
       </c>
       <c r="J9" t="n">
-        <v>78.21698429690682</v>
+        <v>77.04951705849162</v>
       </c>
       <c r="K9" t="n">
-        <v>5.5008440363532</v>
+        <v>3.505456574455792</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -23144,19 +23144,19 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>49.44729950971514</v>
+        <v>47.86993696819728</v>
       </c>
       <c r="R9" t="n">
-        <v>152.262228076383</v>
+        <v>151.4950089952352</v>
       </c>
       <c r="S9" t="n">
-        <v>207.3852657796648</v>
+        <v>207.155739585213</v>
       </c>
       <c r="T9" t="n">
-        <v>229.9570151260979</v>
+        <v>229.9072076709146</v>
       </c>
       <c r="U9" t="n">
-        <v>249.6472974562439</v>
+        <v>249.6464844945162</v>
       </c>
       <c r="V9" t="n">
         <v>249.2999251801724</v>
@@ -23193,49 +23193,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G10" t="n">
-        <v>169.205620047469</v>
+        <v>169.1952603384582</v>
       </c>
       <c r="H10" t="n">
-        <v>167.3219096728624</v>
+        <v>167.229802441839</v>
       </c>
       <c r="I10" t="n">
-        <v>166.8705995572006</v>
+        <v>166.5590548534935</v>
       </c>
       <c r="J10" t="n">
-        <v>130.2468670629273</v>
+        <v>129.5144356358626</v>
       </c>
       <c r="K10" t="n">
-        <v>84.12277473928502</v>
+        <v>82.91916491057385</v>
       </c>
       <c r="L10" t="n">
-        <v>56.74051776046886</v>
+        <v>55.200311568079</v>
       </c>
       <c r="M10" t="n">
-        <v>53.13880185651696</v>
+        <v>51.51487037948513</v>
       </c>
       <c r="N10" t="n">
-        <v>40.90389085722478</v>
+        <v>39.31857284105145</v>
       </c>
       <c r="O10" t="n">
-        <v>66.66088516515369</v>
+        <v>65.19658738606127</v>
       </c>
       <c r="P10" t="n">
-        <v>86.37060799843826</v>
+        <v>85.11764828316647</v>
       </c>
       <c r="Q10" t="n">
-        <v>149.2302732413388</v>
+        <v>148.3627888804421</v>
       </c>
       <c r="R10" t="n">
-        <v>219.7602387213483</v>
+        <v>219.2944285325528</v>
       </c>
       <c r="S10" t="n">
-        <v>243.1907725218151</v>
+        <v>243.0102310475085</v>
       </c>
       <c r="T10" t="n">
-        <v>217.9637489115553</v>
+        <v>217.9194847003273</v>
       </c>
       <c r="U10" t="n">
-        <v>291.2180111858574</v>
+        <v>291.2174461108205</v>
       </c>
       <c r="V10" t="n">
         <v>237.3615500762718</v>
@@ -23272,16 +23272,16 @@
         <v>399.146417573369</v>
       </c>
       <c r="G11" t="n">
-        <v>421.67247144649</v>
+        <v>421.676457247011</v>
       </c>
       <c r="H11" t="n">
-        <v>344.4562700805762</v>
+        <v>344.4970896601623</v>
       </c>
       <c r="I11" t="n">
-        <v>233.6960892616871</v>
+        <v>233.8497518362742</v>
       </c>
       <c r="J11" t="n">
-        <v>58.04787051854379</v>
+        <v>58.38616035551556</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23302,19 +23302,19 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>62.82473475935981</v>
+        <v>63.25515637537521</v>
       </c>
       <c r="R11" t="n">
-        <v>177.7417084225297</v>
+        <v>177.9920814645089</v>
       </c>
       <c r="S11" t="n">
-        <v>223.6890190097018</v>
+        <v>223.7798454390748</v>
       </c>
       <c r="T11" t="n">
-        <v>217.1194471824624</v>
+        <v>217.1368950242432</v>
       </c>
       <c r="U11" t="n">
-        <v>248.7481855265182</v>
+        <v>248.7485043905599</v>
       </c>
       <c r="V11" t="n">
         <v>313.3044420010231</v>
@@ -23351,16 +23351,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G12" t="n">
-        <v>160.7431091110548</v>
+        <v>160.745241702343</v>
       </c>
       <c r="H12" t="n">
-        <v>135.1247873568297</v>
+        <v>135.1453836990079</v>
       </c>
       <c r="I12" t="n">
-        <v>107.5907987307646</v>
+        <v>107.6642234746789</v>
       </c>
       <c r="J12" t="n">
-        <v>55.77366116803451</v>
+        <v>55.9751442774175</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23381,19 +23381,19 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>19.12417261947328</v>
+        <v>19.39639602671912</v>
       </c>
       <c r="R12" t="n">
-        <v>137.5132525315004</v>
+        <v>137.6456602607806</v>
       </c>
       <c r="S12" t="n">
-        <v>202.9728674021163</v>
+        <v>203.0124793499477</v>
       </c>
       <c r="T12" t="n">
-        <v>228.9995194687267</v>
+        <v>229.0081153081735</v>
       </c>
       <c r="U12" t="n">
-        <v>249.6316691266894</v>
+        <v>249.6318094287479</v>
       </c>
       <c r="V12" t="n">
         <v>249.2999251801724</v>
@@ -23430,49 +23430,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G13" t="n">
-        <v>169.0064655965343</v>
+        <v>169.0082534894319</v>
       </c>
       <c r="H13" t="n">
-        <v>165.5512455545521</v>
+        <v>165.5671415477694</v>
       </c>
       <c r="I13" t="n">
-        <v>160.8814820690915</v>
+        <v>160.9352488845954</v>
       </c>
       <c r="J13" t="n">
-        <v>116.1666473818438</v>
+        <v>116.2930514097077</v>
       </c>
       <c r="K13" t="n">
-        <v>60.9846485306895</v>
+        <v>61.19236917825289</v>
       </c>
       <c r="L13" t="n">
-        <v>27.13168239150397</v>
+        <v>27.39749330466921</v>
       </c>
       <c r="M13" t="n">
-        <v>21.92043642499797</v>
+        <v>22.20069676349058</v>
       </c>
       <c r="N13" t="n">
-        <v>10.42782837918966</v>
+        <v>10.70142475324559</v>
       </c>
       <c r="O13" t="n">
-        <v>38.51130877303761</v>
+        <v>38.76401930733462</v>
       </c>
       <c r="P13" t="n">
-        <v>62.28378240539014</v>
+        <v>62.50001992457508</v>
       </c>
       <c r="Q13" t="n">
-        <v>132.5538037180701</v>
+        <v>132.7035153678906</v>
       </c>
       <c r="R13" t="n">
-        <v>210.8055304093206</v>
+        <v>210.8859205754277</v>
       </c>
       <c r="S13" t="n">
-        <v>239.7200535905258</v>
+        <v>239.7512116876603</v>
       </c>
       <c r="T13" t="n">
-        <v>217.1128162575616</v>
+        <v>217.1204554363061</v>
       </c>
       <c r="U13" t="n">
-        <v>291.2071482158065</v>
+        <v>291.2072457372373</v>
       </c>
       <c r="V13" t="n">
         <v>237.3615500762718</v>
@@ -23509,16 +23509,16 @@
         <v>399.146417573369</v>
       </c>
       <c r="G14" t="n">
-        <v>421.67247144649</v>
+        <v>421.676457247011</v>
       </c>
       <c r="H14" t="n">
-        <v>344.4562700805762</v>
+        <v>344.4970896601623</v>
       </c>
       <c r="I14" t="n">
-        <v>233.6960892616871</v>
+        <v>233.8497518362742</v>
       </c>
       <c r="J14" t="n">
-        <v>58.04787051854379</v>
+        <v>58.38616035551556</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23539,19 +23539,19 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>62.82473475935981</v>
+        <v>63.25515637537521</v>
       </c>
       <c r="R14" t="n">
-        <v>177.7417084225297</v>
+        <v>177.9920814645089</v>
       </c>
       <c r="S14" t="n">
-        <v>223.6890190097018</v>
+        <v>223.7798454390748</v>
       </c>
       <c r="T14" t="n">
-        <v>217.1194471824624</v>
+        <v>217.1368950242432</v>
       </c>
       <c r="U14" t="n">
-        <v>248.7481855265182</v>
+        <v>248.7485043905599</v>
       </c>
       <c r="V14" t="n">
         <v>313.3044420010231</v>
@@ -23588,16 +23588,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G15" t="n">
-        <v>160.7431091110548</v>
+        <v>160.745241702343</v>
       </c>
       <c r="H15" t="n">
-        <v>135.1247873568297</v>
+        <v>135.1453836990079</v>
       </c>
       <c r="I15" t="n">
-        <v>107.5907987307646</v>
+        <v>107.6642234746789</v>
       </c>
       <c r="J15" t="n">
-        <v>55.77366116803451</v>
+        <v>55.9751442774175</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23618,19 +23618,19 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>19.12417261947328</v>
+        <v>19.39639602671912</v>
       </c>
       <c r="R15" t="n">
-        <v>137.5132525315004</v>
+        <v>137.6456602607806</v>
       </c>
       <c r="S15" t="n">
-        <v>202.9728674021163</v>
+        <v>203.0124793499477</v>
       </c>
       <c r="T15" t="n">
-        <v>228.9995194687267</v>
+        <v>229.0081153081735</v>
       </c>
       <c r="U15" t="n">
-        <v>249.6316691266894</v>
+        <v>249.6318094287479</v>
       </c>
       <c r="V15" t="n">
         <v>249.2999251801724</v>
@@ -23667,49 +23667,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G16" t="n">
-        <v>169.0064655965343</v>
+        <v>169.0082534894319</v>
       </c>
       <c r="H16" t="n">
-        <v>165.5512455545521</v>
+        <v>165.5671415477694</v>
       </c>
       <c r="I16" t="n">
-        <v>160.8814820690915</v>
+        <v>160.9352488845954</v>
       </c>
       <c r="J16" t="n">
-        <v>116.1666473818438</v>
+        <v>116.2930514097077</v>
       </c>
       <c r="K16" t="n">
-        <v>60.9846485306895</v>
+        <v>61.19236917825289</v>
       </c>
       <c r="L16" t="n">
-        <v>27.13168239150397</v>
+        <v>27.39749330466921</v>
       </c>
       <c r="M16" t="n">
-        <v>21.92043642499797</v>
+        <v>22.20069676349058</v>
       </c>
       <c r="N16" t="n">
-        <v>10.42782837918966</v>
+        <v>10.70142475324559</v>
       </c>
       <c r="O16" t="n">
-        <v>38.51130877303761</v>
+        <v>38.76401930733462</v>
       </c>
       <c r="P16" t="n">
-        <v>62.28378240539014</v>
+        <v>62.50001992457508</v>
       </c>
       <c r="Q16" t="n">
-        <v>132.5538037180701</v>
+        <v>132.7035153678906</v>
       </c>
       <c r="R16" t="n">
-        <v>210.8055304093206</v>
+        <v>210.8859205754277</v>
       </c>
       <c r="S16" t="n">
-        <v>239.7200535905258</v>
+        <v>239.7512116876603</v>
       </c>
       <c r="T16" t="n">
-        <v>217.1128162575616</v>
+        <v>217.1204554363061</v>
       </c>
       <c r="U16" t="n">
-        <v>291.2071482158065</v>
+        <v>291.2072457372373</v>
       </c>
       <c r="V16" t="n">
         <v>237.3615500762718</v>
@@ -23746,16 +23746,16 @@
         <v>399.146417573369</v>
       </c>
       <c r="G17" t="n">
-        <v>421.67247144649</v>
+        <v>421.676457247011</v>
       </c>
       <c r="H17" t="n">
-        <v>344.4562700805762</v>
+        <v>344.4970896601623</v>
       </c>
       <c r="I17" t="n">
-        <v>233.6960892616871</v>
+        <v>233.8497518362742</v>
       </c>
       <c r="J17" t="n">
-        <v>58.04787051854379</v>
+        <v>58.38616035551556</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23776,19 +23776,19 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>62.82473475935981</v>
+        <v>63.25515637537521</v>
       </c>
       <c r="R17" t="n">
-        <v>177.7417084225297</v>
+        <v>177.9920814645089</v>
       </c>
       <c r="S17" t="n">
-        <v>223.6890190097018</v>
+        <v>223.7798454390748</v>
       </c>
       <c r="T17" t="n">
-        <v>217.1194471824624</v>
+        <v>217.1368950242432</v>
       </c>
       <c r="U17" t="n">
-        <v>248.7481855265182</v>
+        <v>248.7485043905599</v>
       </c>
       <c r="V17" t="n">
         <v>313.3044420010231</v>
@@ -23825,16 +23825,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G18" t="n">
-        <v>160.7431091110548</v>
+        <v>160.745241702343</v>
       </c>
       <c r="H18" t="n">
-        <v>135.1247873568297</v>
+        <v>135.1453836990079</v>
       </c>
       <c r="I18" t="n">
-        <v>107.5907987307646</v>
+        <v>107.6642234746789</v>
       </c>
       <c r="J18" t="n">
-        <v>55.77366116803451</v>
+        <v>55.9751442774175</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23855,19 +23855,19 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>19.12417261947328</v>
+        <v>19.39639602671912</v>
       </c>
       <c r="R18" t="n">
-        <v>137.5132525315004</v>
+        <v>137.6456602607806</v>
       </c>
       <c r="S18" t="n">
-        <v>202.9728674021163</v>
+        <v>203.0124793499477</v>
       </c>
       <c r="T18" t="n">
-        <v>228.9995194687267</v>
+        <v>229.0081153081735</v>
       </c>
       <c r="U18" t="n">
-        <v>249.6316691266894</v>
+        <v>249.6318094287479</v>
       </c>
       <c r="V18" t="n">
         <v>249.2999251801724</v>
@@ -23904,49 +23904,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G19" t="n">
-        <v>169.0064655965343</v>
+        <v>169.0082534894319</v>
       </c>
       <c r="H19" t="n">
-        <v>165.5512455545521</v>
+        <v>165.5671415477694</v>
       </c>
       <c r="I19" t="n">
-        <v>160.8814820690915</v>
+        <v>160.9352488845954</v>
       </c>
       <c r="J19" t="n">
-        <v>116.1666473818438</v>
+        <v>116.2930514097077</v>
       </c>
       <c r="K19" t="n">
-        <v>60.9846485306895</v>
+        <v>61.19236917825289</v>
       </c>
       <c r="L19" t="n">
-        <v>27.13168239150397</v>
+        <v>27.39749330466921</v>
       </c>
       <c r="M19" t="n">
-        <v>21.92043642499797</v>
+        <v>22.20069676349058</v>
       </c>
       <c r="N19" t="n">
-        <v>10.42782837918966</v>
+        <v>10.70142475324559</v>
       </c>
       <c r="O19" t="n">
-        <v>38.51130877303761</v>
+        <v>38.76401930733462</v>
       </c>
       <c r="P19" t="n">
-        <v>62.28378240539014</v>
+        <v>62.50001992457508</v>
       </c>
       <c r="Q19" t="n">
-        <v>132.5538037180701</v>
+        <v>132.7035153678906</v>
       </c>
       <c r="R19" t="n">
-        <v>210.8055304093206</v>
+        <v>210.8859205754277</v>
       </c>
       <c r="S19" t="n">
-        <v>239.7200535905258</v>
+        <v>239.7512116876603</v>
       </c>
       <c r="T19" t="n">
-        <v>217.1128162575616</v>
+        <v>217.1204554363061</v>
       </c>
       <c r="U19" t="n">
-        <v>291.2071482158065</v>
+        <v>291.2072457372373</v>
       </c>
       <c r="V19" t="n">
         <v>237.3615500762718</v>
@@ -23983,16 +23983,16 @@
         <v>399.146417573369</v>
       </c>
       <c r="G20" t="n">
-        <v>421.67247144649</v>
+        <v>421.676457247011</v>
       </c>
       <c r="H20" t="n">
-        <v>344.4562700805762</v>
+        <v>344.4970896601623</v>
       </c>
       <c r="I20" t="n">
-        <v>233.6960892616871</v>
+        <v>233.8497518362742</v>
       </c>
       <c r="J20" t="n">
-        <v>58.04787051854379</v>
+        <v>58.38616035551556</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24013,19 +24013,19 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>62.82473475935981</v>
+        <v>63.25515637537521</v>
       </c>
       <c r="R20" t="n">
-        <v>177.7417084225297</v>
+        <v>177.9920814645089</v>
       </c>
       <c r="S20" t="n">
-        <v>223.6890190097018</v>
+        <v>223.7798454390748</v>
       </c>
       <c r="T20" t="n">
-        <v>217.1194471824624</v>
+        <v>217.1368950242432</v>
       </c>
       <c r="U20" t="n">
-        <v>248.7481855265182</v>
+        <v>248.7485043905599</v>
       </c>
       <c r="V20" t="n">
         <v>313.3044420010231</v>
@@ -24062,16 +24062,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G21" t="n">
-        <v>160.7431091110548</v>
+        <v>160.745241702343</v>
       </c>
       <c r="H21" t="n">
-        <v>135.1247873568297</v>
+        <v>135.1453836990079</v>
       </c>
       <c r="I21" t="n">
-        <v>107.5907987307646</v>
+        <v>107.6642234746789</v>
       </c>
       <c r="J21" t="n">
-        <v>55.77366116803451</v>
+        <v>55.9751442774175</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24092,19 +24092,19 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>19.12417261947328</v>
+        <v>19.39639602671912</v>
       </c>
       <c r="R21" t="n">
-        <v>137.5132525315004</v>
+        <v>137.6456602607806</v>
       </c>
       <c r="S21" t="n">
-        <v>202.9728674021163</v>
+        <v>203.0124793499477</v>
       </c>
       <c r="T21" t="n">
-        <v>228.9995194687267</v>
+        <v>229.0081153081735</v>
       </c>
       <c r="U21" t="n">
-        <v>249.6316691266894</v>
+        <v>249.6318094287479</v>
       </c>
       <c r="V21" t="n">
         <v>249.2999251801724</v>
@@ -24141,49 +24141,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G22" t="n">
-        <v>169.0064655965343</v>
+        <v>169.0082534894319</v>
       </c>
       <c r="H22" t="n">
-        <v>165.5512455545521</v>
+        <v>165.5671415477694</v>
       </c>
       <c r="I22" t="n">
-        <v>160.8814820690915</v>
+        <v>160.9352488845954</v>
       </c>
       <c r="J22" t="n">
-        <v>116.1666473818438</v>
+        <v>116.2930514097077</v>
       </c>
       <c r="K22" t="n">
-        <v>60.9846485306895</v>
+        <v>61.19236917825289</v>
       </c>
       <c r="L22" t="n">
-        <v>27.13168239150397</v>
+        <v>27.39749330466921</v>
       </c>
       <c r="M22" t="n">
-        <v>21.92043642499797</v>
+        <v>22.20069676349058</v>
       </c>
       <c r="N22" t="n">
-        <v>10.42782837918966</v>
+        <v>10.70142475324559</v>
       </c>
       <c r="O22" t="n">
-        <v>38.51130877303761</v>
+        <v>38.76401930733462</v>
       </c>
       <c r="P22" t="n">
-        <v>62.28378240539014</v>
+        <v>62.50001992457508</v>
       </c>
       <c r="Q22" t="n">
-        <v>132.5538037180701</v>
+        <v>132.7035153678906</v>
       </c>
       <c r="R22" t="n">
-        <v>210.8055304093206</v>
+        <v>210.8859205754277</v>
       </c>
       <c r="S22" t="n">
-        <v>239.7200535905258</v>
+        <v>239.7512116876603</v>
       </c>
       <c r="T22" t="n">
-        <v>217.1128162575616</v>
+        <v>217.1204554363061</v>
       </c>
       <c r="U22" t="n">
-        <v>291.2071482158065</v>
+        <v>291.2072457372373</v>
       </c>
       <c r="V22" t="n">
         <v>237.3615500762718</v>
@@ -24220,16 +24220,16 @@
         <v>399.146417573369</v>
       </c>
       <c r="G23" t="n">
-        <v>421.67247144649</v>
+        <v>421.676457247011</v>
       </c>
       <c r="H23" t="n">
-        <v>344.4562700805762</v>
+        <v>344.4970896601623</v>
       </c>
       <c r="I23" t="n">
-        <v>233.6960892616871</v>
+        <v>233.8497518362742</v>
       </c>
       <c r="J23" t="n">
-        <v>58.04787051854379</v>
+        <v>58.38616035551556</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24250,19 +24250,19 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>62.82473475935981</v>
+        <v>63.25515637537521</v>
       </c>
       <c r="R23" t="n">
-        <v>177.7417084225297</v>
+        <v>177.9920814645089</v>
       </c>
       <c r="S23" t="n">
-        <v>223.6890190097018</v>
+        <v>223.7798454390748</v>
       </c>
       <c r="T23" t="n">
-        <v>217.1194471824624</v>
+        <v>217.1368950242432</v>
       </c>
       <c r="U23" t="n">
-        <v>248.7481855265182</v>
+        <v>248.7485043905599</v>
       </c>
       <c r="V23" t="n">
         <v>313.3044420010231</v>
@@ -24299,16 +24299,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G24" t="n">
-        <v>160.7431091110548</v>
+        <v>160.745241702343</v>
       </c>
       <c r="H24" t="n">
-        <v>135.1247873568297</v>
+        <v>135.1453836990079</v>
       </c>
       <c r="I24" t="n">
-        <v>107.5907987307646</v>
+        <v>107.6642234746789</v>
       </c>
       <c r="J24" t="n">
-        <v>55.77366116803451</v>
+        <v>55.9751442774175</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24329,19 +24329,19 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>19.12417261947328</v>
+        <v>19.39639602671912</v>
       </c>
       <c r="R24" t="n">
-        <v>137.5132525315004</v>
+        <v>137.6456602607806</v>
       </c>
       <c r="S24" t="n">
-        <v>202.9728674021163</v>
+        <v>203.0124793499477</v>
       </c>
       <c r="T24" t="n">
-        <v>228.9995194687267</v>
+        <v>229.0081153081735</v>
       </c>
       <c r="U24" t="n">
-        <v>249.6316691266894</v>
+        <v>249.6318094287479</v>
       </c>
       <c r="V24" t="n">
         <v>249.2999251801724</v>
@@ -24378,49 +24378,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G25" t="n">
-        <v>169.0064655965343</v>
+        <v>169.0082534894319</v>
       </c>
       <c r="H25" t="n">
-        <v>165.5512455545521</v>
+        <v>165.5671415477694</v>
       </c>
       <c r="I25" t="n">
-        <v>160.8814820690915</v>
+        <v>160.9352488845954</v>
       </c>
       <c r="J25" t="n">
-        <v>116.1666473818438</v>
+        <v>116.2930514097077</v>
       </c>
       <c r="K25" t="n">
-        <v>60.9846485306895</v>
+        <v>61.19236917825289</v>
       </c>
       <c r="L25" t="n">
-        <v>27.13168239150397</v>
+        <v>27.39749330466921</v>
       </c>
       <c r="M25" t="n">
-        <v>21.92043642499797</v>
+        <v>22.20069676349058</v>
       </c>
       <c r="N25" t="n">
-        <v>10.42782837918966</v>
+        <v>10.70142475324559</v>
       </c>
       <c r="O25" t="n">
-        <v>38.51130877303761</v>
+        <v>38.76401930733462</v>
       </c>
       <c r="P25" t="n">
-        <v>62.28378240539014</v>
+        <v>62.50001992457508</v>
       </c>
       <c r="Q25" t="n">
-        <v>132.5538037180701</v>
+        <v>132.7035153678906</v>
       </c>
       <c r="R25" t="n">
-        <v>210.8055304093206</v>
+        <v>210.8859205754277</v>
       </c>
       <c r="S25" t="n">
-        <v>239.7200535905258</v>
+        <v>239.7512116876603</v>
       </c>
       <c r="T25" t="n">
-        <v>217.1128162575616</v>
+        <v>217.1204554363061</v>
       </c>
       <c r="U25" t="n">
-        <v>291.2071482158065</v>
+        <v>291.2072457372373</v>
       </c>
       <c r="V25" t="n">
         <v>237.3615500762718</v>
@@ -24457,16 +24457,16 @@
         <v>399.146417573369</v>
       </c>
       <c r="G26" t="n">
-        <v>421.67247144649</v>
+        <v>421.676457247011</v>
       </c>
       <c r="H26" t="n">
-        <v>344.4562700805762</v>
+        <v>344.4970896601623</v>
       </c>
       <c r="I26" t="n">
-        <v>233.6960892616871</v>
+        <v>233.8497518362742</v>
       </c>
       <c r="J26" t="n">
-        <v>58.04787051854379</v>
+        <v>58.38616035551556</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24487,19 +24487,19 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>62.82473475935981</v>
+        <v>63.25515637537521</v>
       </c>
       <c r="R26" t="n">
-        <v>177.7417084225297</v>
+        <v>177.9920814645089</v>
       </c>
       <c r="S26" t="n">
-        <v>223.6890190097018</v>
+        <v>223.7798454390748</v>
       </c>
       <c r="T26" t="n">
-        <v>217.1194471824624</v>
+        <v>217.1368950242432</v>
       </c>
       <c r="U26" t="n">
-        <v>248.7481855265182</v>
+        <v>248.7485043905599</v>
       </c>
       <c r="V26" t="n">
         <v>313.3044420010231</v>
@@ -24536,16 +24536,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G27" t="n">
-        <v>160.7431091110548</v>
+        <v>160.745241702343</v>
       </c>
       <c r="H27" t="n">
-        <v>135.1247873568297</v>
+        <v>135.1453836990079</v>
       </c>
       <c r="I27" t="n">
-        <v>107.5907987307646</v>
+        <v>107.6642234746789</v>
       </c>
       <c r="J27" t="n">
-        <v>55.77366116803451</v>
+        <v>55.9751442774175</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24566,19 +24566,19 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>19.12417261947328</v>
+        <v>19.39639602671912</v>
       </c>
       <c r="R27" t="n">
-        <v>137.5132525315004</v>
+        <v>137.6456602607806</v>
       </c>
       <c r="S27" t="n">
-        <v>202.9728674021163</v>
+        <v>203.0124793499477</v>
       </c>
       <c r="T27" t="n">
-        <v>228.9995194687267</v>
+        <v>229.0081153081735</v>
       </c>
       <c r="U27" t="n">
-        <v>249.6316691266894</v>
+        <v>249.6318094287479</v>
       </c>
       <c r="V27" t="n">
         <v>249.2999251801724</v>
@@ -24615,49 +24615,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G28" t="n">
-        <v>169.0064655965343</v>
+        <v>169.0082534894319</v>
       </c>
       <c r="H28" t="n">
-        <v>165.5512455545521</v>
+        <v>165.5671415477694</v>
       </c>
       <c r="I28" t="n">
-        <v>160.8814820690915</v>
+        <v>160.9352488845954</v>
       </c>
       <c r="J28" t="n">
-        <v>116.1666473818438</v>
+        <v>116.2930514097077</v>
       </c>
       <c r="K28" t="n">
-        <v>60.9846485306895</v>
+        <v>61.19236917825289</v>
       </c>
       <c r="L28" t="n">
-        <v>27.13168239150397</v>
+        <v>27.39749330466921</v>
       </c>
       <c r="M28" t="n">
-        <v>21.92043642499797</v>
+        <v>22.20069676349058</v>
       </c>
       <c r="N28" t="n">
-        <v>10.42782837918966</v>
+        <v>10.70142475324559</v>
       </c>
       <c r="O28" t="n">
-        <v>38.51130877303761</v>
+        <v>38.76401930733462</v>
       </c>
       <c r="P28" t="n">
-        <v>62.28378240539014</v>
+        <v>62.50001992457508</v>
       </c>
       <c r="Q28" t="n">
-        <v>132.5538037180701</v>
+        <v>132.7035153678906</v>
       </c>
       <c r="R28" t="n">
-        <v>210.8055304093206</v>
+        <v>210.8859205754277</v>
       </c>
       <c r="S28" t="n">
-        <v>239.7200535905258</v>
+        <v>239.7512116876603</v>
       </c>
       <c r="T28" t="n">
-        <v>217.1128162575616</v>
+        <v>217.1204554363061</v>
       </c>
       <c r="U28" t="n">
-        <v>291.2071482158065</v>
+        <v>291.2072457372373</v>
       </c>
       <c r="V28" t="n">
         <v>237.3615500762718</v>
@@ -24694,16 +24694,16 @@
         <v>399.146417573369</v>
       </c>
       <c r="G29" t="n">
-        <v>421.67247144649</v>
+        <v>421.676457247011</v>
       </c>
       <c r="H29" t="n">
-        <v>344.4562700805762</v>
+        <v>344.4970896601623</v>
       </c>
       <c r="I29" t="n">
-        <v>233.6960892616871</v>
+        <v>233.8497518362742</v>
       </c>
       <c r="J29" t="n">
-        <v>58.04787051854379</v>
+        <v>58.38616035551556</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24724,19 +24724,19 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>62.82473475935981</v>
+        <v>63.25515637537521</v>
       </c>
       <c r="R29" t="n">
-        <v>177.7417084225297</v>
+        <v>177.9920814645089</v>
       </c>
       <c r="S29" t="n">
-        <v>223.6890190097018</v>
+        <v>223.7798454390748</v>
       </c>
       <c r="T29" t="n">
-        <v>217.1194471824624</v>
+        <v>217.1368950242432</v>
       </c>
       <c r="U29" t="n">
-        <v>248.7481855265182</v>
+        <v>248.7485043905599</v>
       </c>
       <c r="V29" t="n">
         <v>313.3044420010231</v>
@@ -24773,16 +24773,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G30" t="n">
-        <v>160.7431091110548</v>
+        <v>160.745241702343</v>
       </c>
       <c r="H30" t="n">
-        <v>135.1247873568297</v>
+        <v>135.1453836990079</v>
       </c>
       <c r="I30" t="n">
-        <v>107.5907987307646</v>
+        <v>107.6642234746789</v>
       </c>
       <c r="J30" t="n">
-        <v>55.77366116803451</v>
+        <v>55.9751442774175</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24803,19 +24803,19 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>19.12417261947328</v>
+        <v>19.39639602671912</v>
       </c>
       <c r="R30" t="n">
-        <v>137.5132525315004</v>
+        <v>137.6456602607806</v>
       </c>
       <c r="S30" t="n">
-        <v>202.9728674021163</v>
+        <v>203.0124793499477</v>
       </c>
       <c r="T30" t="n">
-        <v>228.9995194687267</v>
+        <v>229.0081153081735</v>
       </c>
       <c r="U30" t="n">
-        <v>249.6316691266894</v>
+        <v>249.6318094287479</v>
       </c>
       <c r="V30" t="n">
         <v>249.2999251801724</v>
@@ -24852,49 +24852,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G31" t="n">
-        <v>169.0064655965343</v>
+        <v>169.0082534894319</v>
       </c>
       <c r="H31" t="n">
-        <v>165.5512455545521</v>
+        <v>165.5671415477694</v>
       </c>
       <c r="I31" t="n">
-        <v>160.8814820690915</v>
+        <v>160.9352488845954</v>
       </c>
       <c r="J31" t="n">
-        <v>116.1666473818438</v>
+        <v>116.2930514097077</v>
       </c>
       <c r="K31" t="n">
-        <v>60.9846485306895</v>
+        <v>61.19236917825289</v>
       </c>
       <c r="L31" t="n">
-        <v>27.13168239150397</v>
+        <v>27.39749330466921</v>
       </c>
       <c r="M31" t="n">
-        <v>21.92043642499797</v>
+        <v>22.20069676349058</v>
       </c>
       <c r="N31" t="n">
-        <v>10.42782837918966</v>
+        <v>10.70142475324559</v>
       </c>
       <c r="O31" t="n">
-        <v>38.51130877303761</v>
+        <v>38.76401930733462</v>
       </c>
       <c r="P31" t="n">
-        <v>62.28378240539014</v>
+        <v>62.50001992457508</v>
       </c>
       <c r="Q31" t="n">
-        <v>132.5538037180701</v>
+        <v>132.7035153678906</v>
       </c>
       <c r="R31" t="n">
-        <v>210.8055304093206</v>
+        <v>210.8859205754277</v>
       </c>
       <c r="S31" t="n">
-        <v>239.7200535905258</v>
+        <v>239.7512116876603</v>
       </c>
       <c r="T31" t="n">
-        <v>217.1128162575616</v>
+        <v>217.1204554363061</v>
       </c>
       <c r="U31" t="n">
-        <v>291.2071482158065</v>
+        <v>291.2072457372373</v>
       </c>
       <c r="V31" t="n">
         <v>237.3615500762718</v>
@@ -24931,16 +24931,16 @@
         <v>399.146417573369</v>
       </c>
       <c r="G32" t="n">
-        <v>421.67247144649</v>
+        <v>421.676457247011</v>
       </c>
       <c r="H32" t="n">
-        <v>344.4562700805762</v>
+        <v>344.4970896601623</v>
       </c>
       <c r="I32" t="n">
-        <v>233.6960892616871</v>
+        <v>233.8497518362742</v>
       </c>
       <c r="J32" t="n">
-        <v>58.04787051854379</v>
+        <v>58.38616035551556</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24961,19 +24961,19 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>62.82473475935981</v>
+        <v>63.25515637537521</v>
       </c>
       <c r="R32" t="n">
-        <v>177.7417084225297</v>
+        <v>177.9920814645089</v>
       </c>
       <c r="S32" t="n">
-        <v>223.6890190097018</v>
+        <v>223.7798454390748</v>
       </c>
       <c r="T32" t="n">
-        <v>217.1194471824624</v>
+        <v>217.1368950242432</v>
       </c>
       <c r="U32" t="n">
-        <v>248.7481855265182</v>
+        <v>248.7485043905599</v>
       </c>
       <c r="V32" t="n">
         <v>313.3044420010231</v>
@@ -25010,16 +25010,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G33" t="n">
-        <v>160.7431091110548</v>
+        <v>160.745241702343</v>
       </c>
       <c r="H33" t="n">
-        <v>135.1247873568297</v>
+        <v>135.1453836990079</v>
       </c>
       <c r="I33" t="n">
-        <v>107.5907987307646</v>
+        <v>107.6642234746789</v>
       </c>
       <c r="J33" t="n">
-        <v>55.77366116803451</v>
+        <v>55.9751442774175</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25040,19 +25040,19 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>19.12417261947328</v>
+        <v>19.39639602671912</v>
       </c>
       <c r="R33" t="n">
-        <v>137.5132525315004</v>
+        <v>137.6456602607806</v>
       </c>
       <c r="S33" t="n">
-        <v>202.9728674021163</v>
+        <v>203.0124793499477</v>
       </c>
       <c r="T33" t="n">
-        <v>228.9995194687267</v>
+        <v>229.0081153081735</v>
       </c>
       <c r="U33" t="n">
-        <v>249.6316691266894</v>
+        <v>249.6318094287479</v>
       </c>
       <c r="V33" t="n">
         <v>249.2999251801724</v>
@@ -25089,49 +25089,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G34" t="n">
-        <v>169.0064655965343</v>
+        <v>169.0082534894319</v>
       </c>
       <c r="H34" t="n">
-        <v>165.5512455545521</v>
+        <v>165.5671415477694</v>
       </c>
       <c r="I34" t="n">
-        <v>160.8814820690915</v>
+        <v>160.9352488845954</v>
       </c>
       <c r="J34" t="n">
-        <v>116.1666473818438</v>
+        <v>116.2930514097077</v>
       </c>
       <c r="K34" t="n">
-        <v>60.9846485306895</v>
+        <v>61.19236917825289</v>
       </c>
       <c r="L34" t="n">
-        <v>27.13168239150397</v>
+        <v>27.39749330466921</v>
       </c>
       <c r="M34" t="n">
-        <v>21.92043642499797</v>
+        <v>22.20069676349058</v>
       </c>
       <c r="N34" t="n">
-        <v>10.42782837918966</v>
+        <v>10.70142475324559</v>
       </c>
       <c r="O34" t="n">
-        <v>38.51130877303761</v>
+        <v>38.76401930733462</v>
       </c>
       <c r="P34" t="n">
-        <v>62.28378240539014</v>
+        <v>62.50001992457508</v>
       </c>
       <c r="Q34" t="n">
-        <v>132.5538037180701</v>
+        <v>132.7035153678906</v>
       </c>
       <c r="R34" t="n">
-        <v>210.8055304093206</v>
+        <v>210.8859205754277</v>
       </c>
       <c r="S34" t="n">
-        <v>239.7200535905258</v>
+        <v>239.7512116876603</v>
       </c>
       <c r="T34" t="n">
-        <v>217.1128162575616</v>
+        <v>217.1204554363061</v>
       </c>
       <c r="U34" t="n">
-        <v>291.2071482158065</v>
+        <v>291.2072457372373</v>
       </c>
       <c r="V34" t="n">
         <v>237.3615500762718</v>
@@ -25168,16 +25168,16 @@
         <v>399.146417573369</v>
       </c>
       <c r="G35" t="n">
-        <v>421.67247144649</v>
+        <v>421.676457247011</v>
       </c>
       <c r="H35" t="n">
-        <v>344.4562700805762</v>
+        <v>344.4970896601623</v>
       </c>
       <c r="I35" t="n">
-        <v>233.6960892616871</v>
+        <v>233.8497518362742</v>
       </c>
       <c r="J35" t="n">
-        <v>58.04787051854379</v>
+        <v>58.38616035551556</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25198,19 +25198,19 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>62.82473475935981</v>
+        <v>63.25515637537521</v>
       </c>
       <c r="R35" t="n">
-        <v>177.7417084225297</v>
+        <v>177.9920814645089</v>
       </c>
       <c r="S35" t="n">
-        <v>223.6890190097018</v>
+        <v>223.7798454390748</v>
       </c>
       <c r="T35" t="n">
-        <v>217.1194471824624</v>
+        <v>217.1368950242432</v>
       </c>
       <c r="U35" t="n">
-        <v>248.7481855265182</v>
+        <v>248.7485043905599</v>
       </c>
       <c r="V35" t="n">
         <v>313.3044420010231</v>
@@ -25247,16 +25247,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G36" t="n">
-        <v>160.7431091110548</v>
+        <v>160.745241702343</v>
       </c>
       <c r="H36" t="n">
-        <v>135.1247873568297</v>
+        <v>135.1453836990079</v>
       </c>
       <c r="I36" t="n">
-        <v>107.5907987307646</v>
+        <v>107.6642234746789</v>
       </c>
       <c r="J36" t="n">
-        <v>55.77366116803451</v>
+        <v>55.9751442774175</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25277,19 +25277,19 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>19.12417261947328</v>
+        <v>19.39639602671912</v>
       </c>
       <c r="R36" t="n">
-        <v>137.5132525315004</v>
+        <v>137.6456602607806</v>
       </c>
       <c r="S36" t="n">
-        <v>202.9728674021163</v>
+        <v>203.0124793499477</v>
       </c>
       <c r="T36" t="n">
-        <v>228.9995194687267</v>
+        <v>229.0081153081735</v>
       </c>
       <c r="U36" t="n">
-        <v>249.6316691266894</v>
+        <v>249.6318094287479</v>
       </c>
       <c r="V36" t="n">
         <v>249.2999251801724</v>
@@ -25326,49 +25326,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G37" t="n">
-        <v>169.0064655965343</v>
+        <v>169.0082534894319</v>
       </c>
       <c r="H37" t="n">
-        <v>165.5512455545521</v>
+        <v>165.5671415477694</v>
       </c>
       <c r="I37" t="n">
-        <v>160.8814820690915</v>
+        <v>160.9352488845954</v>
       </c>
       <c r="J37" t="n">
-        <v>116.1666473818438</v>
+        <v>116.2930514097077</v>
       </c>
       <c r="K37" t="n">
-        <v>60.9846485306895</v>
+        <v>61.19236917825289</v>
       </c>
       <c r="L37" t="n">
-        <v>27.13168239150397</v>
+        <v>27.39749330466921</v>
       </c>
       <c r="M37" t="n">
-        <v>21.92043642499797</v>
+        <v>22.20069676349058</v>
       </c>
       <c r="N37" t="n">
-        <v>10.42782837918966</v>
+        <v>10.70142475324559</v>
       </c>
       <c r="O37" t="n">
-        <v>38.51130877303761</v>
+        <v>38.76401930733462</v>
       </c>
       <c r="P37" t="n">
-        <v>62.28378240539014</v>
+        <v>62.50001992457508</v>
       </c>
       <c r="Q37" t="n">
-        <v>132.5538037180701</v>
+        <v>132.7035153678906</v>
       </c>
       <c r="R37" t="n">
-        <v>210.8055304093206</v>
+        <v>210.8859205754277</v>
       </c>
       <c r="S37" t="n">
-        <v>239.7200535905258</v>
+        <v>239.7512116876603</v>
       </c>
       <c r="T37" t="n">
-        <v>217.1128162575616</v>
+        <v>217.1204554363061</v>
       </c>
       <c r="U37" t="n">
-        <v>291.2071482158065</v>
+        <v>291.2072457372373</v>
       </c>
       <c r="V37" t="n">
         <v>237.3615500762718</v>
@@ -25405,16 +25405,16 @@
         <v>399.146417573369</v>
       </c>
       <c r="G38" t="n">
-        <v>421.67247144649</v>
+        <v>421.676457247011</v>
       </c>
       <c r="H38" t="n">
-        <v>344.4562700805762</v>
+        <v>344.4970896601623</v>
       </c>
       <c r="I38" t="n">
-        <v>233.6960892616871</v>
+        <v>233.8497518362742</v>
       </c>
       <c r="J38" t="n">
-        <v>58.04787051854379</v>
+        <v>58.38616035551556</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25435,19 +25435,19 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>62.82473475935981</v>
+        <v>63.25515637537521</v>
       </c>
       <c r="R38" t="n">
-        <v>177.7417084225297</v>
+        <v>177.9920814645089</v>
       </c>
       <c r="S38" t="n">
-        <v>223.6890190097018</v>
+        <v>223.7798454390748</v>
       </c>
       <c r="T38" t="n">
-        <v>217.1194471824624</v>
+        <v>217.1368950242432</v>
       </c>
       <c r="U38" t="n">
-        <v>248.7481855265182</v>
+        <v>248.7485043905599</v>
       </c>
       <c r="V38" t="n">
         <v>313.3044420010231</v>
@@ -25484,16 +25484,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G39" t="n">
-        <v>160.7431091110548</v>
+        <v>160.745241702343</v>
       </c>
       <c r="H39" t="n">
-        <v>135.1247873568297</v>
+        <v>135.1453836990079</v>
       </c>
       <c r="I39" t="n">
-        <v>107.5907987307646</v>
+        <v>107.6642234746789</v>
       </c>
       <c r="J39" t="n">
-        <v>55.77366116803451</v>
+        <v>55.9751442774175</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25514,19 +25514,19 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>19.12417261947328</v>
+        <v>19.39639602671912</v>
       </c>
       <c r="R39" t="n">
-        <v>137.5132525315004</v>
+        <v>137.6456602607806</v>
       </c>
       <c r="S39" t="n">
-        <v>202.9728674021163</v>
+        <v>203.0124793499477</v>
       </c>
       <c r="T39" t="n">
-        <v>228.9995194687267</v>
+        <v>229.0081153081735</v>
       </c>
       <c r="U39" t="n">
-        <v>249.6316691266894</v>
+        <v>249.6318094287479</v>
       </c>
       <c r="V39" t="n">
         <v>249.2999251801724</v>
@@ -25563,49 +25563,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G40" t="n">
-        <v>169.0064655965343</v>
+        <v>169.0082534894319</v>
       </c>
       <c r="H40" t="n">
-        <v>165.5512455545521</v>
+        <v>165.5671415477694</v>
       </c>
       <c r="I40" t="n">
-        <v>160.8814820690915</v>
+        <v>160.9352488845954</v>
       </c>
       <c r="J40" t="n">
-        <v>116.1666473818438</v>
+        <v>116.2930514097077</v>
       </c>
       <c r="K40" t="n">
-        <v>60.9846485306895</v>
+        <v>61.19236917825289</v>
       </c>
       <c r="L40" t="n">
-        <v>27.13168239150397</v>
+        <v>27.39749330466921</v>
       </c>
       <c r="M40" t="n">
-        <v>21.92043642499797</v>
+        <v>22.20069676349058</v>
       </c>
       <c r="N40" t="n">
-        <v>10.42782837918966</v>
+        <v>10.70142475324559</v>
       </c>
       <c r="O40" t="n">
-        <v>38.51130877303761</v>
+        <v>38.76401930733462</v>
       </c>
       <c r="P40" t="n">
-        <v>62.28378240539014</v>
+        <v>62.50001992457508</v>
       </c>
       <c r="Q40" t="n">
-        <v>132.5538037180701</v>
+        <v>132.7035153678906</v>
       </c>
       <c r="R40" t="n">
-        <v>210.8055304093206</v>
+        <v>210.8859205754277</v>
       </c>
       <c r="S40" t="n">
-        <v>239.7200535905258</v>
+        <v>239.7512116876603</v>
       </c>
       <c r="T40" t="n">
-        <v>217.1128162575616</v>
+        <v>217.1204554363061</v>
       </c>
       <c r="U40" t="n">
-        <v>291.2071482158065</v>
+        <v>291.2072457372373</v>
       </c>
       <c r="V40" t="n">
         <v>237.3615500762718</v>
@@ -25642,16 +25642,16 @@
         <v>399.146417573369</v>
       </c>
       <c r="G41" t="n">
-        <v>421.67247144649</v>
+        <v>421.676457247011</v>
       </c>
       <c r="H41" t="n">
-        <v>344.4562700805762</v>
+        <v>344.4970896601623</v>
       </c>
       <c r="I41" t="n">
-        <v>233.6960892616871</v>
+        <v>233.8497518362742</v>
       </c>
       <c r="J41" t="n">
-        <v>58.04787051854379</v>
+        <v>58.38616035551556</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25672,19 +25672,19 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>62.82473475935981</v>
+        <v>63.25515637537521</v>
       </c>
       <c r="R41" t="n">
-        <v>177.7417084225297</v>
+        <v>177.9920814645089</v>
       </c>
       <c r="S41" t="n">
-        <v>223.6890190097018</v>
+        <v>223.7798454390748</v>
       </c>
       <c r="T41" t="n">
-        <v>217.1194471824624</v>
+        <v>217.1368950242432</v>
       </c>
       <c r="U41" t="n">
-        <v>248.7481855265182</v>
+        <v>248.7485043905599</v>
       </c>
       <c r="V41" t="n">
         <v>313.3044420010231</v>
@@ -25721,16 +25721,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G42" t="n">
-        <v>160.7431091110548</v>
+        <v>160.745241702343</v>
       </c>
       <c r="H42" t="n">
-        <v>135.1247873568297</v>
+        <v>135.1453836990079</v>
       </c>
       <c r="I42" t="n">
-        <v>107.5907987307646</v>
+        <v>107.6642234746789</v>
       </c>
       <c r="J42" t="n">
-        <v>55.77366116803451</v>
+        <v>55.9751442774175</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25751,19 +25751,19 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>19.12417261947328</v>
+        <v>19.39639602671912</v>
       </c>
       <c r="R42" t="n">
-        <v>137.5132525315004</v>
+        <v>137.6456602607806</v>
       </c>
       <c r="S42" t="n">
-        <v>202.9728674021163</v>
+        <v>203.0124793499477</v>
       </c>
       <c r="T42" t="n">
-        <v>228.9995194687267</v>
+        <v>229.0081153081735</v>
       </c>
       <c r="U42" t="n">
-        <v>249.6316691266894</v>
+        <v>249.6318094287479</v>
       </c>
       <c r="V42" t="n">
         <v>249.2999251801724</v>
@@ -25800,49 +25800,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G43" t="n">
-        <v>169.0064655965343</v>
+        <v>169.0082534894319</v>
       </c>
       <c r="H43" t="n">
-        <v>165.5512455545521</v>
+        <v>165.5671415477694</v>
       </c>
       <c r="I43" t="n">
-        <v>160.8814820690915</v>
+        <v>160.9352488845954</v>
       </c>
       <c r="J43" t="n">
-        <v>116.1666473818438</v>
+        <v>116.2930514097077</v>
       </c>
       <c r="K43" t="n">
-        <v>60.9846485306895</v>
+        <v>61.19236917825289</v>
       </c>
       <c r="L43" t="n">
-        <v>27.13168239150397</v>
+        <v>27.39749330466921</v>
       </c>
       <c r="M43" t="n">
-        <v>21.92043642499797</v>
+        <v>22.20069676349058</v>
       </c>
       <c r="N43" t="n">
-        <v>10.42782837918966</v>
+        <v>10.70142475324559</v>
       </c>
       <c r="O43" t="n">
-        <v>38.51130877303761</v>
+        <v>38.76401930733462</v>
       </c>
       <c r="P43" t="n">
-        <v>62.28378240539014</v>
+        <v>62.50001992457508</v>
       </c>
       <c r="Q43" t="n">
-        <v>132.5538037180701</v>
+        <v>132.7035153678906</v>
       </c>
       <c r="R43" t="n">
-        <v>210.8055304093206</v>
+        <v>210.8859205754277</v>
       </c>
       <c r="S43" t="n">
-        <v>239.7200535905258</v>
+        <v>239.7512116876603</v>
       </c>
       <c r="T43" t="n">
-        <v>217.1128162575616</v>
+        <v>217.1204554363061</v>
       </c>
       <c r="U43" t="n">
-        <v>291.2071482158065</v>
+        <v>291.2072457372373</v>
       </c>
       <c r="V43" t="n">
         <v>237.3615500762718</v>
@@ -25879,16 +25879,16 @@
         <v>399.146417573369</v>
       </c>
       <c r="G44" t="n">
-        <v>421.67247144649</v>
+        <v>421.676457247011</v>
       </c>
       <c r="H44" t="n">
-        <v>344.4562700805762</v>
+        <v>344.4970896601623</v>
       </c>
       <c r="I44" t="n">
-        <v>233.6960892616871</v>
+        <v>233.8497518362742</v>
       </c>
       <c r="J44" t="n">
-        <v>58.04787051854379</v>
+        <v>58.38616035551556</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25909,19 +25909,19 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>62.82473475935981</v>
+        <v>63.25515637537521</v>
       </c>
       <c r="R44" t="n">
-        <v>177.7417084225297</v>
+        <v>177.9920814645089</v>
       </c>
       <c r="S44" t="n">
-        <v>223.6890190097018</v>
+        <v>223.7798454390748</v>
       </c>
       <c r="T44" t="n">
-        <v>217.1194471824624</v>
+        <v>217.1368950242432</v>
       </c>
       <c r="U44" t="n">
-        <v>248.7481855265182</v>
+        <v>248.7485043905599</v>
       </c>
       <c r="V44" t="n">
         <v>313.3044420010231</v>
@@ -25958,16 +25958,16 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G45" t="n">
-        <v>160.7431091110548</v>
+        <v>160.745241702343</v>
       </c>
       <c r="H45" t="n">
-        <v>135.1247873568297</v>
+        <v>135.1453836990079</v>
       </c>
       <c r="I45" t="n">
-        <v>107.5907987307646</v>
+        <v>107.6642234746789</v>
       </c>
       <c r="J45" t="n">
-        <v>55.77366116803451</v>
+        <v>55.9751442774175</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25988,19 +25988,19 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>19.12417261947328</v>
+        <v>19.39639602671912</v>
       </c>
       <c r="R45" t="n">
-        <v>137.5132525315004</v>
+        <v>137.6456602607806</v>
       </c>
       <c r="S45" t="n">
-        <v>202.9728674021163</v>
+        <v>203.0124793499477</v>
       </c>
       <c r="T45" t="n">
-        <v>228.9995194687267</v>
+        <v>229.0081153081735</v>
       </c>
       <c r="U45" t="n">
-        <v>249.6316691266894</v>
+        <v>249.6318094287479</v>
       </c>
       <c r="V45" t="n">
         <v>249.2999251801724</v>
@@ -26037,49 +26037,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G46" t="n">
-        <v>169.0064655965343</v>
+        <v>169.0082534894319</v>
       </c>
       <c r="H46" t="n">
-        <v>165.5512455545521</v>
+        <v>165.5671415477694</v>
       </c>
       <c r="I46" t="n">
-        <v>160.8814820690915</v>
+        <v>160.9352488845954</v>
       </c>
       <c r="J46" t="n">
-        <v>116.1666473818438</v>
+        <v>116.2930514097077</v>
       </c>
       <c r="K46" t="n">
-        <v>60.9846485306895</v>
+        <v>61.19236917825289</v>
       </c>
       <c r="L46" t="n">
-        <v>27.13168239150397</v>
+        <v>27.39749330466921</v>
       </c>
       <c r="M46" t="n">
-        <v>21.92043642499797</v>
+        <v>22.20069676349058</v>
       </c>
       <c r="N46" t="n">
-        <v>10.42782837918966</v>
+        <v>10.70142475324559</v>
       </c>
       <c r="O46" t="n">
-        <v>38.51130877303761</v>
+        <v>38.76401930733462</v>
       </c>
       <c r="P46" t="n">
-        <v>62.28378240539014</v>
+        <v>62.50001992457508</v>
       </c>
       <c r="Q46" t="n">
-        <v>132.5538037180701</v>
+        <v>132.7035153678906</v>
       </c>
       <c r="R46" t="n">
-        <v>210.8055304093206</v>
+        <v>210.8859205754277</v>
       </c>
       <c r="S46" t="n">
-        <v>239.7200535905258</v>
+        <v>239.7512116876603</v>
       </c>
       <c r="T46" t="n">
-        <v>217.1128162575616</v>
+        <v>217.1204554363061</v>
       </c>
       <c r="U46" t="n">
-        <v>291.2071482158065</v>
+        <v>291.2072457372373</v>
       </c>
       <c r="V46" t="n">
         <v>237.3615500762718</v>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>423407.8117281935</v>
+        <v>425612.7366837985</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>452362.2048754031</v>
+        <v>452198.5641578683</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>452362.2048754031</v>
+        <v>452198.5641578683</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>452362.2048754031</v>
+        <v>452198.5641578683</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>452362.2048754031</v>
+        <v>452198.5641578683</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>452362.2048754031</v>
+        <v>452198.5641578683</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>452362.2048754031</v>
+        <v>452198.5641578683</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>452362.2048754031</v>
+        <v>452198.5641578683</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>452362.2048754031</v>
+        <v>452198.5641578683</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>452362.2048754031</v>
+        <v>452198.5641578683</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>452362.2048754031</v>
+        <v>452198.5641578683</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>452362.2048754031</v>
+        <v>452198.5641578683</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>452362.2048754031</v>
+        <v>452198.5641578683</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>101666.2295477195</v>
+        <v>101666.2295477194</v>
       </c>
       <c r="C2" t="n">
         <v>106324.6178041929</v>
       </c>
       <c r="D2" t="n">
-        <v>109417.203044638</v>
+        <v>110145.4555204834</v>
       </c>
       <c r="E2" t="n">
-        <v>120088.0053561499</v>
+        <v>120018.8164268159</v>
       </c>
       <c r="F2" t="n">
-        <v>120088.0053561499</v>
+        <v>120018.8164268159</v>
       </c>
       <c r="G2" t="n">
-        <v>120088.0053561499</v>
+        <v>120018.8164268159</v>
       </c>
       <c r="H2" t="n">
-        <v>120088.0053561499</v>
+        <v>120018.8164268159</v>
       </c>
       <c r="I2" t="n">
-        <v>120088.0053561499</v>
+        <v>120018.8164268159</v>
       </c>
       <c r="J2" t="n">
-        <v>120088.0053561499</v>
+        <v>120018.8164268159</v>
       </c>
       <c r="K2" t="n">
-        <v>120088.0053561499</v>
+        <v>120018.8164268159</v>
       </c>
       <c r="L2" t="n">
-        <v>120088.0053561499</v>
+        <v>120018.8164268159</v>
       </c>
       <c r="M2" t="n">
-        <v>120088.0053561499</v>
+        <v>120018.8164268159</v>
       </c>
       <c r="N2" t="n">
-        <v>120088.0053561499</v>
+        <v>120018.8164268159</v>
       </c>
       <c r="O2" t="n">
-        <v>120088.0053561499</v>
+        <v>120018.8164268159</v>
       </c>
       <c r="P2" t="n">
-        <v>120088.0053561499</v>
+        <v>120018.8164268159</v>
       </c>
     </row>
     <row r="3">
@@ -26371,10 +26371,10 @@
         <v>28860.04895093618</v>
       </c>
       <c r="D3" t="n">
-        <v>19898.21663088638</v>
+        <v>24818.2547199784</v>
       </c>
       <c r="E3" t="n">
-        <v>88727.98440001735</v>
+        <v>83315.9425020161</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>26221.80039425983</v>
+        <v>26221.80039425982</v>
       </c>
       <c r="C4" t="n">
         <v>23965.703191553</v>
       </c>
       <c r="D4" t="n">
-        <v>22211.4005645207</v>
+        <v>21746.066442026</v>
       </c>
       <c r="E4" t="n">
-        <v>12039.51856952029</v>
+        <v>12129.57059287725</v>
       </c>
       <c r="F4" t="n">
-        <v>12039.51856952029</v>
+        <v>12129.57059287725</v>
       </c>
       <c r="G4" t="n">
-        <v>12039.51856952029</v>
+        <v>12129.57059287725</v>
       </c>
       <c r="H4" t="n">
-        <v>12039.51856952029</v>
+        <v>12129.57059287725</v>
       </c>
       <c r="I4" t="n">
-        <v>12039.51856952029</v>
+        <v>12129.57059287725</v>
       </c>
       <c r="J4" t="n">
-        <v>12039.51856952029</v>
+        <v>12129.57059287725</v>
       </c>
       <c r="K4" t="n">
-        <v>12039.51856952029</v>
+        <v>12129.57059287725</v>
       </c>
       <c r="L4" t="n">
-        <v>12039.51856952029</v>
+        <v>12129.57059287725</v>
       </c>
       <c r="M4" t="n">
-        <v>12039.51856952029</v>
+        <v>12129.57059287725</v>
       </c>
       <c r="N4" t="n">
-        <v>12039.51856952029</v>
+        <v>12129.57059287725</v>
       </c>
       <c r="O4" t="n">
-        <v>12039.51856952029</v>
+        <v>12129.57059287725</v>
       </c>
       <c r="P4" t="n">
-        <v>12039.51856952029</v>
+        <v>12129.57059287725</v>
       </c>
     </row>
     <row r="5">
@@ -26475,43 +26475,43 @@
         <v>41112.97456555201</v>
       </c>
       <c r="D5" t="n">
-        <v>41619.48324307634</v>
+        <v>41744.72270709982</v>
       </c>
       <c r="E5" t="n">
-        <v>10399.47950537606</v>
+        <v>10377.86550560064</v>
       </c>
       <c r="F5" t="n">
-        <v>10399.47950537606</v>
+        <v>10377.86550560064</v>
       </c>
       <c r="G5" t="n">
-        <v>10399.47950537606</v>
+        <v>10377.86550560064</v>
       </c>
       <c r="H5" t="n">
-        <v>10399.47950537606</v>
+        <v>10377.86550560064</v>
       </c>
       <c r="I5" t="n">
-        <v>10399.47950537606</v>
+        <v>10377.86550560064</v>
       </c>
       <c r="J5" t="n">
-        <v>10399.47950537606</v>
+        <v>10377.86550560064</v>
       </c>
       <c r="K5" t="n">
-        <v>10399.47950537606</v>
+        <v>10377.86550560064</v>
       </c>
       <c r="L5" t="n">
-        <v>10399.47950537606</v>
+        <v>10377.86550560064</v>
       </c>
       <c r="M5" t="n">
-        <v>10399.47950537606</v>
+        <v>10377.86550560064</v>
       </c>
       <c r="N5" t="n">
-        <v>10399.47950537606</v>
+        <v>10377.86550560064</v>
       </c>
       <c r="O5" t="n">
-        <v>10399.47950537606</v>
+        <v>10377.86550560064</v>
       </c>
       <c r="P5" t="n">
-        <v>10399.47950537606</v>
+        <v>10377.86550560064</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-265309.2377096881</v>
+        <v>-282351.6253976036</v>
       </c>
       <c r="C6" t="n">
-        <v>12385.89109615168</v>
+        <v>-4345.937374665442</v>
       </c>
       <c r="D6" t="n">
-        <v>25688.10260615461</v>
+        <v>5359.305694981369</v>
       </c>
       <c r="E6" t="n">
-        <v>8921.022881236209</v>
+        <v>-1623.444069653739</v>
       </c>
       <c r="F6" t="n">
-        <v>97649.00728125355</v>
+        <v>81692.49843236236</v>
       </c>
       <c r="G6" t="n">
-        <v>97649.00728125352</v>
+        <v>81692.49843236236</v>
       </c>
       <c r="H6" t="n">
-        <v>97649.00728125355</v>
+        <v>81692.49843236236</v>
       </c>
       <c r="I6" t="n">
-        <v>97649.00728125352</v>
+        <v>81692.49843236236</v>
       </c>
       <c r="J6" t="n">
-        <v>97649.00728125352</v>
+        <v>81692.49843236236</v>
       </c>
       <c r="K6" t="n">
-        <v>97649.00728125355</v>
+        <v>81692.49843236236</v>
       </c>
       <c r="L6" t="n">
-        <v>97649.00728125352</v>
+        <v>81692.49843236236</v>
       </c>
       <c r="M6" t="n">
-        <v>97649.00728125352</v>
+        <v>81692.49843236235</v>
       </c>
       <c r="N6" t="n">
-        <v>97649.00728125352</v>
+        <v>81692.49843236236</v>
       </c>
       <c r="O6" t="n">
-        <v>97649.00728125352</v>
+        <v>81692.49843236236</v>
       </c>
       <c r="P6" t="n">
-        <v>97649.00728125352</v>
+        <v>81692.49843236236</v>
       </c>
     </row>
   </sheetData>
@@ -26743,43 +26743,43 @@
         <v>343.3658057592666</v>
       </c>
       <c r="D3" t="n">
-        <v>366.6001487649698</v>
+        <v>372.3450783073314</v>
       </c>
       <c r="E3" t="n">
-        <v>477.0403442833053</v>
+        <v>476.0488764036991</v>
       </c>
       <c r="F3" t="n">
-        <v>477.0403442833053</v>
+        <v>476.0488764036991</v>
       </c>
       <c r="G3" t="n">
-        <v>477.0403442833053</v>
+        <v>476.0488764036991</v>
       </c>
       <c r="H3" t="n">
-        <v>477.0403442833053</v>
+        <v>476.0488764036991</v>
       </c>
       <c r="I3" t="n">
-        <v>477.0403442833053</v>
+        <v>476.0488764036991</v>
       </c>
       <c r="J3" t="n">
-        <v>477.0403442833053</v>
+        <v>476.0488764036991</v>
       </c>
       <c r="K3" t="n">
-        <v>477.0403442833053</v>
+        <v>476.0488764036991</v>
       </c>
       <c r="L3" t="n">
-        <v>477.0403442833053</v>
+        <v>476.0488764036991</v>
       </c>
       <c r="M3" t="n">
-        <v>477.0403442833053</v>
+        <v>476.0488764036991</v>
       </c>
       <c r="N3" t="n">
-        <v>477.0403442833053</v>
+        <v>476.0488764036991</v>
       </c>
       <c r="O3" t="n">
-        <v>477.0403442833053</v>
+        <v>476.0488764036991</v>
       </c>
       <c r="P3" t="n">
-        <v>477.0403442833053</v>
+        <v>476.0488764036991</v>
       </c>
     </row>
     <row r="4">
@@ -26965,10 +26965,10 @@
         <v>31.69337312122769</v>
       </c>
       <c r="D3" t="n">
-        <v>23.23434300570329</v>
+        <v>28.97927254806484</v>
       </c>
       <c r="E3" t="n">
-        <v>110.4401955183356</v>
+        <v>103.7037980963677</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -31080,7 +31080,7 @@
         <v>28.5517007386505</v>
       </c>
       <c r="T2" t="n">
-        <v>5.484808337177948</v>
+        <v>5.484808337177949</v>
       </c>
       <c r="U2" t="n">
         <v>0.1002363602453993</v>
@@ -31123,7 +31123,7 @@
         <v>0.6703897607686119</v>
       </c>
       <c r="H3" t="n">
-        <v>6.474553742160015</v>
+        <v>6.474553742160016</v>
       </c>
       <c r="I3" t="n">
         <v>23.08140185102458</v>
@@ -31138,7 +31138,7 @@
         <v>145.559846959869</v>
       </c>
       <c r="M3" t="n">
-        <v>169.8614757877311</v>
+        <v>169.8614757877312</v>
       </c>
       <c r="N3" t="n">
         <v>174.3572036132365</v>
@@ -31208,10 +31208,10 @@
         <v>16.9018427404366</v>
       </c>
       <c r="J4" t="n">
-        <v>39.73568046927914</v>
+        <v>39.73568046927915</v>
       </c>
       <c r="K4" t="n">
-        <v>65.29792932973992</v>
+        <v>65.29792932973993</v>
       </c>
       <c r="L4" t="n">
         <v>83.55886825184406</v>
@@ -31220,13 +31220,13 @@
         <v>88.10111075373283</v>
       </c>
       <c r="N4" t="n">
-        <v>86.00626325567394</v>
+        <v>86.00626325567396</v>
       </c>
       <c r="O4" t="n">
         <v>79.44070463370868</v>
       </c>
       <c r="P4" t="n">
-        <v>67.97524661994207</v>
+        <v>67.97524661994208</v>
       </c>
       <c r="Q4" t="n">
         <v>47.06253732834386</v>
@@ -31235,7 +31235,7 @@
         <v>25.27101396438917</v>
       </c>
       <c r="S4" t="n">
-        <v>9.794689399460985</v>
+        <v>9.794689399460987</v>
       </c>
       <c r="T4" t="n">
         <v>2.40141054655538</v>
@@ -31293,13 +31293,13 @@
         <v>175.587610509951</v>
       </c>
       <c r="L5" t="n">
-        <v>217.8319573562029</v>
+        <v>217.8319573562028</v>
       </c>
       <c r="M5" t="n">
         <v>242.3800242835249</v>
       </c>
       <c r="N5" t="n">
-        <v>246.301986476946</v>
+        <v>246.3019864769461</v>
       </c>
       <c r="O5" t="n">
         <v>232.5759815281271</v>
@@ -31317,7 +31317,7 @@
         <v>31.45506853764538</v>
       </c>
       <c r="T5" t="n">
-        <v>6.04254799883895</v>
+        <v>6.042547998838951</v>
       </c>
       <c r="U5" t="n">
         <v>0.1104292038622766</v>
@@ -31360,7 +31360,7 @@
         <v>0.7385604123878564</v>
       </c>
       <c r="H6" t="n">
-        <v>7.132938719640613</v>
+        <v>7.132938719640614</v>
       </c>
       <c r="I6" t="n">
         <v>25.42850542651172</v>
@@ -31369,7 +31369,7 @@
         <v>69.77776247038078</v>
       </c>
       <c r="K6" t="n">
-        <v>119.2613101003672</v>
+        <v>119.2613101003671</v>
       </c>
       <c r="L6" t="n">
         <v>160.3615491897405</v>
@@ -31387,10 +31387,10 @@
         <v>141.0326457655372</v>
       </c>
       <c r="Q6" t="n">
-        <v>94.276588781299</v>
+        <v>94.27658878129901</v>
       </c>
       <c r="R6" t="n">
-        <v>45.85553156913376</v>
+        <v>45.85553156913377</v>
       </c>
       <c r="S6" t="n">
         <v>13.71843573009899</v>
@@ -31454,7 +31454,7 @@
         <v>92.05580962929582</v>
       </c>
       <c r="M7" t="n">
-        <v>97.05994407716445</v>
+        <v>97.05994407716446</v>
       </c>
       <c r="N7" t="n">
         <v>94.75207554665143</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.473769442271234</v>
+        <v>1.496864636411381</v>
       </c>
       <c r="H8" t="n">
-        <v>15.09324130066028</v>
+        <v>15.32976495764806</v>
       </c>
       <c r="I8" t="n">
-        <v>56.81749642316181</v>
+        <v>57.70787389524983</v>
       </c>
       <c r="J8" t="n">
-        <v>125.0843392009683</v>
+        <v>127.0445149346206</v>
       </c>
       <c r="K8" t="n">
-        <v>187.4689996923097</v>
+        <v>190.4067949939144</v>
       </c>
       <c r="L8" t="n">
-        <v>232.571871261218</v>
+        <v>236.2164661104893</v>
       </c>
       <c r="M8" t="n">
-        <v>258.781018580209</v>
+        <v>262.8363325882702</v>
       </c>
       <c r="N8" t="n">
-        <v>262.9683660080622</v>
+        <v>267.089299236474</v>
       </c>
       <c r="O8" t="n">
-        <v>248.3135711164776</v>
+        <v>252.2048515081583</v>
       </c>
       <c r="P8" t="n">
-        <v>211.9298880104065</v>
+        <v>215.2510057967523</v>
       </c>
       <c r="Q8" t="n">
-        <v>159.1505198590679</v>
+        <v>161.6445410052697</v>
       </c>
       <c r="R8" t="n">
-        <v>92.5766697280705</v>
+        <v>94.02742321697652</v>
       </c>
       <c r="S8" t="n">
-        <v>33.58352116575578</v>
+        <v>34.10980290222439</v>
       </c>
       <c r="T8" t="n">
-        <v>6.451425733542331</v>
+        <v>6.552524945890825</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1179015553816987</v>
+        <v>0.1197491709129105</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.7885361690416332</v>
+        <v>0.8008931873025619</v>
       </c>
       <c r="H9" t="n">
-        <v>7.615599316796827</v>
+        <v>7.734942098422112</v>
       </c>
       <c r="I9" t="n">
-        <v>27.14916196042465</v>
+        <v>27.57461193125049</v>
       </c>
       <c r="J9" t="n">
-        <v>74.49937551458694</v>
+        <v>75.66684275300214</v>
       </c>
       <c r="K9" t="n">
-        <v>127.3312988403764</v>
+        <v>129.3266863022738</v>
       </c>
       <c r="L9" t="n">
-        <v>171.2126449491494</v>
+        <v>173.8956896377778</v>
       </c>
       <c r="M9" t="n">
-        <v>199.7970810769085</v>
+        <v>202.9280676774956</v>
       </c>
       <c r="N9" t="n">
         <v>192.087253921875</v>
       </c>
       <c r="O9" t="n">
-        <v>187.6128138684275</v>
+        <v>190.5528628579038</v>
       </c>
       <c r="P9" t="n">
-        <v>150.5758233672571</v>
+        <v>152.9354718806094</v>
       </c>
       <c r="Q9" t="n">
-        <v>100.6559502797706</v>
+        <v>102.2333128212884</v>
       </c>
       <c r="R9" t="n">
-        <v>48.95841231997089</v>
+        <v>49.72563140111873</v>
       </c>
       <c r="S9" t="n">
-        <v>14.64671349075138</v>
+        <v>14.87623968520328</v>
       </c>
       <c r="T9" t="n">
-        <v>3.178354119952898</v>
+        <v>3.228161575136202</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05187737954221273</v>
+        <v>0.05269034126990541</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6610822354778143</v>
+        <v>0.6714419444886303</v>
       </c>
       <c r="H10" t="n">
-        <v>5.877622057248208</v>
+        <v>5.969729288271645</v>
       </c>
       <c r="I10" t="n">
-        <v>19.88054577236919</v>
+        <v>20.19209047607627</v>
       </c>
       <c r="J10" t="n">
-        <v>46.73851404828147</v>
+        <v>47.47094547534616</v>
       </c>
       <c r="K10" t="n">
-        <v>76.80573608551332</v>
+        <v>78.00934591422448</v>
       </c>
       <c r="L10" t="n">
-        <v>98.28489890003797</v>
+        <v>99.82510509242783</v>
       </c>
       <c r="M10" t="n">
-        <v>103.6276453303995</v>
+        <v>105.2515768074314</v>
       </c>
       <c r="N10" t="n">
-        <v>101.1636115436187</v>
+        <v>102.748929559792</v>
       </c>
       <c r="O10" t="n">
-        <v>93.44096906553692</v>
+        <v>94.90526684462934</v>
       </c>
       <c r="P10" t="n">
-        <v>79.95489146178943</v>
+        <v>81.20785117706122</v>
       </c>
       <c r="Q10" t="n">
-        <v>55.35662246351043</v>
+        <v>56.22410682440704</v>
       </c>
       <c r="R10" t="n">
-        <v>29.72466124248426</v>
+        <v>30.19047143127968</v>
       </c>
       <c r="S10" t="n">
-        <v>11.520860412827</v>
+        <v>11.70140188713367</v>
       </c>
       <c r="T10" t="n">
-        <v>2.824624097041569</v>
+        <v>2.868888308269602</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03605903102606264</v>
+        <v>0.03662410606301624</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.91775012777208</v>
+        <v>1.91376432725105</v>
       </c>
       <c r="H11" t="n">
-        <v>19.64015849604582</v>
+        <v>19.59933891645982</v>
       </c>
       <c r="I11" t="n">
-        <v>73.93406180093319</v>
+        <v>73.78039922634618</v>
       </c>
       <c r="J11" t="n">
-        <v>162.7666449069957</v>
+        <v>162.428355070024</v>
       </c>
       <c r="K11" t="n">
-        <v>243.9450078155879</v>
+        <v>243.437999042561</v>
       </c>
       <c r="L11" t="n">
-        <v>302.6353532883928</v>
+        <v>302.0063640726704</v>
       </c>
       <c r="M11" t="n">
-        <v>336.7401421231595</v>
+        <v>336.0402704274212</v>
       </c>
       <c r="N11" t="n">
         <v>335.5166055100142</v>
       </c>
       <c r="O11" t="n">
-        <v>323.1193218406583</v>
+        <v>322.4477592931206</v>
       </c>
       <c r="P11" t="n">
-        <v>275.774865561285</v>
+        <v>275.2017024641103</v>
       </c>
       <c r="Q11" t="n">
-        <v>207.0954391104474</v>
+        <v>206.665017494432</v>
       </c>
       <c r="R11" t="n">
-        <v>120.465871463663</v>
+        <v>120.2154984216839</v>
       </c>
       <c r="S11" t="n">
-        <v>43.70073103660632</v>
+        <v>43.60990460723335</v>
       </c>
       <c r="T11" t="n">
-        <v>8.394951184322284</v>
+        <v>8.377503342541477</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1534200102217664</v>
+        <v>0.153101146180084</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,19 +31831,19 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.026086778269751</v>
+        <v>1.023954186981541</v>
       </c>
       <c r="H12" t="n">
-        <v>9.909838095394703</v>
+        <v>9.889241753216467</v>
       </c>
       <c r="I12" t="n">
-        <v>35.32798776060327</v>
+        <v>35.25456301668904</v>
       </c>
       <c r="J12" t="n">
-        <v>96.94269864345925</v>
+        <v>96.74121553407626</v>
       </c>
       <c r="K12" t="n">
-        <v>165.6905127875326</v>
+        <v>165.3461460618395</v>
       </c>
       <c r="L12" t="n">
         <v>202.635780428066</v>
@@ -31858,22 +31858,22 @@
         <v>208.5470075</v>
       </c>
       <c r="P12" t="n">
-        <v>195.937570843458</v>
+        <v>195.5303394421156</v>
       </c>
       <c r="Q12" t="n">
-        <v>130.9790771700124</v>
+        <v>130.7068537627666</v>
       </c>
       <c r="R12" t="n">
-        <v>63.70738786485351</v>
+        <v>63.57498013557327</v>
       </c>
       <c r="S12" t="n">
-        <v>19.05911186829997</v>
+        <v>19.01949992046853</v>
       </c>
       <c r="T12" t="n">
-        <v>4.135849777324126</v>
+        <v>4.127253937877351</v>
       </c>
       <c r="U12" t="n">
-        <v>0.06750570909669418</v>
+        <v>0.06736540703825933</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8602366864125176</v>
+        <v>0.858448793514867</v>
       </c>
       <c r="H13" t="n">
-        <v>7.648286175558571</v>
+        <v>7.632390182341278</v>
       </c>
       <c r="I13" t="n">
-        <v>25.86966326047827</v>
+        <v>25.81589644497437</v>
       </c>
       <c r="J13" t="n">
-        <v>60.81873372936499</v>
+        <v>60.6923297015011</v>
       </c>
       <c r="K13" t="n">
-        <v>99.94386229410884</v>
+        <v>99.73614164654545</v>
       </c>
       <c r="L13" t="n">
-        <v>127.8937342690029</v>
+        <v>127.6279233558376</v>
       </c>
       <c r="M13" t="n">
-        <v>134.8460107619185</v>
+        <v>134.5657504234259</v>
       </c>
       <c r="N13" t="n">
-        <v>131.6396740216538</v>
+        <v>131.3660776475979</v>
       </c>
       <c r="O13" t="n">
-        <v>121.590545457653</v>
+        <v>121.337834923356</v>
       </c>
       <c r="P13" t="n">
-        <v>104.0417170548375</v>
+        <v>103.8254795356526</v>
       </c>
       <c r="Q13" t="n">
-        <v>72.0330919867791</v>
+        <v>71.88338033695855</v>
       </c>
       <c r="R13" t="n">
-        <v>38.67936955451192</v>
+        <v>38.59897938840484</v>
       </c>
       <c r="S13" t="n">
-        <v>14.99157934411632</v>
+        <v>14.96042124698181</v>
       </c>
       <c r="T13" t="n">
-        <v>3.675556751035302</v>
+        <v>3.667917572290795</v>
       </c>
       <c r="U13" t="n">
-        <v>0.04692200107704647</v>
+        <v>0.04682447964626553</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.91775012777208</v>
+        <v>1.91376432725105</v>
       </c>
       <c r="H14" t="n">
-        <v>19.64015849604582</v>
+        <v>19.59933891645982</v>
       </c>
       <c r="I14" t="n">
-        <v>73.93406180093319</v>
+        <v>73.78039922634618</v>
       </c>
       <c r="J14" t="n">
-        <v>162.7666449069957</v>
+        <v>162.428355070024</v>
       </c>
       <c r="K14" t="n">
-        <v>243.9450078155879</v>
+        <v>243.437999042561</v>
       </c>
       <c r="L14" t="n">
-        <v>302.6353532883928</v>
+        <v>302.0063640726704</v>
       </c>
       <c r="M14" t="n">
-        <v>336.7401421231595</v>
+        <v>336.0402704274212</v>
       </c>
       <c r="N14" t="n">
         <v>335.5166055100142</v>
       </c>
       <c r="O14" t="n">
-        <v>323.1193218406583</v>
+        <v>322.4477592931206</v>
       </c>
       <c r="P14" t="n">
-        <v>275.774865561285</v>
+        <v>275.2017024641103</v>
       </c>
       <c r="Q14" t="n">
-        <v>207.0954391104474</v>
+        <v>206.665017494432</v>
       </c>
       <c r="R14" t="n">
-        <v>120.465871463663</v>
+        <v>120.2154984216839</v>
       </c>
       <c r="S14" t="n">
-        <v>43.70073103660632</v>
+        <v>43.60990460723335</v>
       </c>
       <c r="T14" t="n">
-        <v>8.394951184322284</v>
+        <v>8.377503342541477</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1534200102217664</v>
+        <v>0.153101146180084</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,19 +32068,19 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.026086778269751</v>
+        <v>1.023954186981541</v>
       </c>
       <c r="H15" t="n">
-        <v>9.909838095394703</v>
+        <v>9.889241753216467</v>
       </c>
       <c r="I15" t="n">
-        <v>35.32798776060327</v>
+        <v>35.25456301668904</v>
       </c>
       <c r="J15" t="n">
-        <v>96.94269864345925</v>
+        <v>96.74121553407626</v>
       </c>
       <c r="K15" t="n">
-        <v>165.6905127875326</v>
+        <v>165.3461460618395</v>
       </c>
       <c r="L15" t="n">
         <v>202.635780428066</v>
@@ -32095,22 +32095,22 @@
         <v>208.5470075</v>
       </c>
       <c r="P15" t="n">
-        <v>195.937570843458</v>
+        <v>195.5303394421156</v>
       </c>
       <c r="Q15" t="n">
-        <v>130.9790771700124</v>
+        <v>130.7068537627666</v>
       </c>
       <c r="R15" t="n">
-        <v>63.70738786485351</v>
+        <v>63.57498013557327</v>
       </c>
       <c r="S15" t="n">
-        <v>19.05911186829997</v>
+        <v>19.01949992046853</v>
       </c>
       <c r="T15" t="n">
-        <v>4.135849777324126</v>
+        <v>4.127253937877351</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06750570909669418</v>
+        <v>0.06736540703825933</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8602366864125176</v>
+        <v>0.858448793514867</v>
       </c>
       <c r="H16" t="n">
-        <v>7.648286175558571</v>
+        <v>7.632390182341278</v>
       </c>
       <c r="I16" t="n">
-        <v>25.86966326047827</v>
+        <v>25.81589644497437</v>
       </c>
       <c r="J16" t="n">
-        <v>60.81873372936499</v>
+        <v>60.6923297015011</v>
       </c>
       <c r="K16" t="n">
-        <v>99.94386229410884</v>
+        <v>99.73614164654545</v>
       </c>
       <c r="L16" t="n">
-        <v>127.8937342690029</v>
+        <v>127.6279233558376</v>
       </c>
       <c r="M16" t="n">
-        <v>134.8460107619185</v>
+        <v>134.5657504234259</v>
       </c>
       <c r="N16" t="n">
-        <v>131.6396740216538</v>
+        <v>131.3660776475979</v>
       </c>
       <c r="O16" t="n">
-        <v>121.590545457653</v>
+        <v>121.337834923356</v>
       </c>
       <c r="P16" t="n">
-        <v>104.0417170548375</v>
+        <v>103.8254795356526</v>
       </c>
       <c r="Q16" t="n">
-        <v>72.0330919867791</v>
+        <v>71.88338033695855</v>
       </c>
       <c r="R16" t="n">
-        <v>38.67936955451192</v>
+        <v>38.59897938840484</v>
       </c>
       <c r="S16" t="n">
-        <v>14.99157934411632</v>
+        <v>14.96042124698181</v>
       </c>
       <c r="T16" t="n">
-        <v>3.675556751035302</v>
+        <v>3.667917572290795</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04692200107704647</v>
+        <v>0.04682447964626553</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.91775012777208</v>
+        <v>1.91376432725105</v>
       </c>
       <c r="H17" t="n">
-        <v>19.64015849604582</v>
+        <v>19.59933891645982</v>
       </c>
       <c r="I17" t="n">
-        <v>73.93406180093319</v>
+        <v>73.78039922634618</v>
       </c>
       <c r="J17" t="n">
-        <v>162.7666449069957</v>
+        <v>162.428355070024</v>
       </c>
       <c r="K17" t="n">
-        <v>243.9450078155879</v>
+        <v>243.437999042561</v>
       </c>
       <c r="L17" t="n">
-        <v>302.6353532883928</v>
+        <v>302.0063640726704</v>
       </c>
       <c r="M17" t="n">
-        <v>336.7401421231595</v>
+        <v>336.0402704274212</v>
       </c>
       <c r="N17" t="n">
         <v>335.5166055100142</v>
       </c>
       <c r="O17" t="n">
-        <v>323.1193218406583</v>
+        <v>322.4477592931206</v>
       </c>
       <c r="P17" t="n">
-        <v>275.774865561285</v>
+        <v>275.2017024641103</v>
       </c>
       <c r="Q17" t="n">
-        <v>207.0954391104474</v>
+        <v>206.665017494432</v>
       </c>
       <c r="R17" t="n">
-        <v>120.465871463663</v>
+        <v>120.2154984216839</v>
       </c>
       <c r="S17" t="n">
-        <v>43.70073103660632</v>
+        <v>43.60990460723335</v>
       </c>
       <c r="T17" t="n">
-        <v>8.394951184322284</v>
+        <v>8.377503342541477</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1534200102217664</v>
+        <v>0.153101146180084</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,19 +32305,19 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.026086778269751</v>
+        <v>1.023954186981541</v>
       </c>
       <c r="H18" t="n">
-        <v>9.909838095394703</v>
+        <v>9.889241753216467</v>
       </c>
       <c r="I18" t="n">
-        <v>35.32798776060327</v>
+        <v>35.25456301668904</v>
       </c>
       <c r="J18" t="n">
-        <v>96.94269864345925</v>
+        <v>96.74121553407626</v>
       </c>
       <c r="K18" t="n">
-        <v>165.6905127875326</v>
+        <v>165.3461460618395</v>
       </c>
       <c r="L18" t="n">
         <v>202.635780428066</v>
@@ -32332,22 +32332,22 @@
         <v>208.5470075</v>
       </c>
       <c r="P18" t="n">
-        <v>195.937570843458</v>
+        <v>195.5303394421156</v>
       </c>
       <c r="Q18" t="n">
-        <v>130.9790771700124</v>
+        <v>130.7068537627666</v>
       </c>
       <c r="R18" t="n">
-        <v>63.70738786485351</v>
+        <v>63.57498013557327</v>
       </c>
       <c r="S18" t="n">
-        <v>19.05911186829997</v>
+        <v>19.01949992046853</v>
       </c>
       <c r="T18" t="n">
-        <v>4.135849777324126</v>
+        <v>4.127253937877351</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06750570909669418</v>
+        <v>0.06736540703825933</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8602366864125176</v>
+        <v>0.858448793514867</v>
       </c>
       <c r="H19" t="n">
-        <v>7.648286175558571</v>
+        <v>7.632390182341278</v>
       </c>
       <c r="I19" t="n">
-        <v>25.86966326047827</v>
+        <v>25.81589644497437</v>
       </c>
       <c r="J19" t="n">
-        <v>60.81873372936499</v>
+        <v>60.6923297015011</v>
       </c>
       <c r="K19" t="n">
-        <v>99.94386229410884</v>
+        <v>99.73614164654545</v>
       </c>
       <c r="L19" t="n">
-        <v>127.8937342690029</v>
+        <v>127.6279233558376</v>
       </c>
       <c r="M19" t="n">
-        <v>134.8460107619185</v>
+        <v>134.5657504234259</v>
       </c>
       <c r="N19" t="n">
-        <v>131.6396740216538</v>
+        <v>131.3660776475979</v>
       </c>
       <c r="O19" t="n">
-        <v>121.590545457653</v>
+        <v>121.337834923356</v>
       </c>
       <c r="P19" t="n">
-        <v>104.0417170548375</v>
+        <v>103.8254795356526</v>
       </c>
       <c r="Q19" t="n">
-        <v>72.0330919867791</v>
+        <v>71.88338033695855</v>
       </c>
       <c r="R19" t="n">
-        <v>38.67936955451192</v>
+        <v>38.59897938840484</v>
       </c>
       <c r="S19" t="n">
-        <v>14.99157934411632</v>
+        <v>14.96042124698181</v>
       </c>
       <c r="T19" t="n">
-        <v>3.675556751035302</v>
+        <v>3.667917572290795</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04692200107704647</v>
+        <v>0.04682447964626553</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.91775012777208</v>
+        <v>1.91376432725105</v>
       </c>
       <c r="H20" t="n">
-        <v>19.64015849604582</v>
+        <v>19.59933891645982</v>
       </c>
       <c r="I20" t="n">
-        <v>73.93406180093319</v>
+        <v>73.78039922634618</v>
       </c>
       <c r="J20" t="n">
-        <v>162.7666449069957</v>
+        <v>162.428355070024</v>
       </c>
       <c r="K20" t="n">
-        <v>243.9450078155879</v>
+        <v>243.437999042561</v>
       </c>
       <c r="L20" t="n">
-        <v>302.6353532883928</v>
+        <v>302.0063640726704</v>
       </c>
       <c r="M20" t="n">
-        <v>336.7401421231595</v>
+        <v>336.0402704274212</v>
       </c>
       <c r="N20" t="n">
         <v>335.5166055100142</v>
       </c>
       <c r="O20" t="n">
-        <v>323.1193218406583</v>
+        <v>322.4477592931206</v>
       </c>
       <c r="P20" t="n">
-        <v>275.774865561285</v>
+        <v>275.2017024641103</v>
       </c>
       <c r="Q20" t="n">
-        <v>207.0954391104474</v>
+        <v>206.665017494432</v>
       </c>
       <c r="R20" t="n">
-        <v>120.465871463663</v>
+        <v>120.2154984216839</v>
       </c>
       <c r="S20" t="n">
-        <v>43.70073103660632</v>
+        <v>43.60990460723335</v>
       </c>
       <c r="T20" t="n">
-        <v>8.394951184322284</v>
+        <v>8.377503342541477</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1534200102217664</v>
+        <v>0.153101146180084</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,19 +32542,19 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.026086778269751</v>
+        <v>1.023954186981541</v>
       </c>
       <c r="H21" t="n">
-        <v>9.909838095394703</v>
+        <v>9.889241753216467</v>
       </c>
       <c r="I21" t="n">
-        <v>35.32798776060327</v>
+        <v>35.25456301668904</v>
       </c>
       <c r="J21" t="n">
-        <v>96.94269864345925</v>
+        <v>96.74121553407626</v>
       </c>
       <c r="K21" t="n">
-        <v>165.6905127875326</v>
+        <v>165.3461460618395</v>
       </c>
       <c r="L21" t="n">
         <v>202.635780428066</v>
@@ -32569,22 +32569,22 @@
         <v>208.5470075</v>
       </c>
       <c r="P21" t="n">
-        <v>195.937570843458</v>
+        <v>195.5303394421156</v>
       </c>
       <c r="Q21" t="n">
-        <v>130.9790771700124</v>
+        <v>130.7068537627666</v>
       </c>
       <c r="R21" t="n">
-        <v>63.70738786485351</v>
+        <v>63.57498013557327</v>
       </c>
       <c r="S21" t="n">
-        <v>19.05911186829997</v>
+        <v>19.01949992046853</v>
       </c>
       <c r="T21" t="n">
-        <v>4.135849777324126</v>
+        <v>4.127253937877351</v>
       </c>
       <c r="U21" t="n">
-        <v>0.06750570909669418</v>
+        <v>0.06736540703825933</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8602366864125176</v>
+        <v>0.858448793514867</v>
       </c>
       <c r="H22" t="n">
-        <v>7.648286175558571</v>
+        <v>7.632390182341278</v>
       </c>
       <c r="I22" t="n">
-        <v>25.86966326047827</v>
+        <v>25.81589644497437</v>
       </c>
       <c r="J22" t="n">
-        <v>60.81873372936499</v>
+        <v>60.6923297015011</v>
       </c>
       <c r="K22" t="n">
-        <v>99.94386229410884</v>
+        <v>99.73614164654545</v>
       </c>
       <c r="L22" t="n">
-        <v>127.8937342690029</v>
+        <v>127.6279233558376</v>
       </c>
       <c r="M22" t="n">
-        <v>134.8460107619185</v>
+        <v>134.5657504234259</v>
       </c>
       <c r="N22" t="n">
-        <v>131.6396740216538</v>
+        <v>131.3660776475979</v>
       </c>
       <c r="O22" t="n">
-        <v>121.590545457653</v>
+        <v>121.337834923356</v>
       </c>
       <c r="P22" t="n">
-        <v>104.0417170548375</v>
+        <v>103.8254795356526</v>
       </c>
       <c r="Q22" t="n">
-        <v>72.0330919867791</v>
+        <v>71.88338033695855</v>
       </c>
       <c r="R22" t="n">
-        <v>38.67936955451192</v>
+        <v>38.59897938840484</v>
       </c>
       <c r="S22" t="n">
-        <v>14.99157934411632</v>
+        <v>14.96042124698181</v>
       </c>
       <c r="T22" t="n">
-        <v>3.675556751035302</v>
+        <v>3.667917572290795</v>
       </c>
       <c r="U22" t="n">
-        <v>0.04692200107704647</v>
+        <v>0.04682447964626553</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.91775012777208</v>
+        <v>1.91376432725105</v>
       </c>
       <c r="H23" t="n">
-        <v>19.64015849604582</v>
+        <v>19.59933891645982</v>
       </c>
       <c r="I23" t="n">
-        <v>73.93406180093319</v>
+        <v>73.78039922634618</v>
       </c>
       <c r="J23" t="n">
-        <v>162.7666449069957</v>
+        <v>162.428355070024</v>
       </c>
       <c r="K23" t="n">
-        <v>243.9450078155879</v>
+        <v>243.437999042561</v>
       </c>
       <c r="L23" t="n">
-        <v>302.6353532883928</v>
+        <v>302.0063640726704</v>
       </c>
       <c r="M23" t="n">
-        <v>336.7401421231595</v>
+        <v>336.0402704274212</v>
       </c>
       <c r="N23" t="n">
         <v>335.5166055100142</v>
       </c>
       <c r="O23" t="n">
-        <v>323.1193218406583</v>
+        <v>322.4477592931206</v>
       </c>
       <c r="P23" t="n">
-        <v>275.774865561285</v>
+        <v>275.2017024641103</v>
       </c>
       <c r="Q23" t="n">
-        <v>207.0954391104474</v>
+        <v>206.665017494432</v>
       </c>
       <c r="R23" t="n">
-        <v>120.465871463663</v>
+        <v>120.2154984216839</v>
       </c>
       <c r="S23" t="n">
-        <v>43.70073103660632</v>
+        <v>43.60990460723335</v>
       </c>
       <c r="T23" t="n">
-        <v>8.394951184322284</v>
+        <v>8.377503342541477</v>
       </c>
       <c r="U23" t="n">
-        <v>0.1534200102217664</v>
+        <v>0.153101146180084</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,19 +32779,19 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.026086778269751</v>
+        <v>1.023954186981541</v>
       </c>
       <c r="H24" t="n">
-        <v>9.909838095394703</v>
+        <v>9.889241753216467</v>
       </c>
       <c r="I24" t="n">
-        <v>35.32798776060327</v>
+        <v>35.25456301668904</v>
       </c>
       <c r="J24" t="n">
-        <v>96.94269864345925</v>
+        <v>96.74121553407626</v>
       </c>
       <c r="K24" t="n">
-        <v>165.6905127875326</v>
+        <v>165.3461460618395</v>
       </c>
       <c r="L24" t="n">
         <v>202.635780428066</v>
@@ -32806,22 +32806,22 @@
         <v>208.5470075</v>
       </c>
       <c r="P24" t="n">
-        <v>195.937570843458</v>
+        <v>195.5303394421156</v>
       </c>
       <c r="Q24" t="n">
-        <v>130.9790771700124</v>
+        <v>130.7068537627666</v>
       </c>
       <c r="R24" t="n">
-        <v>63.70738786485351</v>
+        <v>63.57498013557327</v>
       </c>
       <c r="S24" t="n">
-        <v>19.05911186829997</v>
+        <v>19.01949992046853</v>
       </c>
       <c r="T24" t="n">
-        <v>4.135849777324126</v>
+        <v>4.127253937877351</v>
       </c>
       <c r="U24" t="n">
-        <v>0.06750570909669418</v>
+        <v>0.06736540703825933</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8602366864125176</v>
+        <v>0.858448793514867</v>
       </c>
       <c r="H25" t="n">
-        <v>7.648286175558571</v>
+        <v>7.632390182341278</v>
       </c>
       <c r="I25" t="n">
-        <v>25.86966326047827</v>
+        <v>25.81589644497437</v>
       </c>
       <c r="J25" t="n">
-        <v>60.81873372936499</v>
+        <v>60.6923297015011</v>
       </c>
       <c r="K25" t="n">
-        <v>99.94386229410884</v>
+        <v>99.73614164654545</v>
       </c>
       <c r="L25" t="n">
-        <v>127.8937342690029</v>
+        <v>127.6279233558376</v>
       </c>
       <c r="M25" t="n">
-        <v>134.8460107619185</v>
+        <v>134.5657504234259</v>
       </c>
       <c r="N25" t="n">
-        <v>131.6396740216538</v>
+        <v>131.3660776475979</v>
       </c>
       <c r="O25" t="n">
-        <v>121.590545457653</v>
+        <v>121.337834923356</v>
       </c>
       <c r="P25" t="n">
-        <v>104.0417170548375</v>
+        <v>103.8254795356526</v>
       </c>
       <c r="Q25" t="n">
-        <v>72.0330919867791</v>
+        <v>71.88338033695855</v>
       </c>
       <c r="R25" t="n">
-        <v>38.67936955451192</v>
+        <v>38.59897938840484</v>
       </c>
       <c r="S25" t="n">
-        <v>14.99157934411632</v>
+        <v>14.96042124698181</v>
       </c>
       <c r="T25" t="n">
-        <v>3.675556751035302</v>
+        <v>3.667917572290795</v>
       </c>
       <c r="U25" t="n">
-        <v>0.04692200107704647</v>
+        <v>0.04682447964626553</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.91775012777208</v>
+        <v>1.91376432725105</v>
       </c>
       <c r="H26" t="n">
-        <v>19.64015849604582</v>
+        <v>19.59933891645982</v>
       </c>
       <c r="I26" t="n">
-        <v>73.93406180093319</v>
+        <v>73.78039922634618</v>
       </c>
       <c r="J26" t="n">
-        <v>162.7666449069957</v>
+        <v>162.428355070024</v>
       </c>
       <c r="K26" t="n">
-        <v>243.9450078155879</v>
+        <v>243.437999042561</v>
       </c>
       <c r="L26" t="n">
-        <v>302.6353532883928</v>
+        <v>302.0063640726704</v>
       </c>
       <c r="M26" t="n">
-        <v>336.7401421231595</v>
+        <v>336.0402704274212</v>
       </c>
       <c r="N26" t="n">
         <v>335.5166055100142</v>
       </c>
       <c r="O26" t="n">
-        <v>323.1193218406583</v>
+        <v>322.4477592931206</v>
       </c>
       <c r="P26" t="n">
-        <v>275.774865561285</v>
+        <v>275.2017024641103</v>
       </c>
       <c r="Q26" t="n">
-        <v>207.0954391104474</v>
+        <v>206.665017494432</v>
       </c>
       <c r="R26" t="n">
-        <v>120.465871463663</v>
+        <v>120.2154984216839</v>
       </c>
       <c r="S26" t="n">
-        <v>43.70073103660632</v>
+        <v>43.60990460723335</v>
       </c>
       <c r="T26" t="n">
-        <v>8.394951184322284</v>
+        <v>8.377503342541477</v>
       </c>
       <c r="U26" t="n">
-        <v>0.1534200102217664</v>
+        <v>0.153101146180084</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,19 +33016,19 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.026086778269751</v>
+        <v>1.023954186981541</v>
       </c>
       <c r="H27" t="n">
-        <v>9.909838095394703</v>
+        <v>9.889241753216467</v>
       </c>
       <c r="I27" t="n">
-        <v>35.32798776060327</v>
+        <v>35.25456301668904</v>
       </c>
       <c r="J27" t="n">
-        <v>96.94269864345925</v>
+        <v>96.74121553407626</v>
       </c>
       <c r="K27" t="n">
-        <v>165.6905127875326</v>
+        <v>165.3461460618395</v>
       </c>
       <c r="L27" t="n">
         <v>202.635780428066</v>
@@ -33043,22 +33043,22 @@
         <v>208.5470075</v>
       </c>
       <c r="P27" t="n">
-        <v>195.937570843458</v>
+        <v>195.5303394421156</v>
       </c>
       <c r="Q27" t="n">
-        <v>130.9790771700124</v>
+        <v>130.7068537627666</v>
       </c>
       <c r="R27" t="n">
-        <v>63.70738786485351</v>
+        <v>63.57498013557327</v>
       </c>
       <c r="S27" t="n">
-        <v>19.05911186829997</v>
+        <v>19.01949992046853</v>
       </c>
       <c r="T27" t="n">
-        <v>4.135849777324126</v>
+        <v>4.127253937877351</v>
       </c>
       <c r="U27" t="n">
-        <v>0.06750570909669418</v>
+        <v>0.06736540703825933</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8602366864125176</v>
+        <v>0.858448793514867</v>
       </c>
       <c r="H28" t="n">
-        <v>7.648286175558571</v>
+        <v>7.632390182341278</v>
       </c>
       <c r="I28" t="n">
-        <v>25.86966326047827</v>
+        <v>25.81589644497437</v>
       </c>
       <c r="J28" t="n">
-        <v>60.81873372936499</v>
+        <v>60.6923297015011</v>
       </c>
       <c r="K28" t="n">
-        <v>99.94386229410884</v>
+        <v>99.73614164654545</v>
       </c>
       <c r="L28" t="n">
-        <v>127.8937342690029</v>
+        <v>127.6279233558376</v>
       </c>
       <c r="M28" t="n">
-        <v>134.8460107619185</v>
+        <v>134.5657504234259</v>
       </c>
       <c r="N28" t="n">
-        <v>131.6396740216538</v>
+        <v>131.3660776475979</v>
       </c>
       <c r="O28" t="n">
-        <v>121.590545457653</v>
+        <v>121.337834923356</v>
       </c>
       <c r="P28" t="n">
-        <v>104.0417170548375</v>
+        <v>103.8254795356526</v>
       </c>
       <c r="Q28" t="n">
-        <v>72.0330919867791</v>
+        <v>71.88338033695855</v>
       </c>
       <c r="R28" t="n">
-        <v>38.67936955451192</v>
+        <v>38.59897938840484</v>
       </c>
       <c r="S28" t="n">
-        <v>14.99157934411632</v>
+        <v>14.96042124698181</v>
       </c>
       <c r="T28" t="n">
-        <v>3.675556751035302</v>
+        <v>3.667917572290795</v>
       </c>
       <c r="U28" t="n">
-        <v>0.04692200107704647</v>
+        <v>0.04682447964626553</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.91775012777208</v>
+        <v>1.91376432725105</v>
       </c>
       <c r="H29" t="n">
-        <v>19.64015849604582</v>
+        <v>19.59933891645982</v>
       </c>
       <c r="I29" t="n">
-        <v>73.93406180093319</v>
+        <v>73.78039922634618</v>
       </c>
       <c r="J29" t="n">
-        <v>162.7666449069957</v>
+        <v>162.428355070024</v>
       </c>
       <c r="K29" t="n">
-        <v>243.9450078155879</v>
+        <v>243.437999042561</v>
       </c>
       <c r="L29" t="n">
-        <v>302.6353532883928</v>
+        <v>302.0063640726704</v>
       </c>
       <c r="M29" t="n">
-        <v>336.7401421231595</v>
+        <v>336.0402704274212</v>
       </c>
       <c r="N29" t="n">
         <v>335.5166055100142</v>
       </c>
       <c r="O29" t="n">
-        <v>323.1193218406583</v>
+        <v>322.4477592931206</v>
       </c>
       <c r="P29" t="n">
-        <v>275.774865561285</v>
+        <v>275.2017024641103</v>
       </c>
       <c r="Q29" t="n">
-        <v>207.0954391104474</v>
+        <v>206.665017494432</v>
       </c>
       <c r="R29" t="n">
-        <v>120.465871463663</v>
+        <v>120.2154984216839</v>
       </c>
       <c r="S29" t="n">
-        <v>43.70073103660632</v>
+        <v>43.60990460723335</v>
       </c>
       <c r="T29" t="n">
-        <v>8.394951184322284</v>
+        <v>8.377503342541477</v>
       </c>
       <c r="U29" t="n">
-        <v>0.1534200102217664</v>
+        <v>0.153101146180084</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,19 +33253,19 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.026086778269751</v>
+        <v>1.023954186981541</v>
       </c>
       <c r="H30" t="n">
-        <v>9.909838095394703</v>
+        <v>9.889241753216467</v>
       </c>
       <c r="I30" t="n">
-        <v>35.32798776060327</v>
+        <v>35.25456301668904</v>
       </c>
       <c r="J30" t="n">
-        <v>96.94269864345925</v>
+        <v>96.74121553407626</v>
       </c>
       <c r="K30" t="n">
-        <v>165.6905127875326</v>
+        <v>165.3461460618395</v>
       </c>
       <c r="L30" t="n">
         <v>202.635780428066</v>
@@ -33280,22 +33280,22 @@
         <v>208.5470075</v>
       </c>
       <c r="P30" t="n">
-        <v>195.937570843458</v>
+        <v>195.5303394421156</v>
       </c>
       <c r="Q30" t="n">
-        <v>130.9790771700124</v>
+        <v>130.7068537627666</v>
       </c>
       <c r="R30" t="n">
-        <v>63.70738786485351</v>
+        <v>63.57498013557327</v>
       </c>
       <c r="S30" t="n">
-        <v>19.05911186829997</v>
+        <v>19.01949992046853</v>
       </c>
       <c r="T30" t="n">
-        <v>4.135849777324126</v>
+        <v>4.127253937877351</v>
       </c>
       <c r="U30" t="n">
-        <v>0.06750570909669418</v>
+        <v>0.06736540703825933</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8602366864125176</v>
+        <v>0.858448793514867</v>
       </c>
       <c r="H31" t="n">
-        <v>7.648286175558571</v>
+        <v>7.632390182341278</v>
       </c>
       <c r="I31" t="n">
-        <v>25.86966326047827</v>
+        <v>25.81589644497437</v>
       </c>
       <c r="J31" t="n">
-        <v>60.81873372936499</v>
+        <v>60.6923297015011</v>
       </c>
       <c r="K31" t="n">
-        <v>99.94386229410884</v>
+        <v>99.73614164654545</v>
       </c>
       <c r="L31" t="n">
-        <v>127.8937342690029</v>
+        <v>127.6279233558376</v>
       </c>
       <c r="M31" t="n">
-        <v>134.8460107619185</v>
+        <v>134.5657504234259</v>
       </c>
       <c r="N31" t="n">
-        <v>131.6396740216538</v>
+        <v>131.3660776475979</v>
       </c>
       <c r="O31" t="n">
-        <v>121.590545457653</v>
+        <v>121.337834923356</v>
       </c>
       <c r="P31" t="n">
-        <v>104.0417170548375</v>
+        <v>103.8254795356526</v>
       </c>
       <c r="Q31" t="n">
-        <v>72.0330919867791</v>
+        <v>71.88338033695855</v>
       </c>
       <c r="R31" t="n">
-        <v>38.67936955451192</v>
+        <v>38.59897938840484</v>
       </c>
       <c r="S31" t="n">
-        <v>14.99157934411632</v>
+        <v>14.96042124698181</v>
       </c>
       <c r="T31" t="n">
-        <v>3.675556751035302</v>
+        <v>3.667917572290795</v>
       </c>
       <c r="U31" t="n">
-        <v>0.04692200107704647</v>
+        <v>0.04682447964626553</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.91775012777208</v>
+        <v>1.91376432725105</v>
       </c>
       <c r="H32" t="n">
-        <v>19.64015849604582</v>
+        <v>19.59933891645982</v>
       </c>
       <c r="I32" t="n">
-        <v>73.93406180093319</v>
+        <v>73.78039922634618</v>
       </c>
       <c r="J32" t="n">
-        <v>162.7666449069957</v>
+        <v>162.428355070024</v>
       </c>
       <c r="K32" t="n">
-        <v>243.9450078155879</v>
+        <v>243.437999042561</v>
       </c>
       <c r="L32" t="n">
-        <v>302.6353532883928</v>
+        <v>302.0063640726704</v>
       </c>
       <c r="M32" t="n">
-        <v>336.7401421231595</v>
+        <v>336.0402704274212</v>
       </c>
       <c r="N32" t="n">
         <v>335.5166055100142</v>
       </c>
       <c r="O32" t="n">
-        <v>323.1193218406583</v>
+        <v>322.4477592931206</v>
       </c>
       <c r="P32" t="n">
-        <v>275.774865561285</v>
+        <v>275.2017024641103</v>
       </c>
       <c r="Q32" t="n">
-        <v>207.0954391104474</v>
+        <v>206.665017494432</v>
       </c>
       <c r="R32" t="n">
-        <v>120.465871463663</v>
+        <v>120.2154984216839</v>
       </c>
       <c r="S32" t="n">
-        <v>43.70073103660632</v>
+        <v>43.60990460723335</v>
       </c>
       <c r="T32" t="n">
-        <v>8.394951184322284</v>
+        <v>8.377503342541477</v>
       </c>
       <c r="U32" t="n">
-        <v>0.1534200102217664</v>
+        <v>0.153101146180084</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,19 +33490,19 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.026086778269751</v>
+        <v>1.023954186981541</v>
       </c>
       <c r="H33" t="n">
-        <v>9.909838095394703</v>
+        <v>9.889241753216467</v>
       </c>
       <c r="I33" t="n">
-        <v>35.32798776060327</v>
+        <v>35.25456301668904</v>
       </c>
       <c r="J33" t="n">
-        <v>96.94269864345925</v>
+        <v>96.74121553407626</v>
       </c>
       <c r="K33" t="n">
-        <v>165.6905127875326</v>
+        <v>165.3461460618395</v>
       </c>
       <c r="L33" t="n">
         <v>202.635780428066</v>
@@ -33517,22 +33517,22 @@
         <v>208.5470075</v>
       </c>
       <c r="P33" t="n">
-        <v>195.937570843458</v>
+        <v>195.5303394421156</v>
       </c>
       <c r="Q33" t="n">
-        <v>130.9790771700124</v>
+        <v>130.7068537627666</v>
       </c>
       <c r="R33" t="n">
-        <v>63.70738786485351</v>
+        <v>63.57498013557327</v>
       </c>
       <c r="S33" t="n">
-        <v>19.05911186829997</v>
+        <v>19.01949992046853</v>
       </c>
       <c r="T33" t="n">
-        <v>4.135849777324126</v>
+        <v>4.127253937877351</v>
       </c>
       <c r="U33" t="n">
-        <v>0.06750570909669418</v>
+        <v>0.06736540703825933</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8602366864125176</v>
+        <v>0.858448793514867</v>
       </c>
       <c r="H34" t="n">
-        <v>7.648286175558571</v>
+        <v>7.632390182341278</v>
       </c>
       <c r="I34" t="n">
-        <v>25.86966326047827</v>
+        <v>25.81589644497437</v>
       </c>
       <c r="J34" t="n">
-        <v>60.81873372936499</v>
+        <v>60.6923297015011</v>
       </c>
       <c r="K34" t="n">
-        <v>99.94386229410884</v>
+        <v>99.73614164654545</v>
       </c>
       <c r="L34" t="n">
-        <v>127.8937342690029</v>
+        <v>127.6279233558376</v>
       </c>
       <c r="M34" t="n">
-        <v>134.8460107619185</v>
+        <v>134.5657504234259</v>
       </c>
       <c r="N34" t="n">
-        <v>131.6396740216538</v>
+        <v>131.3660776475979</v>
       </c>
       <c r="O34" t="n">
-        <v>121.590545457653</v>
+        <v>121.337834923356</v>
       </c>
       <c r="P34" t="n">
-        <v>104.0417170548375</v>
+        <v>103.8254795356526</v>
       </c>
       <c r="Q34" t="n">
-        <v>72.0330919867791</v>
+        <v>71.88338033695855</v>
       </c>
       <c r="R34" t="n">
-        <v>38.67936955451192</v>
+        <v>38.59897938840484</v>
       </c>
       <c r="S34" t="n">
-        <v>14.99157934411632</v>
+        <v>14.96042124698181</v>
       </c>
       <c r="T34" t="n">
-        <v>3.675556751035302</v>
+        <v>3.667917572290795</v>
       </c>
       <c r="U34" t="n">
-        <v>0.04692200107704647</v>
+        <v>0.04682447964626553</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.91775012777208</v>
+        <v>1.91376432725105</v>
       </c>
       <c r="H35" t="n">
-        <v>19.64015849604582</v>
+        <v>19.59933891645982</v>
       </c>
       <c r="I35" t="n">
-        <v>73.93406180093319</v>
+        <v>73.78039922634618</v>
       </c>
       <c r="J35" t="n">
-        <v>162.7666449069957</v>
+        <v>162.428355070024</v>
       </c>
       <c r="K35" t="n">
-        <v>243.9450078155879</v>
+        <v>243.437999042561</v>
       </c>
       <c r="L35" t="n">
-        <v>302.6353532883928</v>
+        <v>302.0063640726704</v>
       </c>
       <c r="M35" t="n">
-        <v>336.7401421231595</v>
+        <v>336.0402704274212</v>
       </c>
       <c r="N35" t="n">
         <v>335.5166055100142</v>
       </c>
       <c r="O35" t="n">
-        <v>323.1193218406583</v>
+        <v>322.4477592931206</v>
       </c>
       <c r="P35" t="n">
-        <v>275.774865561285</v>
+        <v>275.2017024641103</v>
       </c>
       <c r="Q35" t="n">
-        <v>207.0954391104474</v>
+        <v>206.665017494432</v>
       </c>
       <c r="R35" t="n">
-        <v>120.465871463663</v>
+        <v>120.2154984216839</v>
       </c>
       <c r="S35" t="n">
-        <v>43.70073103660632</v>
+        <v>43.60990460723335</v>
       </c>
       <c r="T35" t="n">
-        <v>8.394951184322284</v>
+        <v>8.377503342541477</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1534200102217664</v>
+        <v>0.153101146180084</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,19 +33727,19 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.026086778269751</v>
+        <v>1.023954186981541</v>
       </c>
       <c r="H36" t="n">
-        <v>9.909838095394703</v>
+        <v>9.889241753216467</v>
       </c>
       <c r="I36" t="n">
-        <v>35.32798776060327</v>
+        <v>35.25456301668904</v>
       </c>
       <c r="J36" t="n">
-        <v>96.94269864345925</v>
+        <v>96.74121553407626</v>
       </c>
       <c r="K36" t="n">
-        <v>165.6905127875326</v>
+        <v>165.3461460618395</v>
       </c>
       <c r="L36" t="n">
         <v>202.635780428066</v>
@@ -33754,22 +33754,22 @@
         <v>208.5470075</v>
       </c>
       <c r="P36" t="n">
-        <v>195.937570843458</v>
+        <v>195.5303394421156</v>
       </c>
       <c r="Q36" t="n">
-        <v>130.9790771700124</v>
+        <v>130.7068537627666</v>
       </c>
       <c r="R36" t="n">
-        <v>63.70738786485351</v>
+        <v>63.57498013557327</v>
       </c>
       <c r="S36" t="n">
-        <v>19.05911186829997</v>
+        <v>19.01949992046853</v>
       </c>
       <c r="T36" t="n">
-        <v>4.135849777324126</v>
+        <v>4.127253937877351</v>
       </c>
       <c r="U36" t="n">
-        <v>0.06750570909669418</v>
+        <v>0.06736540703825933</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8602366864125176</v>
+        <v>0.858448793514867</v>
       </c>
       <c r="H37" t="n">
-        <v>7.648286175558571</v>
+        <v>7.632390182341278</v>
       </c>
       <c r="I37" t="n">
-        <v>25.86966326047827</v>
+        <v>25.81589644497437</v>
       </c>
       <c r="J37" t="n">
-        <v>60.81873372936499</v>
+        <v>60.6923297015011</v>
       </c>
       <c r="K37" t="n">
-        <v>99.94386229410884</v>
+        <v>99.73614164654545</v>
       </c>
       <c r="L37" t="n">
-        <v>127.8937342690029</v>
+        <v>127.6279233558376</v>
       </c>
       <c r="M37" t="n">
-        <v>134.8460107619185</v>
+        <v>134.5657504234259</v>
       </c>
       <c r="N37" t="n">
-        <v>131.6396740216538</v>
+        <v>131.3660776475979</v>
       </c>
       <c r="O37" t="n">
-        <v>121.590545457653</v>
+        <v>121.337834923356</v>
       </c>
       <c r="P37" t="n">
-        <v>104.0417170548375</v>
+        <v>103.8254795356526</v>
       </c>
       <c r="Q37" t="n">
-        <v>72.0330919867791</v>
+        <v>71.88338033695855</v>
       </c>
       <c r="R37" t="n">
-        <v>38.67936955451192</v>
+        <v>38.59897938840484</v>
       </c>
       <c r="S37" t="n">
-        <v>14.99157934411632</v>
+        <v>14.96042124698181</v>
       </c>
       <c r="T37" t="n">
-        <v>3.675556751035302</v>
+        <v>3.667917572290795</v>
       </c>
       <c r="U37" t="n">
-        <v>0.04692200107704647</v>
+        <v>0.04682447964626553</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.91775012777208</v>
+        <v>1.91376432725105</v>
       </c>
       <c r="H38" t="n">
-        <v>19.64015849604582</v>
+        <v>19.59933891645982</v>
       </c>
       <c r="I38" t="n">
-        <v>73.93406180093319</v>
+        <v>73.78039922634618</v>
       </c>
       <c r="J38" t="n">
-        <v>162.7666449069957</v>
+        <v>162.428355070024</v>
       </c>
       <c r="K38" t="n">
-        <v>243.9450078155879</v>
+        <v>243.437999042561</v>
       </c>
       <c r="L38" t="n">
-        <v>302.6353532883928</v>
+        <v>302.0063640726704</v>
       </c>
       <c r="M38" t="n">
-        <v>336.7401421231595</v>
+        <v>336.0402704274212</v>
       </c>
       <c r="N38" t="n">
         <v>335.5166055100142</v>
       </c>
       <c r="O38" t="n">
-        <v>323.1193218406583</v>
+        <v>322.4477592931206</v>
       </c>
       <c r="P38" t="n">
-        <v>275.774865561285</v>
+        <v>275.2017024641103</v>
       </c>
       <c r="Q38" t="n">
-        <v>207.0954391104474</v>
+        <v>206.665017494432</v>
       </c>
       <c r="R38" t="n">
-        <v>120.465871463663</v>
+        <v>120.2154984216839</v>
       </c>
       <c r="S38" t="n">
-        <v>43.70073103660632</v>
+        <v>43.60990460723335</v>
       </c>
       <c r="T38" t="n">
-        <v>8.394951184322284</v>
+        <v>8.377503342541477</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1534200102217664</v>
+        <v>0.153101146180084</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,19 +33964,19 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.026086778269751</v>
+        <v>1.023954186981541</v>
       </c>
       <c r="H39" t="n">
-        <v>9.909838095394703</v>
+        <v>9.889241753216467</v>
       </c>
       <c r="I39" t="n">
-        <v>35.32798776060327</v>
+        <v>35.25456301668904</v>
       </c>
       <c r="J39" t="n">
-        <v>96.94269864345925</v>
+        <v>96.74121553407626</v>
       </c>
       <c r="K39" t="n">
-        <v>165.6905127875326</v>
+        <v>165.3461460618395</v>
       </c>
       <c r="L39" t="n">
         <v>202.635780428066</v>
@@ -33991,22 +33991,22 @@
         <v>208.5470075</v>
       </c>
       <c r="P39" t="n">
-        <v>195.937570843458</v>
+        <v>195.5303394421156</v>
       </c>
       <c r="Q39" t="n">
-        <v>130.9790771700124</v>
+        <v>130.7068537627666</v>
       </c>
       <c r="R39" t="n">
-        <v>63.70738786485351</v>
+        <v>63.57498013557327</v>
       </c>
       <c r="S39" t="n">
-        <v>19.05911186829997</v>
+        <v>19.01949992046853</v>
       </c>
       <c r="T39" t="n">
-        <v>4.135849777324126</v>
+        <v>4.127253937877351</v>
       </c>
       <c r="U39" t="n">
-        <v>0.06750570909669418</v>
+        <v>0.06736540703825933</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8602366864125176</v>
+        <v>0.858448793514867</v>
       </c>
       <c r="H40" t="n">
-        <v>7.648286175558571</v>
+        <v>7.632390182341278</v>
       </c>
       <c r="I40" t="n">
-        <v>25.86966326047827</v>
+        <v>25.81589644497437</v>
       </c>
       <c r="J40" t="n">
-        <v>60.81873372936499</v>
+        <v>60.6923297015011</v>
       </c>
       <c r="K40" t="n">
-        <v>99.94386229410884</v>
+        <v>99.73614164654545</v>
       </c>
       <c r="L40" t="n">
-        <v>127.8937342690029</v>
+        <v>127.6279233558376</v>
       </c>
       <c r="M40" t="n">
-        <v>134.8460107619185</v>
+        <v>134.5657504234259</v>
       </c>
       <c r="N40" t="n">
-        <v>131.6396740216538</v>
+        <v>131.3660776475979</v>
       </c>
       <c r="O40" t="n">
-        <v>121.590545457653</v>
+        <v>121.337834923356</v>
       </c>
       <c r="P40" t="n">
-        <v>104.0417170548375</v>
+        <v>103.8254795356526</v>
       </c>
       <c r="Q40" t="n">
-        <v>72.0330919867791</v>
+        <v>71.88338033695855</v>
       </c>
       <c r="R40" t="n">
-        <v>38.67936955451192</v>
+        <v>38.59897938840484</v>
       </c>
       <c r="S40" t="n">
-        <v>14.99157934411632</v>
+        <v>14.96042124698181</v>
       </c>
       <c r="T40" t="n">
-        <v>3.675556751035302</v>
+        <v>3.667917572290795</v>
       </c>
       <c r="U40" t="n">
-        <v>0.04692200107704647</v>
+        <v>0.04682447964626553</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.91775012777208</v>
+        <v>1.91376432725105</v>
       </c>
       <c r="H41" t="n">
-        <v>19.64015849604582</v>
+        <v>19.59933891645982</v>
       </c>
       <c r="I41" t="n">
-        <v>73.93406180093319</v>
+        <v>73.78039922634618</v>
       </c>
       <c r="J41" t="n">
-        <v>162.7666449069957</v>
+        <v>162.428355070024</v>
       </c>
       <c r="K41" t="n">
-        <v>243.9450078155879</v>
+        <v>243.437999042561</v>
       </c>
       <c r="L41" t="n">
-        <v>302.6353532883928</v>
+        <v>302.0063640726704</v>
       </c>
       <c r="M41" t="n">
-        <v>336.7401421231595</v>
+        <v>336.0402704274212</v>
       </c>
       <c r="N41" t="n">
         <v>335.5166055100142</v>
       </c>
       <c r="O41" t="n">
-        <v>323.1193218406583</v>
+        <v>322.4477592931206</v>
       </c>
       <c r="P41" t="n">
-        <v>275.774865561285</v>
+        <v>275.2017024641103</v>
       </c>
       <c r="Q41" t="n">
-        <v>207.0954391104474</v>
+        <v>206.665017494432</v>
       </c>
       <c r="R41" t="n">
-        <v>120.465871463663</v>
+        <v>120.2154984216839</v>
       </c>
       <c r="S41" t="n">
-        <v>43.70073103660632</v>
+        <v>43.60990460723335</v>
       </c>
       <c r="T41" t="n">
-        <v>8.394951184322284</v>
+        <v>8.377503342541477</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1534200102217664</v>
+        <v>0.153101146180084</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,19 +34201,19 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.026086778269751</v>
+        <v>1.023954186981541</v>
       </c>
       <c r="H42" t="n">
-        <v>9.909838095394703</v>
+        <v>9.889241753216467</v>
       </c>
       <c r="I42" t="n">
-        <v>35.32798776060327</v>
+        <v>35.25456301668904</v>
       </c>
       <c r="J42" t="n">
-        <v>96.94269864345925</v>
+        <v>96.74121553407626</v>
       </c>
       <c r="K42" t="n">
-        <v>165.6905127875326</v>
+        <v>165.3461460618395</v>
       </c>
       <c r="L42" t="n">
         <v>202.635780428066</v>
@@ -34228,22 +34228,22 @@
         <v>208.5470075</v>
       </c>
       <c r="P42" t="n">
-        <v>195.937570843458</v>
+        <v>195.5303394421156</v>
       </c>
       <c r="Q42" t="n">
-        <v>130.9790771700124</v>
+        <v>130.7068537627666</v>
       </c>
       <c r="R42" t="n">
-        <v>63.70738786485351</v>
+        <v>63.57498013557327</v>
       </c>
       <c r="S42" t="n">
-        <v>19.05911186829997</v>
+        <v>19.01949992046853</v>
       </c>
       <c r="T42" t="n">
-        <v>4.135849777324126</v>
+        <v>4.127253937877351</v>
       </c>
       <c r="U42" t="n">
-        <v>0.06750570909669418</v>
+        <v>0.06736540703825933</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8602366864125176</v>
+        <v>0.858448793514867</v>
       </c>
       <c r="H43" t="n">
-        <v>7.648286175558571</v>
+        <v>7.632390182341278</v>
       </c>
       <c r="I43" t="n">
-        <v>25.86966326047827</v>
+        <v>25.81589644497437</v>
       </c>
       <c r="J43" t="n">
-        <v>60.81873372936499</v>
+        <v>60.6923297015011</v>
       </c>
       <c r="K43" t="n">
-        <v>99.94386229410884</v>
+        <v>99.73614164654545</v>
       </c>
       <c r="L43" t="n">
-        <v>127.8937342690029</v>
+        <v>127.6279233558376</v>
       </c>
       <c r="M43" t="n">
-        <v>134.8460107619185</v>
+        <v>134.5657504234259</v>
       </c>
       <c r="N43" t="n">
-        <v>131.6396740216538</v>
+        <v>131.3660776475979</v>
       </c>
       <c r="O43" t="n">
-        <v>121.590545457653</v>
+        <v>121.337834923356</v>
       </c>
       <c r="P43" t="n">
-        <v>104.0417170548375</v>
+        <v>103.8254795356526</v>
       </c>
       <c r="Q43" t="n">
-        <v>72.0330919867791</v>
+        <v>71.88338033695855</v>
       </c>
       <c r="R43" t="n">
-        <v>38.67936955451192</v>
+        <v>38.59897938840484</v>
       </c>
       <c r="S43" t="n">
-        <v>14.99157934411632</v>
+        <v>14.96042124698181</v>
       </c>
       <c r="T43" t="n">
-        <v>3.675556751035302</v>
+        <v>3.667917572290795</v>
       </c>
       <c r="U43" t="n">
-        <v>0.04692200107704647</v>
+        <v>0.04682447964626553</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.91775012777208</v>
+        <v>1.91376432725105</v>
       </c>
       <c r="H44" t="n">
-        <v>19.64015849604582</v>
+        <v>19.59933891645982</v>
       </c>
       <c r="I44" t="n">
-        <v>73.93406180093319</v>
+        <v>73.78039922634618</v>
       </c>
       <c r="J44" t="n">
-        <v>162.7666449069957</v>
+        <v>162.428355070024</v>
       </c>
       <c r="K44" t="n">
-        <v>243.9450078155879</v>
+        <v>243.437999042561</v>
       </c>
       <c r="L44" t="n">
-        <v>302.6353532883928</v>
+        <v>302.0063640726704</v>
       </c>
       <c r="M44" t="n">
-        <v>336.7401421231595</v>
+        <v>336.0402704274212</v>
       </c>
       <c r="N44" t="n">
         <v>335.5166055100142</v>
       </c>
       <c r="O44" t="n">
-        <v>323.1193218406583</v>
+        <v>322.4477592931206</v>
       </c>
       <c r="P44" t="n">
-        <v>275.774865561285</v>
+        <v>275.2017024641103</v>
       </c>
       <c r="Q44" t="n">
-        <v>207.0954391104474</v>
+        <v>206.665017494432</v>
       </c>
       <c r="R44" t="n">
-        <v>120.465871463663</v>
+        <v>120.2154984216839</v>
       </c>
       <c r="S44" t="n">
-        <v>43.70073103660632</v>
+        <v>43.60990460723335</v>
       </c>
       <c r="T44" t="n">
-        <v>8.394951184322284</v>
+        <v>8.377503342541477</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1534200102217664</v>
+        <v>0.153101146180084</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,19 +34438,19 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.026086778269751</v>
+        <v>1.023954186981541</v>
       </c>
       <c r="H45" t="n">
-        <v>9.909838095394703</v>
+        <v>9.889241753216467</v>
       </c>
       <c r="I45" t="n">
-        <v>35.32798776060327</v>
+        <v>35.25456301668904</v>
       </c>
       <c r="J45" t="n">
-        <v>96.94269864345925</v>
+        <v>96.74121553407626</v>
       </c>
       <c r="K45" t="n">
-        <v>165.6905127875326</v>
+        <v>165.3461460618395</v>
       </c>
       <c r="L45" t="n">
         <v>202.635780428066</v>
@@ -34465,22 +34465,22 @@
         <v>208.5470075</v>
       </c>
       <c r="P45" t="n">
-        <v>195.937570843458</v>
+        <v>195.5303394421156</v>
       </c>
       <c r="Q45" t="n">
-        <v>130.9790771700124</v>
+        <v>130.7068537627666</v>
       </c>
       <c r="R45" t="n">
-        <v>63.70738786485351</v>
+        <v>63.57498013557327</v>
       </c>
       <c r="S45" t="n">
-        <v>19.05911186829997</v>
+        <v>19.01949992046853</v>
       </c>
       <c r="T45" t="n">
-        <v>4.135849777324126</v>
+        <v>4.127253937877351</v>
       </c>
       <c r="U45" t="n">
-        <v>0.06750570909669418</v>
+        <v>0.06736540703825933</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8602366864125176</v>
+        <v>0.858448793514867</v>
       </c>
       <c r="H46" t="n">
-        <v>7.648286175558571</v>
+        <v>7.632390182341278</v>
       </c>
       <c r="I46" t="n">
-        <v>25.86966326047827</v>
+        <v>25.81589644497437</v>
       </c>
       <c r="J46" t="n">
-        <v>60.81873372936499</v>
+        <v>60.6923297015011</v>
       </c>
       <c r="K46" t="n">
-        <v>99.94386229410884</v>
+        <v>99.73614164654545</v>
       </c>
       <c r="L46" t="n">
-        <v>127.8937342690029</v>
+        <v>127.6279233558376</v>
       </c>
       <c r="M46" t="n">
-        <v>134.8460107619185</v>
+        <v>134.5657504234259</v>
       </c>
       <c r="N46" t="n">
-        <v>131.6396740216538</v>
+        <v>131.3660776475979</v>
       </c>
       <c r="O46" t="n">
-        <v>121.590545457653</v>
+        <v>121.337834923356</v>
       </c>
       <c r="P46" t="n">
-        <v>104.0417170548375</v>
+        <v>103.8254795356526</v>
       </c>
       <c r="Q46" t="n">
-        <v>72.0330919867791</v>
+        <v>71.88338033695855</v>
       </c>
       <c r="R46" t="n">
-        <v>38.67936955451192</v>
+        <v>38.59897938840484</v>
       </c>
       <c r="S46" t="n">
-        <v>14.99157934411632</v>
+        <v>14.96042124698181</v>
       </c>
       <c r="T46" t="n">
-        <v>3.675556751035302</v>
+        <v>3.667917572290795</v>
       </c>
       <c r="U46" t="n">
-        <v>0.04692200107704647</v>
+        <v>0.04682447964626553</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
